--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mquar\Documents\DA11\Excel\lookups-exercise-MQuarles2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C45A2-7944-4EE6-AF9A-DF0B6350E145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="84" windowWidth="18528" windowHeight="12276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metro_budget!$A$1:$P$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -311,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +461,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -765,7 +768,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -808,21 +811,33 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -850,6 +865,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -862,6 +878,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -880,9 +897,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -920,7 +937,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1026,7 +1043,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1168,7 +1185,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,40 +1193,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="12" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1246,1661 +1263,3342 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>356640100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:D33" si="0">C2-B2</f>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E2" s="12">
+        <f t="shared" ref="E2:E33" si="1">IFERROR(D2/B2,"")</f>
+        <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F33" si="2">_xlfn.RANK.EQ(E2,$E$2:$E$52,1)</f>
+        <v>14</v>
+      </c>
       <c r="G2">
         <v>382685200</v>
       </c>
       <c r="H2">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="I2" s="8">
+        <f t="shared" ref="I2:I33" si="3">H2-G2</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="J2" s="12">
+        <f t="shared" ref="J2:J33" si="4">IFERROR(I2/G2,"")</f>
+        <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.RANK.EQ(J2,$J$2:$J$52,1)</f>
+        <v>10</v>
+      </c>
       <c r="L2">
         <v>376548600</v>
       </c>
       <c r="M2">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="N2" s="8">
+        <f t="shared" ref="N2:N33" si="5">M2-L2</f>
+        <v>-21269107.770000994</v>
+      </c>
+      <c r="O2" s="12">
+        <f t="shared" ref="O2:O33" si="6">IFERROR(N2/L2,"")</f>
+        <v>-5.6484362894991494E-2</v>
+      </c>
+      <c r="P2">
+        <f>_xlfn.RANK.EQ(O2,$O$2:$O$52,1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>328800</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="8">
+        <f t="shared" si="0"/>
+        <v>-7585.4099999999744</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.3069981751824741E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="G3">
         <v>334800</v>
       </c>
       <c r="H3">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3" s="8">
+        <f t="shared" si="3"/>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="4"/>
+        <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K52" si="7">_xlfn.RANK.EQ(J3,$J$2:$J$52,1)</f>
+        <v>14</v>
+      </c>
       <c r="L3">
         <v>322700</v>
       </c>
       <c r="M3">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="N3" s="8">
+        <f t="shared" si="5"/>
+        <v>-436.96000000002095</v>
+      </c>
+      <c r="O3" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.3540749922529313E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P52" si="8">_xlfn.RANK.EQ(O3,$O$2:$O$52,1)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>3130600</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
       <c r="G4">
         <v>3652300</v>
       </c>
       <c r="H4">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="I4" s="8">
+        <f t="shared" si="3"/>
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
       <c r="L4">
         <v>3662400</v>
       </c>
       <c r="M4">
         <v>3564983.04999999</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="N4" s="8">
+        <f t="shared" si="5"/>
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="O4" s="12">
+        <f t="shared" si="6"/>
+        <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>7670700</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="G5">
         <v>7968300</v>
       </c>
       <c r="H5">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="I5" s="8">
+        <f t="shared" si="3"/>
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.118932605449092</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="L5">
         <v>7759600</v>
       </c>
       <c r="M5">
         <v>7497322.9100000001</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="N5" s="8">
+        <f t="shared" si="5"/>
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" si="6"/>
+        <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>409300</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="G6">
         <v>428500</v>
       </c>
       <c r="H6">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="I6" s="8">
+        <f t="shared" si="3"/>
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
       <c r="L6">
         <v>445200</v>
       </c>
       <c r="M6">
         <v>445114.28999999899</v>
       </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="N6" s="8">
+        <f t="shared" si="5"/>
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>3329000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="G7">
         <v>3390900</v>
       </c>
       <c r="H7">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="I7" s="8">
+        <f t="shared" si="3"/>
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.10009631366303927</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
       <c r="L7">
         <v>3345200</v>
       </c>
       <c r="M7">
         <v>2946440.08</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="N7" s="8">
+        <f t="shared" si="5"/>
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.11920361114432618</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>1552100</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="G8">
         <v>1590700</v>
       </c>
       <c r="H8">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="I8" s="8">
+        <f t="shared" si="3"/>
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.13000189224870184</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="L8">
         <v>1579300</v>
       </c>
       <c r="M8">
         <v>1337735.3199999901</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8" s="8">
+        <f t="shared" si="5"/>
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>9349400</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="G9">
         <v>11073700</v>
       </c>
       <c r="H9">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="I9" s="8">
+        <f t="shared" si="3"/>
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.10336567542917005</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
       <c r="L9">
         <v>10790500</v>
       </c>
       <c r="M9">
         <v>9993599.52999999</v>
       </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="N9" s="8">
+        <f t="shared" si="5"/>
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="6"/>
+        <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>443300</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="G10">
         <v>495200</v>
       </c>
       <c r="H10">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="I10" s="8">
+        <f t="shared" si="3"/>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="4"/>
+        <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
       <c r="L10">
         <v>487500</v>
       </c>
       <c r="M10">
         <v>478318.92</v>
       </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="N10" s="8">
+        <f t="shared" si="5"/>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="I11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L11">
         <v>375000</v>
       </c>
       <c r="M11">
         <v>63771.91</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11" s="8">
+        <f t="shared" si="5"/>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>4280900</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="1"/>
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="G12">
         <v>4700400</v>
       </c>
       <c r="H12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="I12" s="8">
+        <f t="shared" si="3"/>
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.10527708280146378</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="L12">
         <v>4677800</v>
       </c>
       <c r="M12">
         <v>4371713.1399999997</v>
       </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="N12" s="8">
+        <f t="shared" si="5"/>
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="6"/>
+        <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>5847800</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
       <c r="G13">
         <v>6223700</v>
       </c>
       <c r="H13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="I13" s="8">
+        <f t="shared" si="3"/>
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="4"/>
+        <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
       <c r="L13">
         <v>6207300</v>
       </c>
       <c r="M13">
         <v>6056976.6699999999</v>
       </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="N13" s="8">
+        <f t="shared" si="5"/>
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="6"/>
+        <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>512000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="G14">
         <v>530500</v>
       </c>
       <c r="H14">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="I14" s="8">
+        <f t="shared" si="3"/>
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
       <c r="L14">
         <v>526200</v>
       </c>
       <c r="M14">
         <v>504989.88</v>
       </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="N14" s="8">
+        <f t="shared" si="5"/>
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="6"/>
+        <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>156049100</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="1"/>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
       <c r="G15">
         <v>184167800</v>
       </c>
       <c r="H15">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="I15" s="8">
+        <f t="shared" si="3"/>
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
       <c r="L15">
         <v>188953500</v>
       </c>
       <c r="M15">
         <v>184450910.84999901</v>
       </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15" s="8">
+        <f t="shared" si="5"/>
+        <v>-4502589.1500009894</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" si="6"/>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>6600700</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
       <c r="G16">
         <v>7352500</v>
       </c>
       <c r="H16">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="I16" s="8">
+        <f t="shared" si="3"/>
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="4"/>
+        <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
       <c r="L16">
         <v>7397200</v>
       </c>
       <c r="M16">
         <v>7397093</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16" s="8">
+        <f t="shared" si="5"/>
+        <v>-107</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.4464932677229222E-5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>14860800</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="G17">
         <v>15309700</v>
       </c>
       <c r="H17">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="I17" s="8">
+        <f t="shared" si="3"/>
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
       <c r="L17">
         <v>15311800</v>
       </c>
       <c r="M17">
         <v>14346057.039999999</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17" s="8">
+        <f t="shared" si="5"/>
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="O17" s="12">
+        <f t="shared" si="6"/>
+        <v>-6.3071811282801551E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>2764700</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="G18">
         <v>2861000</v>
       </c>
       <c r="H18">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="I18" s="8">
+        <f t="shared" si="3"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="4"/>
+        <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
       <c r="L18">
         <v>2910600</v>
       </c>
       <c r="M18">
         <v>2535637.09</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18" s="8">
+        <f t="shared" si="5"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>8837300</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="G19">
         <v>9713300</v>
       </c>
       <c r="H19">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="I19" s="8">
+        <f t="shared" si="3"/>
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="4"/>
+        <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="L19">
         <v>9343000</v>
       </c>
       <c r="M19">
         <v>8766655.9100000001</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19" s="8">
+        <f t="shared" si="5"/>
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="6"/>
+        <v>-6.1687262121374278E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>124385900</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
       <c r="G20">
         <v>131849400</v>
       </c>
       <c r="H20">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="I20" s="8">
+        <f t="shared" si="3"/>
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="4"/>
+        <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
       <c r="L20">
         <v>130621400</v>
       </c>
       <c r="M20">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20" s="8">
+        <f t="shared" si="5"/>
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="6"/>
+        <v>-8.9158438821450736E-7</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>24332100</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="1"/>
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="G21">
         <v>24497400</v>
       </c>
       <c r="H21">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="I21" s="8">
+        <f t="shared" si="3"/>
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="4"/>
+        <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
       <c r="L21">
         <v>24323000</v>
       </c>
       <c r="M21">
         <v>23434073.089999899</v>
       </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21" s="8">
+        <f t="shared" si="5"/>
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="6"/>
+        <v>-3.6546762734864152E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>11566000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
       <c r="G22">
         <v>11980700</v>
       </c>
       <c r="H22">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="I22" s="8">
+        <f t="shared" si="3"/>
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
       <c r="L22">
         <v>11935200</v>
       </c>
       <c r="M22">
         <v>11934454.77</v>
       </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="N22" s="8">
+        <f t="shared" si="5"/>
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="6"/>
+        <v>-6.2439674240938325E-5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>20862700</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="1"/>
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="G23">
         <v>22683800</v>
       </c>
       <c r="H23">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="I23" s="8">
+        <f t="shared" si="3"/>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
       <c r="L23">
         <v>23220300</v>
       </c>
       <c r="M23">
         <v>22619057.440000001</v>
       </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23" s="8">
+        <f t="shared" si="5"/>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="6"/>
+        <v>-2.5892971236375011E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>917200</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
       <c r="G24">
         <v>1112700</v>
       </c>
       <c r="H24">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="I24" s="8">
+        <f t="shared" si="3"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
       <c r="L24">
         <v>1112600</v>
       </c>
       <c r="M24">
         <v>1112527.1200000001</v>
       </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24" s="8">
+        <f t="shared" si="5"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="6"/>
+        <v>-6.5504224339284781E-5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>484100</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
       <c r="G25">
         <v>505200</v>
       </c>
       <c r="H25">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="I25" s="8">
+        <f t="shared" si="3"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
       <c r="L25">
         <v>496500</v>
       </c>
       <c r="M25">
         <v>494775.1</v>
       </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="N25" s="8">
+        <f t="shared" si="5"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="6"/>
+        <v>-3.4741188318228064E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>5249800</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="1"/>
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="G26">
         <v>5442200</v>
       </c>
       <c r="H26">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="I26" s="8">
+        <f t="shared" si="3"/>
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="4"/>
+        <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
       <c r="L26">
         <v>5430700</v>
       </c>
       <c r="M26">
         <v>5117235.21</v>
       </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="N26" s="8">
+        <f t="shared" si="5"/>
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="6"/>
+        <v>-5.7720881286022069E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="I27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P27" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>1382900</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="D28" s="8">
+        <f t="shared" si="0"/>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="1"/>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="G28">
         <v>1545700</v>
       </c>
       <c r="H28">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="I28" s="8">
+        <f t="shared" si="3"/>
+        <v>-264364.77</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="L28">
         <v>1525900</v>
       </c>
       <c r="M28">
         <v>1393285.06</v>
       </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" s="8">
+        <f t="shared" si="5"/>
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="6"/>
+        <v>-8.6909325643882263E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>2561800</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="D29" s="8">
+        <f t="shared" si="0"/>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
       <c r="G29">
         <v>2779500</v>
       </c>
       <c r="H29">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="I29" s="8">
+        <f t="shared" si="3"/>
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
       <c r="L29">
         <v>2889900</v>
       </c>
       <c r="M29">
         <v>2889864.67</v>
       </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29" s="8">
+        <f t="shared" si="5"/>
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.2225336516860273E-5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>12132200</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="D30" s="8">
+        <f t="shared" si="0"/>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="1"/>
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="G30">
         <v>12735900</v>
       </c>
       <c r="H30">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="I30" s="8">
+        <f t="shared" si="3"/>
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="4"/>
+        <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
       <c r="L30">
         <v>12861300</v>
       </c>
       <c r="M30">
         <v>12826009.609999999</v>
       </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="N30" s="8">
+        <f t="shared" si="5"/>
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="6"/>
+        <v>-2.7439209100169185E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>1765600</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="D31" s="8">
+        <f t="shared" si="0"/>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
       <c r="G31">
         <v>1823300</v>
       </c>
       <c r="H31">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="I31" s="8">
+        <f t="shared" si="3"/>
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="4"/>
+        <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
       <c r="L31">
         <v>1870700</v>
       </c>
       <c r="M31">
         <v>1801391.34</v>
       </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="N31" s="8">
+        <f t="shared" si="5"/>
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="6"/>
+        <v>-3.7049585716576634E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>5999400</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="D32" s="8">
+        <f t="shared" si="0"/>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="G32">
         <v>6195500</v>
       </c>
       <c r="H32">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="I32" s="8">
+        <f t="shared" si="3"/>
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
       <c r="L32">
         <v>6157400</v>
       </c>
       <c r="M32">
         <v>5987572.0199999996</v>
       </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="N32" s="8">
+        <f t="shared" si="5"/>
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="6"/>
+        <v>-2.7581118653977402E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>927703099.99999905</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="D33" s="8">
+        <f t="shared" si="0"/>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="1"/>
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
       <c r="G33">
         <v>979671000</v>
       </c>
       <c r="H33">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="I33" s="8">
+        <f t="shared" si="3"/>
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="4"/>
+        <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
       <c r="L33">
         <v>989572899.99999905</v>
       </c>
       <c r="M33">
         <v>984116289.40999901</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="N33" s="8">
+        <f t="shared" si="5"/>
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="6"/>
+        <v>-5.5141067323084929E-3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>4189300</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>4109958.22</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="D34" s="8">
+        <f t="shared" ref="D34:D65" si="9">C34-B34</f>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" ref="E34:E65" si="10">IFERROR(D34/B34,"")</f>
+        <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F65" si="11">_xlfn.RANK.EQ(E34,$E$2:$E$52,1)</f>
+        <v>26</v>
+      </c>
       <c r="G34">
         <v>4350600</v>
       </c>
       <c r="H34">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="I34" s="8">
+        <f t="shared" ref="I34:I65" si="12">H34-G34</f>
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" ref="J34:J65" si="13">IFERROR(I34/G34,"")</f>
+        <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
       <c r="L34">
         <v>4345600</v>
       </c>
       <c r="M34">
         <v>4229801.51</v>
       </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="N34" s="8">
+        <f t="shared" ref="N34:N65" si="14">M34-L34</f>
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" ref="O34:O65" si="15">IFERROR(N34/L34,"")</f>
+        <v>-2.6647296115611244E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="D35" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F35" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="I35" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K35" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="N35" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P35" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>798200</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="8">
         <v>735423.27999999898</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="D36" s="8">
+        <f t="shared" si="9"/>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="10"/>
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
       <c r="G36">
         <v>898700</v>
       </c>
       <c r="H36">
         <v>740966.94999999902</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="I36" s="8">
+        <f t="shared" si="12"/>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="13"/>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="L36">
         <v>878300</v>
       </c>
       <c r="M36">
         <v>777215.28999999899</v>
       </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="N36" s="8">
+        <f t="shared" si="14"/>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="15"/>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>2087800</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
         <v>2005447.73999999</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="D37" s="8">
+        <f t="shared" si="9"/>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="10"/>
+        <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
       <c r="G37">
         <v>2229200</v>
       </c>
       <c r="H37">
         <v>2118943.21</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="I37" s="8">
+        <f t="shared" si="12"/>
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="13"/>
+        <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L37">
         <v>2296900</v>
       </c>
       <c r="M37">
         <v>2108718.34</v>
       </c>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="N37" s="8">
+        <f t="shared" si="14"/>
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" si="15"/>
+        <v>-8.1928538464887526E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>855300</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="8">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="D38" s="8">
+        <f t="shared" si="9"/>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="10"/>
+        <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
       <c r="G38">
         <v>792800</v>
       </c>
       <c r="H38">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="I38" s="8">
+        <f t="shared" si="12"/>
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" si="13"/>
+        <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
       <c r="L38">
         <v>777800</v>
       </c>
       <c r="M38">
         <v>777663.26</v>
       </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="N38" s="8">
+        <f t="shared" si="14"/>
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="O38" s="12">
+        <f t="shared" si="15"/>
+        <v>-1.7580354847003174E-4</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>883900</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="8">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="D39" s="8">
+        <f t="shared" si="9"/>
+        <v>-70791.13</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="10"/>
+        <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
       <c r="G39">
         <v>1294400</v>
       </c>
       <c r="H39">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="I39" s="8">
+        <f t="shared" si="12"/>
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" si="13"/>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="L39">
         <v>1759500</v>
       </c>
       <c r="M39">
         <v>1680463.8699999901</v>
       </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39" s="8">
+        <f t="shared" si="14"/>
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="15"/>
+        <v>-4.4919653310605226E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>38381900</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="8">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="D40" s="8">
+        <f t="shared" si="9"/>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="10"/>
+        <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
       <c r="G40">
         <v>39964900</v>
       </c>
       <c r="H40">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="I40" s="8">
+        <f t="shared" si="12"/>
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="13"/>
+        <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
       <c r="L40">
         <v>40216700</v>
       </c>
       <c r="M40">
         <v>39606263.709999897</v>
       </c>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="N40" s="8">
+        <f t="shared" si="14"/>
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="15"/>
+        <v>-1.5178676768608648E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <v>4593300</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="8">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="D41" s="8">
+        <f t="shared" si="9"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="10"/>
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
       <c r="G41">
         <v>5089500</v>
       </c>
       <c r="H41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="I41" s="8">
+        <f t="shared" si="12"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="J41" s="12">
+        <f t="shared" si="13"/>
+        <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
       <c r="L41">
         <v>4799900</v>
       </c>
       <c r="M41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="N41" s="8">
+        <f t="shared" si="14"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="O41" s="12">
+        <f t="shared" si="15"/>
+        <v>-1.7099804162586642E-2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="8">
         <v>188593300</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="8">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="D42" s="8">
+        <f t="shared" si="9"/>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="10"/>
+        <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
       <c r="G42">
         <v>199130300</v>
       </c>
       <c r="H42">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="I42" s="8">
+        <f t="shared" si="12"/>
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="J42" s="12">
+        <f t="shared" si="13"/>
+        <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
       <c r="L42">
         <v>199954600</v>
       </c>
       <c r="M42">
         <v>199954563.74999899</v>
       </c>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="N42" s="8">
+        <f t="shared" si="14"/>
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="O42" s="12">
+        <f t="shared" si="15"/>
+        <v>-1.8129115815929696E-7</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>8135400</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="8">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="D43" s="8">
+        <f t="shared" si="9"/>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="10"/>
+        <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
       <c r="G43">
         <v>8560800</v>
       </c>
       <c r="H43">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="I43" s="8">
+        <f t="shared" si="12"/>
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="13"/>
+        <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
       <c r="L43">
         <v>8497500</v>
       </c>
       <c r="M43">
         <v>8150982.5699999901</v>
       </c>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43" s="8">
+        <f t="shared" si="14"/>
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="15"/>
+        <v>-4.0778750220654303E-2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>30083200</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="8">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="D44" s="8">
+        <f t="shared" si="9"/>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="10"/>
+        <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
       <c r="G44">
         <v>31040700</v>
       </c>
       <c r="H44">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="I44" s="8">
+        <f t="shared" si="12"/>
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="J44" s="12">
+        <f t="shared" si="13"/>
+        <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
       <c r="L44">
         <v>31282200</v>
       </c>
       <c r="M44">
         <v>31282141.25</v>
       </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="N44" s="8">
+        <f t="shared" si="14"/>
+        <v>-58.75</v>
+      </c>
+      <c r="O44" s="12">
+        <f t="shared" si="15"/>
+        <v>-1.8780648419868168E-6</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>55301600</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="8">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="D45" s="8">
+        <f t="shared" si="9"/>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="10"/>
+        <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
       <c r="G45">
         <v>56792200</v>
       </c>
       <c r="H45">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="I45" s="8">
+        <f t="shared" si="12"/>
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="J45" s="12">
+        <f t="shared" si="13"/>
+        <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
       <c r="L45">
         <v>56027100</v>
       </c>
       <c r="M45">
         <v>55386549.6599999</v>
       </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="N45" s="8">
+        <f t="shared" si="14"/>
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="O45" s="12">
+        <f t="shared" si="15"/>
+        <v>-1.1432866237947358E-2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>259100</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="8">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="D46" s="8">
+        <f t="shared" si="9"/>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E46" s="12">
+        <f t="shared" si="10"/>
+        <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
       <c r="G46">
         <v>266000</v>
       </c>
       <c r="H46">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="I46" s="8">
+        <f t="shared" si="12"/>
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="J46" s="12">
+        <f t="shared" si="13"/>
+        <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
       <c r="L46">
         <v>267100</v>
       </c>
       <c r="M46">
         <v>254753.15999999901</v>
       </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="N46" s="8">
+        <f t="shared" si="14"/>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="O46" s="12">
+        <f t="shared" si="15"/>
+        <v>-4.6225533508053113E-2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="8">
         <v>70390700</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="8">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="D47" s="8">
+        <f t="shared" si="9"/>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="10"/>
+        <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
       <c r="G47">
         <v>73467000</v>
       </c>
       <c r="H47">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="I47" s="8">
+        <f t="shared" si="12"/>
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="J47" s="12">
+        <f t="shared" si="13"/>
+        <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
       <c r="L47">
         <v>75072800</v>
       </c>
       <c r="M47">
         <v>75050829.179999903</v>
       </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="N47" s="8">
+        <f t="shared" si="14"/>
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="O47" s="12">
+        <f t="shared" si="15"/>
+        <v>-2.9266019117572752E-4</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="8">
         <v>6737100</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="8">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="D48" s="8">
+        <f t="shared" si="9"/>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E48" s="12">
+        <f t="shared" si="10"/>
+        <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
       <c r="G48">
         <v>7214700</v>
       </c>
       <c r="H48">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="I48" s="8">
+        <f t="shared" si="12"/>
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="J48" s="12">
+        <f t="shared" si="13"/>
+        <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
       <c r="L48">
         <v>7289800</v>
       </c>
       <c r="M48">
         <v>6882350.23999999</v>
       </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="N48" s="8">
+        <f t="shared" si="14"/>
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="O48" s="12">
+        <f t="shared" si="15"/>
+        <v>-5.5893132870587676E-2</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="8">
         <v>92200</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="8">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="D49" s="8">
+        <f t="shared" si="9"/>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="10"/>
+        <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
       <c r="G49">
         <v>102600</v>
       </c>
       <c r="H49">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="I49" s="8">
+        <f t="shared" si="12"/>
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="13"/>
+        <v>-6.9523586744639335E-2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="N49" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P49" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="8">
         <v>832600</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="8">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="D50" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
       <c r="G50">
         <v>859100</v>
       </c>
       <c r="H50">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="I50" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
       <c r="L50">
         <v>843200</v>
       </c>
       <c r="M50">
         <v>843200</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="N50" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="8">
         <v>8609500</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="8">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="D51" s="8">
+        <f t="shared" si="9"/>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="10"/>
+        <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
       <c r="G51">
         <v>8925500</v>
       </c>
       <c r="H51">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="I51" s="8">
+        <f t="shared" si="12"/>
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="13"/>
+        <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
       <c r="L51">
         <v>8833900</v>
       </c>
       <c r="M51">
         <v>8735843.3100000005</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="N51" s="8">
+        <f t="shared" si="14"/>
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="O51" s="12">
+        <f t="shared" si="15"/>
+        <v>-1.1100045280114048E-2</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="8">
         <v>2451000</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="8">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="D52" s="8">
+        <f t="shared" si="9"/>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="10"/>
+        <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
       <c r="G52">
         <v>2440700</v>
       </c>
       <c r="H52">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="I52" s="8">
+        <f t="shared" si="12"/>
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="13"/>
+        <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
       <c r="L52">
         <v>2321600</v>
       </c>
       <c r="M52">
         <v>2056835.26</v>
       </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="54" spans="1:15" ht="15">
+      <c r="N52" s="8">
+        <f t="shared" si="14"/>
+        <v>-264764.74</v>
+      </c>
+      <c r="O52" s="12">
+        <f t="shared" si="15"/>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="B56" s="8">
+        <f>VLOOKUP(A56,A:D,4,0)</f>
+        <v>-36209.630000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="B57" s="8">
+        <f t="shared" ref="B57:B61" si="16">VLOOKUP(A57,A:D,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="B58" s="8">
+        <f t="shared" si="16"/>
+        <v>-149396.10000000987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="B59" s="8">
+        <f t="shared" si="16"/>
+        <v>-12230.810000000056</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="B60" s="8">
+        <f t="shared" si="16"/>
+        <v>-4950.4699999999721</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
-      <c r="A63" s="7" t="s">
+      <c r="B61" s="8">
+        <f t="shared" si="16"/>
+        <v>-184239.79000001028</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="B83" s="1" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:7">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
-      <c r="A88" s="7" t="s">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="10">
         <v>1</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10">
         <v>2</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7">
+      <c r="E89" s="13"/>
+      <c r="F89" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
-      <c r="B90" s="8" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="E91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>75</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="10">
         <v>1</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7">
+      <c r="C96" s="10"/>
+      <c r="D96" s="10">
         <v>2</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7">
+      <c r="E96" s="13"/>
+      <c r="F96" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
-      <c r="B97" s="8" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="E98" s="4"/>
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="E99" s="4"/>
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="E100" s="4"/>
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
   </sheetData>
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
@@ -2916,16 +4614,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +4631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +4639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2949,7 +4647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +4655,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +4663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +4671,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +4679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +4687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +4695,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mquar\Documents\DA11\Excel\lookups-exercise-MQuarles2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C45A2-7944-4EE6-AF9A-DF0B6350E145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD71C541-C36D-47C2-B857-8724BAA4E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="84" windowWidth="18528" windowHeight="12276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3162,15 +3162,15 @@
         <v>4109958.22</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:D65" si="9">C34-B34</f>
+        <f t="shared" ref="D34:D52" si="9">C34-B34</f>
         <v>-79341.779999999795</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" ref="E34:E65" si="10">IFERROR(D34/B34,"")</f>
+        <f t="shared" ref="E34:E52" si="10">IFERROR(D34/B34,"")</f>
         <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="11">_xlfn.RANK.EQ(E34,$E$2:$E$52,1)</f>
+        <f t="shared" ref="F34:F52" si="11">_xlfn.RANK.EQ(E34,$E$2:$E$52,1)</f>
         <v>26</v>
       </c>
       <c r="G34">
@@ -3180,11 +3180,11 @@
         <v>4137588.7699999898</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" ref="I34:I65" si="12">H34-G34</f>
+        <f t="shared" ref="I34:I52" si="12">H34-G34</f>
         <v>-213011.23000001023</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" ref="J34:J65" si="13">IFERROR(I34/G34,"")</f>
+        <f t="shared" ref="J34:J52" si="13">IFERROR(I34/G34,"")</f>
         <v>-4.8961345561534093E-2</v>
       </c>
       <c r="K34">
@@ -3198,11 +3198,11 @@
         <v>4229801.51</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" ref="N34:N65" si="14">M34-L34</f>
+        <f t="shared" ref="N34:N52" si="14">M34-L34</f>
         <v>-115798.49000000022</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" ref="O34:O65" si="15">IFERROR(N34/L34,"")</f>
+        <f t="shared" ref="O34:O52" si="15">IFERROR(N34/L34,"")</f>
         <v>-2.6647296115611244E-2</v>
       </c>
       <c r="P34">
@@ -4296,8 +4296,28 @@
         <v>24</v>
       </c>
       <c r="B56" s="8">
-        <f>VLOOKUP(A56,A:D,4,0)</f>
+        <f>VLOOKUP($A56,$A$2:$P$52,4,0)</f>
         <v>-36209.630000000005</v>
+      </c>
+      <c r="C56" s="8">
+        <f>VLOOKUP(A56,$A$2:$P$52,9,0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D56" s="8">
+        <f>VLOOKUP(A56,$A$2:$P$52,14,0)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="E56" s="12">
+        <f>MATCH(B56,B65)</f>
+        <v>1</v>
+      </c>
+      <c r="F56" s="12">
+        <f>MATCH(C56,C65)</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="12">
+        <f>MATCH(D56,D65)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -4305,8 +4325,28 @@
         <v>25</v>
       </c>
       <c r="B57" s="8">
-        <f t="shared" ref="B57:B61" si="16">VLOOKUP(A57,A:D,4,0)</f>
+        <f t="shared" ref="B57:B61" si="16">VLOOKUP(A57,$A$2:$P$52,4,0)</f>
         <v>0</v>
+      </c>
+      <c r="C57" s="8">
+        <f t="shared" ref="C57:C61" si="17">VLOOKUP(A57,$A$2:$P$52,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" ref="D57:D61" si="18">VLOOKUP(A57,$A$2:$P$52,14,0)</f>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="E57" s="12">
+        <f t="shared" ref="E57:E70" si="19">MATCH(B57,B66)</f>
+        <v>1</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" ref="F57:G57" si="20">MATCH(C57,C66)</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="12">
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -4317,6 +4357,26 @@
         <f t="shared" si="16"/>
         <v>-149396.10000000987</v>
       </c>
+      <c r="C58" s="8">
+        <f t="shared" si="17"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58" s="8">
+        <f t="shared" si="18"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="E58" s="12">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="12">
+        <f t="shared" ref="F58:G58" si="21">MATCH(C58,C67)</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="12">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -4326,6 +4386,26 @@
         <f t="shared" si="16"/>
         <v>-12230.810000000056</v>
       </c>
+      <c r="C59" s="8">
+        <f t="shared" si="17"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="18"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" ref="F59:G59" si="22">MATCH(C59,C68)</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="12">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -4335,6 +4415,26 @@
         <f t="shared" si="16"/>
         <v>-4950.4699999999721</v>
       </c>
+      <c r="C60" s="8">
+        <f t="shared" si="17"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60" s="8">
+        <f t="shared" si="18"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="E60" s="12">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="12">
+        <f t="shared" ref="F60:G60" si="23">MATCH(C60,C69)</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -4344,6 +4444,26 @@
         <f t="shared" si="16"/>
         <v>-184239.79000001028</v>
       </c>
+      <c r="C61" s="8">
+        <f t="shared" si="17"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61" s="8">
+        <f t="shared" si="18"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="E61" s="12">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="12">
+        <f t="shared" ref="F61:G61" si="24">MATCH(C61,C70)</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="12">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
@@ -4364,42 +4484,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="8">
+        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$D$2:$D$52,0)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65" s="8">
+        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$I$2:$I$52,0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65" s="8">
+        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$N$2:$N$52,0)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="8">
+        <f t="shared" ref="B66:B70" si="25">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="8">
+        <f t="shared" ref="C66:C70" si="26">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <f t="shared" ref="D66:D70" si="27">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,0)</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="8">
+        <f t="shared" si="25"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67" s="8">
+        <f t="shared" si="26"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="27"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="8">
+        <f t="shared" si="25"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68" s="8">
+        <f t="shared" si="26"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" si="27"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="8">
+        <f t="shared" si="25"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" si="26"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="27"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="8">
+        <f t="shared" si="25"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" si="26"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70" s="8">
+        <f t="shared" si="27"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -4413,34 +4605,178 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="8">
+        <f>INDEX($D$2:$D$52,MATCH($A74,$A$2:$A$52,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74" s="8">
+        <f>INDEX($I$2:$I$52,MATCH($A74,$A$2:$A$52,0))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74" s="8">
+        <f>INDEX($N$2:$N$52,MATCH($A74,$A$2:$A$52,0))</f>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="E74" s="12">
+        <f>MATCH(B74,B65)</f>
+        <v>1</v>
+      </c>
+      <c r="F74" s="12">
+        <f t="shared" ref="F74:G74" si="28">MATCH(C74,C65)</f>
+        <v>1</v>
+      </c>
+      <c r="G74" s="12">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="8">
+        <f t="shared" ref="B75:B79" si="29">INDEX($D$2:$D$52,MATCH(A75,$A$2:$A$52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" ref="C75:C79" si="30">INDEX($I$2:$I$52,MATCH($A75,$A$2:$A$52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" ref="D75:D79" si="31">INDEX($N$2:$N$52,MATCH($A75,$A$2:$A$52,0))</f>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="E75" s="12">
+        <f t="shared" ref="E75:E79" si="32">MATCH(B75,B66)</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="12">
+        <f t="shared" ref="F75:F79" si="33">MATCH(C75,C66)</f>
+        <v>1</v>
+      </c>
+      <c r="G75" s="12">
+        <f t="shared" ref="G75:G79" si="34">MATCH(D75,D66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="8">
+        <f t="shared" si="29"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76" s="8">
+        <f t="shared" si="30"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76" s="8">
+        <f t="shared" si="31"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="E76" s="12">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F76" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="G76" s="12">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="8">
+        <f t="shared" si="29"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" si="30"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="31"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="E77" s="12">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F77" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="G77" s="12">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="8">
+        <f t="shared" si="29"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78" s="8">
+        <f t="shared" si="30"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78" s="8">
+        <f t="shared" si="31"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="E78" s="12">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F78" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="G78" s="12">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
+      </c>
+      <c r="B79" s="8">
+        <f t="shared" si="29"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79" s="8">
+        <f t="shared" si="30"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="31"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="E79" s="12">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="G79" s="12">
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mquar\Documents\DA11\Excel\lookups-exercise-MQuarles2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD71C541-C36D-47C2-B857-8724BAA4E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BBDDF-E07A-42CC-BB30-2DB90D31C89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="84" windowWidth="18528" windowHeight="12276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>Department</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Actual spending amount - budget amount for fiscal year 2019</t>
+  </si>
+  <si>
+    <t>Dropdown:</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +654,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -814,7 +823,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -836,6 +845,10 @@
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -883,7 +896,155 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -894,6 +1055,1030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Budget </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$B$84:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3130600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3652300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3662400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-448B-4CB4-9A82-47CED65CBBEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Actual </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3115157.5599999898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3589693.2099999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3564983.04999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-448B-4CB4-9A82-47CED65CBBEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1102427407"/>
+        <c:axId val="1704688239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1102427407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704688239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1704688239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102427407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1203960</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6ED4F36-9BEB-7FFE-1EAC-B5CE1959361B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E63F6593-A675-40C9-A7A7-7506CFDF0F59}" name="Table1" displayName="Table1" ref="A1:P52" totalsRowShown="0">
+  <autoFilter ref="A1:P52" xr:uid="{E63F6593-A675-40C9-A7A7-7506CFDF0F59}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P52">
+    <sortCondition ref="A1:A52"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{5CAE1FF1-4A7B-4772-962A-09DE40F6FE59}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{1FF789FA-641F-4F18-BE89-CD6C3E06A117}" name="FY17_Budget" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{DA6F5795-E96E-441D-8A23-620A9DDD9A98}" name="FY17_Actual" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{B0231D47-4AFC-4158-9D43-4CE0AF21FED8}" name="FY17_diff" dataDxfId="5" dataCellStyle="Currency">
+      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{6D7A84FC-8037-44FA-A4BA-A3C2B9967513}" name="FY17_diff_pct" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>IFERROR(D2/B2,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{1CB654AB-C6C0-4573-AD67-2D608B99BF3C}" name="FY17_rank">
+      <calculatedColumnFormula>_xlfn.RANK.EQ(E2,$E$2:$E$52,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{52320808-0D5C-4109-9C71-25F29CCCF8E5}" name="FY18_Budget"/>
+    <tableColumn id="8" xr3:uid="{D1B2CA1B-9FE3-4599-8D41-43F96AE58590}" name="FY18_Actual"/>
+    <tableColumn id="9" xr3:uid="{78265157-01BC-4EFF-89F4-61EC011B8725}" name="FY18_diff" dataDxfId="3" dataCellStyle="Currency">
+      <calculatedColumnFormula>H2-G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E00B306C-1446-40BD-A100-47EA06B8C61F}" name="FY18_diff_pct" dataDxfId="2" dataCellStyle="Percent">
+      <calculatedColumnFormula>IFERROR(I2/G2,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{23980DCF-D19C-4E03-BB9D-B2CC80868D41}" name="FY18_rank">
+      <calculatedColumnFormula>_xlfn.RANK.EQ(J2,$J$2:$J$52,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{3B284805-47B7-4AAB-BB28-E625BC6D8B1D}" name="FY19_Budget"/>
+    <tableColumn id="13" xr3:uid="{09D620BA-796E-4D25-9599-FE7096D6694E}" name="FY19_Actual"/>
+    <tableColumn id="14" xr3:uid="{D14486E2-13D5-43CD-BF72-2833CAF80BCB}" name="FY19_diff" dataDxfId="1" dataCellStyle="Currency">
+      <calculatedColumnFormula>M2-L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{4F9BDF74-DF6C-43DE-B081-38C45EE9F05F}" name="FY19_diff_pct" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>IFERROR(N2/L2,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{B56376D6-AEC3-4C8A-B981-1014DD780F91}" name="FY19_rank">
+      <calculatedColumnFormula>_xlfn.RANK.EQ(O2,$O$2:$O$52,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1195,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,15 +2459,15 @@
         <v>341243679.13</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D33" si="0">C2-B2</f>
+        <f>C2-B2</f>
         <v>-15396420.870000005</v>
       </c>
       <c r="E2" s="12">
-        <f t="shared" ref="E2:E33" si="1">IFERROR(D2/B2,"")</f>
+        <f>IFERROR(D2/B2,"")</f>
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F33" si="2">_xlfn.RANK.EQ(E2,$E$2:$E$52,1)</f>
+        <f>_xlfn.RANK.EQ(E2,$E$2:$E$52,1)</f>
         <v>14</v>
       </c>
       <c r="G2">
@@ -1292,11 +2477,11 @@
         <v>346340810.81999999</v>
       </c>
       <c r="I2" s="8">
-        <f t="shared" ref="I2:I33" si="3">H2-G2</f>
+        <f>H2-G2</f>
         <v>-36344389.180000007</v>
       </c>
       <c r="J2" s="12">
-        <f t="shared" ref="J2:J33" si="4">IFERROR(I2/G2,"")</f>
+        <f>IFERROR(I2/G2,"")</f>
         <v>-9.4972027086493035E-2</v>
       </c>
       <c r="K2">
@@ -1310,11 +2495,11 @@
         <v>355279492.22999901</v>
       </c>
       <c r="N2" s="8">
-        <f t="shared" ref="N2:N33" si="5">M2-L2</f>
+        <f>M2-L2</f>
         <v>-21269107.770000994</v>
       </c>
       <c r="O2" s="12">
-        <f t="shared" ref="O2:O33" si="6">IFERROR(N2/L2,"")</f>
+        <f>IFERROR(N2/L2,"")</f>
         <v>-5.6484362894991494E-2</v>
       </c>
       <c r="P2">
@@ -1333,15 +2518,15 @@
         <v>321214.59000000003</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" si="0"/>
+        <f>C3-B3</f>
         <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D3/B3,"")</f>
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E3,$E$2:$E$52,1)</f>
         <v>22</v>
       </c>
       <c r="G3">
@@ -1351,15 +2536,15 @@
         <v>312433.70999999897</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" si="3"/>
+        <f>H3-G3</f>
         <v>-22366.290000001027</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I3/G3,"")</f>
         <v>-6.6804928315415249E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K52" si="7">_xlfn.RANK.EQ(J3,$J$2:$J$52,1)</f>
+        <f>_xlfn.RANK.EQ(J3,$J$2:$J$52,1)</f>
         <v>14</v>
       </c>
       <c r="L3">
@@ -1369,15 +2554,15 @@
         <v>322263.03999999998</v>
       </c>
       <c r="N3" s="8">
-        <f t="shared" si="5"/>
+        <f>M3-L3</f>
         <v>-436.96000000002095</v>
       </c>
       <c r="O3" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N3/L3,"")</f>
         <v>-1.3540749922529313E-3</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P52" si="8">_xlfn.RANK.EQ(O3,$O$2:$O$52,1)</f>
+        <f>_xlfn.RANK.EQ(O3,$O$2:$O$52,1)</f>
         <v>37</v>
       </c>
     </row>
@@ -1392,15 +2577,15 @@
         <v>3115157.5599999898</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="0"/>
+        <f>C4-B4</f>
         <v>-15442.440000010189</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D4/B4,"")</f>
         <v>-4.9327413275443007E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E4,$E$2:$E$52,1)</f>
         <v>42</v>
       </c>
       <c r="G4">
@@ -1410,15 +2595,15 @@
         <v>3589693.2099999902</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" si="3"/>
+        <f>H4-G4</f>
         <v>-62606.790000009816</v>
       </c>
       <c r="J4" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I4/G4,"")</f>
         <v>-1.7141743558856015E-2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J4,$J$2:$J$52,1)</f>
         <v>36</v>
       </c>
       <c r="L4">
@@ -1428,15 +2613,15 @@
         <v>3564983.04999999</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="5"/>
+        <f>M4-L4</f>
         <v>-97416.950000009965</v>
       </c>
       <c r="O4" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N4/L4,"")</f>
         <v>-2.6599210899959033E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O4,$O$2:$O$52,1)</f>
         <v>25</v>
       </c>
     </row>
@@ -1451,15 +2636,15 @@
         <v>6947552.6699999999</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="0"/>
+        <f>C5-B5</f>
         <v>-723147.33000000007</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D5/B5,"")</f>
         <v>-9.4273968477453174E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E5,$E$2:$E$52,1)</f>
         <v>4</v>
       </c>
       <c r="G5">
@@ -1469,15 +2654,15 @@
         <v>7020609.3200000003</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="3"/>
+        <f>H5-G5</f>
         <v>-947690.6799999997</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I5/G5,"")</f>
         <v>-0.118932605449092</v>
       </c>
       <c r="K5">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J5,$J$2:$J$52,1)</f>
         <v>5</v>
       </c>
       <c r="L5">
@@ -1487,15 +2672,15 @@
         <v>7497322.9100000001</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" si="5"/>
+        <f>M5-L5</f>
         <v>-262277.08999999985</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N5/L5,"")</f>
         <v>-3.3800336357544182E-2</v>
       </c>
       <c r="P5">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O5,$O$2:$O$52,1)</f>
         <v>22</v>
       </c>
     </row>
@@ -1510,15 +2695,15 @@
         <v>385908.52</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="0"/>
+        <f>C6-B6</f>
         <v>-23391.479999999981</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D6/B6,"")</f>
         <v>-5.7149963352064452E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E6,$E$2:$E$52,1)</f>
         <v>11</v>
       </c>
       <c r="G6">
@@ -1528,15 +2713,15 @@
         <v>427758.64</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="3"/>
+        <f>H6-G6</f>
         <v>-741.35999999998603</v>
       </c>
       <c r="J6" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I6/G6,"")</f>
         <v>-1.7301283547257551E-3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J6,$J$2:$J$52,1)</f>
         <v>44</v>
       </c>
       <c r="L6">
@@ -1546,15 +2731,15 @@
         <v>445114.28999999899</v>
       </c>
       <c r="N6" s="8">
-        <f t="shared" si="5"/>
+        <f>M6-L6</f>
         <v>-85.710000001010485</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N6/L6,"")</f>
         <v>-1.925202156356929E-4</v>
       </c>
       <c r="P6">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O6,$O$2:$O$52,1)</f>
         <v>39</v>
       </c>
     </row>
@@ -1569,15 +2754,15 @@
         <v>2946071.21</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="0"/>
+        <f>C7-B7</f>
         <v>-382928.79000000004</v>
       </c>
       <c r="E7" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D7/B7,"")</f>
         <v>-0.11502817362571344</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E7,$E$2:$E$52,1)</f>
         <v>2</v>
       </c>
       <c r="G7">
@@ -1587,15 +2772,15 @@
         <v>3051483.41</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="3"/>
+        <f>H7-G7</f>
         <v>-339416.58999999985</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I7/G7,"")</f>
         <v>-0.10009631366303927</v>
       </c>
       <c r="K7">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J7,$J$2:$J$52,1)</f>
         <v>8</v>
       </c>
       <c r="L7">
@@ -1605,15 +2790,15 @@
         <v>2946440.08</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="5"/>
+        <f>M7-L7</f>
         <v>-398759.91999999993</v>
       </c>
       <c r="O7" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N7/L7,"")</f>
         <v>-0.11920361114432618</v>
       </c>
       <c r="P7">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O7,$O$2:$O$52,1)</f>
         <v>4</v>
       </c>
     </row>
@@ -1628,15 +2813,15 @@
         <v>1315623.30999999</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="0"/>
+        <f>C8-B8</f>
         <v>-236476.69000000996</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D8/B8,"")</f>
         <v>-0.15235918433091292</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E8,$E$2:$E$52,1)</f>
         <v>1</v>
       </c>
       <c r="G8">
@@ -1646,15 +2831,15 @@
         <v>1383905.98999999</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="3"/>
+        <f>H8-G8</f>
         <v>-206794.01000001002</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I8/G8,"")</f>
         <v>-0.13000189224870184</v>
       </c>
       <c r="K8">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J8,$J$2:$J$52,1)</f>
         <v>4</v>
       </c>
       <c r="L8">
@@ -1664,15 +2849,15 @@
         <v>1337735.3199999901</v>
       </c>
       <c r="N8" s="8">
-        <f t="shared" si="5"/>
+        <f>M8-L8</f>
         <v>-241564.68000000995</v>
       </c>
       <c r="O8" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N8/L8,"")</f>
         <v>-0.15295680364719175</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O8,$O$2:$O$52,1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1687,15 +2872,15 @@
         <v>8952825.2799999993</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="0"/>
+        <f>C9-B9</f>
         <v>-396574.72000000067</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D9/B9,"")</f>
         <v>-4.2417130511048909E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E9,$E$2:$E$52,1)</f>
         <v>16</v>
       </c>
       <c r="G9">
@@ -1705,15 +2890,15 @@
         <v>9929059.5199999996</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="3"/>
+        <f>H9-G9</f>
         <v>-1144640.4800000004</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I9/G9,"")</f>
         <v>-0.10336567542917005</v>
       </c>
       <c r="K9">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J9,$J$2:$J$52,1)</f>
         <v>7</v>
       </c>
       <c r="L9">
@@ -1723,15 +2908,15 @@
         <v>9993599.52999999</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" si="5"/>
+        <f>M9-L9</f>
         <v>-796900.47000000998</v>
       </c>
       <c r="O9" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N9/L9,"")</f>
         <v>-7.3852043000788653E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O9,$O$2:$O$52,1)</f>
         <v>9</v>
       </c>
     </row>
@@ -1746,15 +2931,15 @@
         <v>407090.37</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
+        <f>C10-B10</f>
         <v>-36209.630000000005</v>
       </c>
       <c r="E10" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D10/B10,"")</f>
         <v>-8.1681998646514792E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E10,$E$2:$E$52,1)</f>
         <v>6</v>
       </c>
       <c r="G10">
@@ -1764,15 +2949,15 @@
         <v>467907.84000000003</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="3"/>
+        <f>H10-G10</f>
         <v>-27292.159999999974</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I10/G10,"")</f>
         <v>-5.5113408723747932E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J10,$J$2:$J$52,1)</f>
         <v>17</v>
       </c>
       <c r="L10">
@@ -1782,15 +2967,15 @@
         <v>478318.92</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="5"/>
+        <f>M10-L10</f>
         <v>-9181.0800000000163</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N10/L10,"")</f>
         <v>-1.883298461538465E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O10,$O$2:$O$52,1)</f>
         <v>29</v>
       </c>
     </row>
@@ -1805,15 +2990,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
+        <f>C11-B11</f>
         <v>0</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D11/B11,"")</f>
         <v/>
       </c>
       <c r="F11" t="e">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E11,$E$2:$E$52,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G11">
@@ -1823,15 +3008,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="3"/>
+        <f>H11-G11</f>
         <v>0</v>
       </c>
       <c r="J11" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I11/G11,"")</f>
         <v/>
       </c>
       <c r="K11" t="e">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J11,$J$2:$J$52,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L11">
@@ -1841,15 +3026,15 @@
         <v>63771.91</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="5"/>
+        <f>M11-L11</f>
         <v>-311228.08999999997</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N11/L11,"")</f>
         <v>-0.82994157333333329</v>
       </c>
       <c r="P11">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O11,$O$2:$O$52,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1864,15 +3049,15 @@
         <v>4066595.33</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
+        <f>C12-B12</f>
         <v>-214304.66999999993</v>
       </c>
       <c r="E12" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D12/B12,"")</f>
         <v>-5.0060657805601608E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E12,$E$2:$E$52,1)</f>
         <v>13</v>
       </c>
       <c r="G12">
@@ -1882,15 +3067,15 @@
         <v>4205555.5999999996</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="3"/>
+        <f>H12-G12</f>
         <v>-494844.40000000037</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I12/G12,"")</f>
         <v>-0.10527708280146378</v>
       </c>
       <c r="K12">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J12,$J$2:$J$52,1)</f>
         <v>6</v>
       </c>
       <c r="L12">
@@ -1900,15 +3085,15 @@
         <v>4371713.1399999997</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="5"/>
+        <f>M12-L12</f>
         <v>-306086.86000000034</v>
       </c>
       <c r="O12" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N12/L12,"")</f>
         <v>-6.5433934755654441E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O12,$O$2:$O$52,1)</f>
         <v>10</v>
       </c>
     </row>
@@ -1923,15 +3108,15 @@
         <v>5772288.3300000001</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
+        <f>C13-B13</f>
         <v>-75511.669999999925</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D13/B13,"")</f>
         <v>-1.2912833886247806E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E13,$E$2:$E$52,1)</f>
         <v>33</v>
       </c>
       <c r="G13">
@@ -1941,15 +3126,15 @@
         <v>5909077.9399999902</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="3"/>
+        <f>H13-G13</f>
         <v>-314622.06000000983</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I13/G13,"")</f>
         <v>-5.0552253482656594E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J13,$J$2:$J$52,1)</f>
         <v>18</v>
       </c>
       <c r="L13">
@@ -1959,15 +3144,15 @@
         <v>6056976.6699999999</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="5"/>
+        <f>M13-L13</f>
         <v>-150323.33000000007</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N13/L13,"")</f>
         <v>-2.4217184605222895E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O13,$O$2:$O$52,1)</f>
         <v>27</v>
       </c>
     </row>
@@ -1982,15 +3167,15 @@
         <v>505017.37</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="0"/>
+        <f>C14-B14</f>
         <v>-6982.6300000000047</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D14/B14,"")</f>
         <v>-1.3637949218750009E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E14,$E$2:$E$52,1)</f>
         <v>30</v>
       </c>
       <c r="G14">
@@ -2000,15 +3185,15 @@
         <v>524402.98</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="3"/>
+        <f>H14-G14</f>
         <v>-6097.0200000000186</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I14/G14,"")</f>
         <v>-1.1492968897266765E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J14,$J$2:$J$52,1)</f>
         <v>40</v>
       </c>
       <c r="L14">
@@ -2018,15 +3203,15 @@
         <v>504989.88</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="5"/>
+        <f>M14-L14</f>
         <v>-21210.119999999995</v>
       </c>
       <c r="O14" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N14/L14,"")</f>
         <v>-4.0308095781071827E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O14,$O$2:$O$52,1)</f>
         <v>19</v>
       </c>
     </row>
@@ -2041,15 +3226,15 @@
         <v>156545919.90000001</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="0"/>
+        <f>C15-B15</f>
         <v>496819.90000000596</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D15/B15,"")</f>
         <v>3.1837408866824991E-3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E15,$E$2:$E$52,1)</f>
         <v>48</v>
       </c>
       <c r="G15">
@@ -2059,15 +3244,15 @@
         <v>175966389.24999899</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="3"/>
+        <f>H15-G15</f>
         <v>-8201410.7500010133</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I15/G15,"")</f>
         <v>-4.4532273014072019E-2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J15,$J$2:$J$52,1)</f>
         <v>24</v>
       </c>
       <c r="L15">
@@ -2077,15 +3262,15 @@
         <v>184450910.84999901</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="5"/>
+        <f>M15-L15</f>
         <v>-4502589.1500009894</v>
       </c>
       <c r="O15" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N15/L15,"")</f>
         <v>-2.3829085727446114E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O15,$O$2:$O$52,1)</f>
         <v>28</v>
       </c>
     </row>
@@ -2100,15 +3285,15 @@
         <v>6522480.4599999897</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="0"/>
+        <f>C16-B16</f>
         <v>-78219.540000010282</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D16/B16,"")</f>
         <v>-1.1850188616360429E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E16,$E$2:$E$52,1)</f>
         <v>37</v>
       </c>
       <c r="G16">
@@ -2118,15 +3303,15 @@
         <v>7350464.0800000001</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="3"/>
+        <f>H16-G16</f>
         <v>-2035.9199999999255</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I16/G16,"")</f>
         <v>-2.769017341040361E-4</v>
       </c>
       <c r="K16">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J16,$J$2:$J$52,1)</f>
         <v>46</v>
       </c>
       <c r="L16">
@@ -2136,15 +3321,15 @@
         <v>7397093</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="5"/>
+        <f>M16-L16</f>
         <v>-107</v>
       </c>
       <c r="O16" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N16/L16,"")</f>
         <v>-1.4464932677229222E-5</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O16,$O$2:$O$52,1)</f>
         <v>43</v>
       </c>
     </row>
@@ -2159,15 +3344,15 @@
         <v>14439480.050000001</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
+        <f>C17-B17</f>
         <v>-421319.94999999925</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D17/B17,"")</f>
         <v>-2.8351094826658003E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E17,$E$2:$E$52,1)</f>
         <v>21</v>
       </c>
       <c r="G17">
@@ -2177,15 +3362,15 @@
         <v>14645233.51</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="3"/>
+        <f>H17-G17</f>
         <v>-664466.49000000022</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I17/G17,"")</f>
         <v>-4.3401666263871937E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J17,$J$2:$J$52,1)</f>
         <v>25</v>
       </c>
       <c r="L17">
@@ -2195,15 +3380,15 @@
         <v>14346057.039999999</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="5"/>
+        <f>M17-L17</f>
         <v>-965742.96000000089</v>
       </c>
       <c r="O17" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N17/L17,"")</f>
         <v>-6.3071811282801551E-2</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O17,$O$2:$O$52,1)</f>
         <v>11</v>
       </c>
     </row>
@@ -2218,15 +3403,15 @@
         <v>2615303.8999999901</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
+        <f>C18-B18</f>
         <v>-149396.10000000987</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D18/B18,"")</f>
         <v>-5.4037002206391245E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E18,$E$2:$E$52,1)</f>
         <v>12</v>
       </c>
       <c r="G18">
@@ -2236,15 +3421,15 @@
         <v>2671745.94</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="3"/>
+        <f>H18-G18</f>
         <v>-189254.06000000006</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I18/G18,"")</f>
         <v>-6.6149619014330668E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J18,$J$2:$J$52,1)</f>
         <v>15</v>
       </c>
       <c r="L18">
@@ -2254,15 +3439,15 @@
         <v>2535637.09</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="5"/>
+        <f>M18-L18</f>
         <v>-374962.91000000015</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N18/L18,"")</f>
         <v>-0.12882667147667154</v>
       </c>
       <c r="P18">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O18,$O$2:$O$52,1)</f>
         <v>3</v>
       </c>
     </row>
@@ -2277,15 +3462,15 @@
         <v>8460963.1999999899</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
+        <f>C19-B19</f>
         <v>-376336.80000001006</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D19/B19,"")</f>
         <v>-4.258504294298146E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E19,$E$2:$E$52,1)</f>
         <v>15</v>
       </c>
       <c r="G19">
@@ -2295,15 +3480,15 @@
         <v>8991707.2399999909</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="3"/>
+        <f>H19-G19</f>
         <v>-721592.76000000909</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I19/G19,"")</f>
         <v>-7.4289145810384635E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J19,$J$2:$J$52,1)</f>
         <v>12</v>
       </c>
       <c r="L19">
@@ -2313,15 +3498,15 @@
         <v>8766655.9100000001</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="5"/>
+        <f>M19-L19</f>
         <v>-576344.08999999985</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N19/L19,"")</f>
         <v>-6.1687262121374278E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O19,$O$2:$O$52,1)</f>
         <v>12</v>
       </c>
     </row>
@@ -2336,15 +3521,15 @@
         <v>124384360.159999</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
+        <f>C20-B20</f>
         <v>-1539.8400010019541</v>
       </c>
       <c r="E20" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D20/B20,"")</f>
         <v>-1.2379538203300809E-5</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E20,$E$2:$E$52,1)</f>
         <v>46</v>
       </c>
       <c r="G20">
@@ -2354,15 +3539,15 @@
         <v>131839624.37</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="3"/>
+        <f>H20-G20</f>
         <v>-9775.6299999952316</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I20/G20,"")</f>
         <v>-7.4142392760188761E-5</v>
       </c>
       <c r="K20">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J20,$J$2:$J$52,1)</f>
         <v>47</v>
       </c>
       <c r="L20">
@@ -2372,15 +3557,15 @@
         <v>130621283.53999899</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="5"/>
+        <f>M20-L20</f>
         <v>-116.46000100672245</v>
       </c>
       <c r="O20" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N20/L20,"")</f>
         <v>-8.9158438821450736E-7</v>
       </c>
       <c r="P20">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O20,$O$2:$O$52,1)</f>
         <v>46</v>
       </c>
     </row>
@@ -2395,15 +3580,15 @@
         <v>22408587.5499999</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
+        <f>C21-B21</f>
         <v>-1923512.4500000998</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D21/B21,"")</f>
         <v>-7.9052463618023094E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E21,$E$2:$E$52,1)</f>
         <v>9</v>
       </c>
       <c r="G21">
@@ -2413,15 +3598,15 @@
         <v>22655993.629999999</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="3"/>
+        <f>H21-G21</f>
         <v>-1841406.370000001</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I21/G21,"")</f>
         <v>-7.5167420624229556E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J21,$J$2:$J$52,1)</f>
         <v>11</v>
       </c>
       <c r="L21">
@@ -2431,15 +3616,15 @@
         <v>23434073.089999899</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="5"/>
+        <f>M21-L21</f>
         <v>-888926.91000010073</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N21/L21,"")</f>
         <v>-3.6546762734864152E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O21,$O$2:$O$52,1)</f>
         <v>21</v>
       </c>
     </row>
@@ -2454,15 +3639,15 @@
         <v>11412339.8799999</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
+        <f>C22-B22</f>
         <v>-153660.12000009976</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D22/B22,"")</f>
         <v>-1.3285502334437123E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E22,$E$2:$E$52,1)</f>
         <v>32</v>
       </c>
       <c r="G22">
@@ -2472,15 +3657,15 @@
         <v>11791977.9699999</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="3"/>
+        <f>H22-G22</f>
         <v>-188722.03000009991</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I22/G22,"")</f>
         <v>-1.5752170574348738E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J22,$J$2:$J$52,1)</f>
         <v>38</v>
       </c>
       <c r="L22">
@@ -2490,15 +3675,15 @@
         <v>11934454.77</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="5"/>
+        <f>M22-L22</f>
         <v>-745.23000000044703</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N22/L22,"")</f>
         <v>-6.2439674240938325E-5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O22,$O$2:$O$52,1)</f>
         <v>42</v>
       </c>
     </row>
@@ -2513,15 +3698,15 @@
         <v>20036743.4099999</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="0"/>
+        <f>C23-B23</f>
         <v>-825956.59000010043</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D23/B23,"")</f>
         <v>-3.9590110100806722E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E23,$E$2:$E$52,1)</f>
         <v>18</v>
       </c>
       <c r="G23">
@@ -2531,15 +3716,15 @@
         <v>21722126.219999898</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="3"/>
+        <f>H23-G23</f>
         <v>-961673.78000010177</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I23/G23,"")</f>
         <v>-4.2394738976719144E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J23,$J$2:$J$52,1)</f>
         <v>26</v>
       </c>
       <c r="L23">
@@ -2549,15 +3734,15 @@
         <v>22619057.440000001</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="5"/>
+        <f>M23-L23</f>
         <v>-601242.55999999866</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N23/L23,"")</f>
         <v>-2.5892971236375011E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O23,$O$2:$O$52,1)</f>
         <v>26</v>
       </c>
     </row>
@@ -2572,15 +3757,15 @@
         <v>904969.19</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="0"/>
+        <f>C24-B24</f>
         <v>-12230.810000000056</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D24/B24,"")</f>
         <v>-1.3334943305713101E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E24,$E$2:$E$52,1)</f>
         <v>31</v>
       </c>
       <c r="G24">
@@ -2590,15 +3775,15 @@
         <v>1067214.42</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="3"/>
+        <f>H24-G24</f>
         <v>-45485.580000000075</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I24/G24,"")</f>
         <v>-4.087856565111897E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J24,$J$2:$J$52,1)</f>
         <v>28</v>
       </c>
       <c r="L24">
@@ -2608,15 +3793,15 @@
         <v>1112527.1200000001</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="5"/>
+        <f>M24-L24</f>
         <v>-72.879999999888241</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N24/L24,"")</f>
         <v>-6.5504224339284781E-5</v>
       </c>
       <c r="P24">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O24,$O$2:$O$52,1)</f>
         <v>41</v>
       </c>
     </row>
@@ -2631,15 +3816,15 @@
         <v>479149.53</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="0"/>
+        <f>C25-B25</f>
         <v>-4950.4699999999721</v>
       </c>
       <c r="E25" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D25/B25,"")</f>
         <v>-1.0226130964676661E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E25,$E$2:$E$52,1)</f>
         <v>38</v>
       </c>
       <c r="G25">
@@ -2649,15 +3834,15 @@
         <v>497194.20999999897</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="3"/>
+        <f>H25-G25</f>
         <v>-8005.7900000010268</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I25/G25,"")</f>
         <v>-1.5846773555029746E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J25,$J$2:$J$52,1)</f>
         <v>37</v>
       </c>
       <c r="L25">
@@ -2667,15 +3852,15 @@
         <v>494775.1</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="5"/>
+        <f>M25-L25</f>
         <v>-1724.9000000000233</v>
       </c>
       <c r="O25" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N25/L25,"")</f>
         <v>-3.4741188318228064E-3</v>
       </c>
       <c r="P25">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O25,$O$2:$O$52,1)</f>
         <v>35</v>
       </c>
     </row>
@@ -2690,15 +3875,15 @@
         <v>4801960.08</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="0"/>
+        <f>C26-B26</f>
         <v>-447839.91999999993</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D26/B26,"")</f>
         <v>-8.5306091660634673E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E26,$E$2:$E$52,1)</f>
         <v>5</v>
       </c>
       <c r="G26">
@@ -2708,15 +3893,15 @@
         <v>5122329.02999999</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="3"/>
+        <f>H26-G26</f>
         <v>-319870.97000000998</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I26/G26,"")</f>
         <v>-5.8776040939327839E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J26,$J$2:$J$52,1)</f>
         <v>16</v>
       </c>
       <c r="L26">
@@ -2726,15 +3911,15 @@
         <v>5117235.21</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="5"/>
+        <f>M26-L26</f>
         <v>-313464.79000000004</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N26/L26,"")</f>
         <v>-5.7720881286022069E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O26,$O$2:$O$52,1)</f>
         <v>13</v>
       </c>
     </row>
@@ -2749,15 +3934,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="0"/>
+        <f>C27-B27</f>
         <v>0</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D27/B27,"")</f>
         <v/>
       </c>
       <c r="F27" t="e">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E27,$E$2:$E$52,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G27">
@@ -2767,15 +3952,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="3"/>
+        <f>H27-G27</f>
         <v>0</v>
       </c>
       <c r="J27" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I27/G27,"")</f>
         <v/>
       </c>
       <c r="K27" t="e">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J27,$J$2:$J$52,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L27">
@@ -2785,15 +3970,15 @@
         <v>0</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="5"/>
+        <f>M27-L27</f>
         <v>0</v>
       </c>
       <c r="O27" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N27/L27,"")</f>
         <v/>
       </c>
       <c r="P27" t="e">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O27,$O$2:$O$52,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2808,15 +3993,15 @@
         <v>1250442.02</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="0"/>
+        <f>C28-B28</f>
         <v>-132457.97999999998</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D28/B28,"")</f>
         <v>-9.5782760864849215E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E28,$E$2:$E$52,1)</f>
         <v>3</v>
       </c>
       <c r="G28">
@@ -2826,15 +4011,15 @@
         <v>1281335.23</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="3"/>
+        <f>H28-G28</f>
         <v>-264364.77</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I28/G28,"")</f>
         <v>-0.17103239309050916</v>
       </c>
       <c r="K28">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J28,$J$2:$J$52,1)</f>
         <v>2</v>
       </c>
       <c r="L28">
@@ -2844,15 +4029,15 @@
         <v>1393285.06</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="5"/>
+        <f>M28-L28</f>
         <v>-132614.93999999994</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N28/L28,"")</f>
         <v>-8.6909325643882263E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O28,$O$2:$O$52,1)</f>
         <v>7</v>
       </c>
     </row>
@@ -2867,15 +4052,15 @@
         <v>2523884.71</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="0"/>
+        <f>C29-B29</f>
         <v>-37915.290000000037</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D29/B29,"")</f>
         <v>-1.4800253727847622E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E29,$E$2:$E$52,1)</f>
         <v>28</v>
       </c>
       <c r="G29">
@@ -2885,15 +4070,15 @@
         <v>2665264.4399999902</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="3"/>
+        <f>H29-G29</f>
         <v>-114235.56000000983</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I29/G29,"")</f>
         <v>-4.1099320021590155E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J29,$J$2:$J$52,1)</f>
         <v>27</v>
       </c>
       <c r="L29">
@@ -2903,15 +4088,15 @@
         <v>2889864.67</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="5"/>
+        <f>M29-L29</f>
         <v>-35.330000000074506</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N29/L29,"")</f>
         <v>-1.2225336516860273E-5</v>
       </c>
       <c r="P29">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O29,$O$2:$O$52,1)</f>
         <v>44</v>
       </c>
     </row>
@@ -2926,15 +4111,15 @@
         <v>12030494.1</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="0"/>
+        <f>C30-B30</f>
         <v>-101705.90000000037</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D30/B30,"")</f>
         <v>-8.3831374359143746E-3</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E30,$E$2:$E$52,1)</f>
         <v>40</v>
       </c>
       <c r="G30">
@@ -2944,15 +4129,15 @@
         <v>12685514.279999901</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="3"/>
+        <f>H30-G30</f>
         <v>-50385.720000099391</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I30/G30,"")</f>
         <v>-3.9561962641116366E-3</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J30,$J$2:$J$52,1)</f>
         <v>42</v>
       </c>
       <c r="L30">
@@ -2962,15 +4147,15 @@
         <v>12826009.609999999</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="5"/>
+        <f>M30-L30</f>
         <v>-35290.390000000596</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N30/L30,"")</f>
         <v>-2.7439209100169185E-3</v>
       </c>
       <c r="P30">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O30,$O$2:$O$52,1)</f>
         <v>36</v>
       </c>
     </row>
@@ -2985,15 +4170,15 @@
         <v>1740827.69</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="0"/>
+        <f>C31-B31</f>
         <v>-24772.310000000056</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D31/B31,"")</f>
         <v>-1.4030533529678329E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E31,$E$2:$E$52,1)</f>
         <v>29</v>
       </c>
       <c r="G31">
@@ -3003,15 +4188,15 @@
         <v>1762676.85</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="3"/>
+        <f>H31-G31</f>
         <v>-60623.149999999907</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I31/G31,"")</f>
         <v>-3.3249136181648611E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J31,$J$2:$J$52,1)</f>
         <v>32</v>
       </c>
       <c r="L31">
@@ -3021,15 +4206,15 @@
         <v>1801391.34</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="5"/>
+        <f>M31-L31</f>
         <v>-69308.659999999916</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N31/L31,"")</f>
         <v>-3.7049585716576634E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O31,$O$2:$O$52,1)</f>
         <v>20</v>
       </c>
     </row>
@@ -3044,15 +4229,15 @@
         <v>5925637.7199999904</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="0"/>
+        <f>C32-B32</f>
         <v>-73762.280000009574</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="1"/>
+        <f>IFERROR(D32/B32,"")</f>
         <v>-1.2294942827617691E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f>_xlfn.RANK.EQ(E32,$E$2:$E$52,1)</f>
         <v>36</v>
       </c>
       <c r="G32">
@@ -3062,15 +4247,15 @@
         <v>6084985.4699999997</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="3"/>
+        <f>H32-G32</f>
         <v>-110514.53000000026</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(I32/G32,"")</f>
         <v>-1.7837871035428981E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J32,$J$2:$J$52,1)</f>
         <v>35</v>
       </c>
       <c r="L32">
@@ -3080,311 +4265,311 @@
         <v>5987572.0199999996</v>
       </c>
       <c r="N32" s="8">
-        <f t="shared" si="5"/>
+        <f>M32-L32</f>
         <v>-169827.98000000045</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="6"/>
+        <f>IFERROR(N32/L32,"")</f>
         <v>-2.7581118653977402E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O32,$O$2:$O$52,1)</f>
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="8">
-        <v>927703099.99999905</v>
+        <v>4189300</v>
       </c>
       <c r="C33" s="8">
-        <v>920284264.73000002</v>
+        <v>4109958.22</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="0"/>
-        <v>-7418835.2699990273</v>
+        <f>C33-B33</f>
+        <v>-79341.779999999795</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="1"/>
-        <v>-7.9969930789269058E-3</v>
+        <f>IFERROR(D33/B33,"")</f>
+        <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f>_xlfn.RANK.EQ(E33,$E$2:$E$52,1)</f>
+        <v>26</v>
       </c>
       <c r="G33">
-        <v>979671000</v>
+        <v>4350600</v>
       </c>
       <c r="H33">
-        <v>977068513.48000002</v>
+        <v>4137588.7699999898</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="3"/>
-        <v>-2602486.5199999809</v>
+        <f>H33-G33</f>
+        <v>-213011.23000001023</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="4"/>
-        <v>-2.6564903115433454E-3</v>
+        <f>IFERROR(I33/G33,"")</f>
+        <v>-4.8961345561534093E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
-        <v>43</v>
+        <f>_xlfn.RANK.EQ(J33,$J$2:$J$52,1)</f>
+        <v>21</v>
       </c>
       <c r="L33">
-        <v>989572899.99999905</v>
+        <v>4345600</v>
       </c>
       <c r="M33">
-        <v>984116289.40999901</v>
+        <v>4229801.51</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="5"/>
-        <v>-5456610.5900000334</v>
+        <f>M33-L33</f>
+        <v>-115798.49000000022</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="6"/>
-        <v>-5.5141067323084929E-3</v>
+        <f>IFERROR(N33/L33,"")</f>
+        <v>-2.6647296115611244E-2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f>_xlfn.RANK.EQ(O33,$O$2:$O$52,1)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="8">
-        <v>4189300</v>
+        <v>0</v>
       </c>
       <c r="C34" s="8">
-        <v>4109958.22</v>
+        <v>0</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:D52" si="9">C34-B34</f>
-        <v>-79341.779999999795</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" ref="E34:E52" si="10">IFERROR(D34/B34,"")</f>
-        <v>-1.8939149738619768E-2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ref="F34:F52" si="11">_xlfn.RANK.EQ(E34,$E$2:$E$52,1)</f>
-        <v>26</v>
+        <f>C34-B34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="str">
+        <f>IFERROR(D34/B34,"")</f>
+        <v/>
+      </c>
+      <c r="F34" t="e">
+        <f>_xlfn.RANK.EQ(E34,$E$2:$E$52,1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G34">
-        <v>4350600</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4137588.7699999898</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" ref="I34:I52" si="12">H34-G34</f>
-        <v>-213011.23000001023</v>
-      </c>
-      <c r="J34" s="12">
-        <f t="shared" ref="J34:J52" si="13">IFERROR(I34/G34,"")</f>
-        <v>-4.8961345561534093E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f>H34-G34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="12" t="str">
+        <f>IFERROR(I34/G34,"")</f>
+        <v/>
+      </c>
+      <c r="K34" t="e">
+        <f>_xlfn.RANK.EQ(J34,$J$2:$J$52,1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L34">
-        <v>4345600</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>4229801.51</v>
+        <v>0</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" ref="N34:N52" si="14">M34-L34</f>
-        <v>-115798.49000000022</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" ref="O34:O52" si="15">IFERROR(N34/L34,"")</f>
-        <v>-2.6647296115611244E-2</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="8"/>
-        <v>24</v>
+        <f>M34-L34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="12" t="str">
+        <f>IFERROR(N34/L34,"")</f>
+        <v/>
+      </c>
+      <c r="P34" t="e">
+        <f>_xlfn.RANK.EQ(O34,$O$2:$O$52,1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="8">
-        <v>0</v>
+        <v>798200</v>
       </c>
       <c r="C35" s="8">
-        <v>0</v>
+        <v>735423.27999999898</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F35" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <f>C35-B35</f>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E35" s="12">
+        <f>IFERROR(D35/B35,"")</f>
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F35">
+        <f>_xlfn.RANK.EQ(E35,$E$2:$E$52,1)</f>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>898700</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>740966.94999999902</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="12" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K35" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f>H35-G35</f>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J35" s="12">
+        <f>IFERROR(I35/G35,"")</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="K35">
+        <f>_xlfn.RANK.EQ(J35,$J$2:$J$52,1)</f>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>878300</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>777215.28999999899</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P35" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <f>M35-L35</f>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O35" s="12">
+        <f>IFERROR(N35/L35,"")</f>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="P35">
+        <f>_xlfn.RANK.EQ(O35,$O$2:$O$52,1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="8">
-        <v>798200</v>
+        <v>2087800</v>
       </c>
       <c r="C36" s="8">
-        <v>735423.27999999898</v>
+        <v>2005447.73999999</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="9"/>
-        <v>-62776.72000000102</v>
+        <f>C36-B36</f>
+        <v>-82352.260000010021</v>
       </c>
       <c r="E36" s="12">
-        <f t="shared" si="10"/>
-        <v>-7.8647857679780775E-2</v>
+        <f>IFERROR(D36/B36,"")</f>
+        <v>-3.9444515758219188E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f>_xlfn.RANK.EQ(E36,$E$2:$E$52,1)</f>
+        <v>19</v>
       </c>
       <c r="G36">
-        <v>898700</v>
+        <v>2229200</v>
       </c>
       <c r="H36">
-        <v>740966.94999999902</v>
+        <v>2118943.21</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="12"/>
-        <v>-157733.05000000098</v>
+        <f>H36-G36</f>
+        <v>-110256.79000000004</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.17551246244575608</v>
+        <f>IFERROR(I36/G36,"")</f>
+        <v>-4.9460250314014013E-2</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>_xlfn.RANK.EQ(J36,$J$2:$J$52,1)</f>
+        <v>20</v>
       </c>
       <c r="L36">
-        <v>878300</v>
+        <v>2296900</v>
       </c>
       <c r="M36">
-        <v>777215.28999999899</v>
+        <v>2108718.34</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="14"/>
-        <v>-101084.71000000101</v>
+        <f>M36-L36</f>
+        <v>-188181.66000000015</v>
       </c>
       <c r="O36" s="12">
-        <f t="shared" si="15"/>
-        <v>-0.11509132414892521</v>
+        <f>IFERROR(N36/L36,"")</f>
+        <v>-8.1928538464887526E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f>_xlfn.RANK.EQ(O36,$O$2:$O$52,1)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B37" s="8">
-        <v>2087800</v>
+        <v>927703099.99999905</v>
       </c>
       <c r="C37" s="8">
-        <v>2005447.73999999</v>
+        <v>920284264.73000002</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="9"/>
-        <v>-82352.260000010021</v>
+        <f>C37-B37</f>
+        <v>-7418835.2699990273</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" si="10"/>
-        <v>-3.9444515758219188E-2</v>
+        <f>IFERROR(D37/B37,"")</f>
+        <v>-7.9969930789269058E-3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <f>_xlfn.RANK.EQ(E37,$E$2:$E$52,1)</f>
+        <v>41</v>
       </c>
       <c r="G37">
-        <v>2229200</v>
+        <v>979671000</v>
       </c>
       <c r="H37">
-        <v>2118943.21</v>
+        <v>977068513.48000002</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="12"/>
-        <v>-110256.79000000004</v>
+        <f>H37-G37</f>
+        <v>-2602486.5199999809</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="13"/>
-        <v>-4.9460250314014013E-2</v>
+        <f>IFERROR(I37/G37,"")</f>
+        <v>-2.6564903115433454E-3</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f>_xlfn.RANK.EQ(J37,$J$2:$J$52,1)</f>
+        <v>43</v>
       </c>
       <c r="L37">
-        <v>2296900</v>
+        <v>989572899.99999905</v>
       </c>
       <c r="M37">
-        <v>2108718.34</v>
+        <v>984116289.40999901</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="14"/>
-        <v>-188181.66000000015</v>
+        <f>M37-L37</f>
+        <v>-5456610.5900000334</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" si="15"/>
-        <v>-8.1928538464887526E-2</v>
+        <f>IFERROR(N37/L37,"")</f>
+        <v>-5.5141067323084929E-3</v>
       </c>
       <c r="P37">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f>_xlfn.RANK.EQ(O37,$O$2:$O$52,1)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -3398,15 +4583,15 @@
         <v>838669.82</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="9"/>
+        <f>C38-B38</f>
         <v>-16630.180000000051</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D38/B38,"")</f>
         <v>-1.9443680579913542E-2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E38,$E$2:$E$52,1)</f>
         <v>25</v>
       </c>
       <c r="G38">
@@ -3416,15 +4601,15 @@
         <v>753451.96</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="12"/>
+        <f>H38-G38</f>
         <v>-39348.040000000037</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I38/G38,"")</f>
         <v>-4.9631735620585316E-2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J38,$J$2:$J$52,1)</f>
         <v>19</v>
       </c>
       <c r="L38">
@@ -3434,15 +4619,15 @@
         <v>777663.26</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="14"/>
+        <f>M38-L38</f>
         <v>-136.73999999999069</v>
       </c>
       <c r="O38" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N38/L38,"")</f>
         <v>-1.7580354847003174E-4</v>
       </c>
       <c r="P38">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O38,$O$2:$O$52,1)</f>
         <v>40</v>
       </c>
     </row>
@@ -3457,15 +4642,15 @@
         <v>813108.87</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="9"/>
+        <f>C39-B39</f>
         <v>-70791.13</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D39/B39,"")</f>
         <v>-8.008952370177623E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E39,$E$2:$E$52,1)</f>
         <v>8</v>
       </c>
       <c r="G39">
@@ -3475,15 +4660,15 @@
         <v>1114242.27999999</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="12"/>
+        <f>H39-G39</f>
         <v>-180157.72000000998</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I39/G39,"")</f>
         <v>-0.13918241656366656</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J39,$J$2:$J$52,1)</f>
         <v>3</v>
       </c>
       <c r="L39">
@@ -3493,15 +4678,15 @@
         <v>1680463.8699999901</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="14"/>
+        <f>M39-L39</f>
         <v>-79036.1300000099</v>
       </c>
       <c r="O39" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N39/L39,"")</f>
         <v>-4.4919653310605226E-2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O39,$O$2:$O$52,1)</f>
         <v>17</v>
       </c>
     </row>
@@ -3516,15 +4701,15 @@
         <v>37565141.859999903</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="9"/>
+        <f>C40-B40</f>
         <v>-816758.14000009745</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D40/B40,"")</f>
         <v>-2.1279773539092578E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E40,$E$2:$E$52,1)</f>
         <v>23</v>
       </c>
       <c r="G40">
@@ -3534,15 +4719,15 @@
         <v>38095240.189999901</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="12"/>
+        <f>H40-G40</f>
         <v>-1869659.8100000992</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I40/G40,"")</f>
         <v>-4.6782546934937892E-2</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J40,$J$2:$J$52,1)</f>
         <v>22</v>
       </c>
       <c r="L40">
@@ -3552,15 +4737,15 @@
         <v>39606263.709999897</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="14"/>
+        <f>M40-L40</f>
         <v>-610436.29000010341</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N40/L40,"")</f>
         <v>-1.5178676768608648E-2</v>
       </c>
       <c r="P40">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O40,$O$2:$O$52,1)</f>
         <v>31</v>
       </c>
     </row>
@@ -3575,15 +4760,15 @@
         <v>4409060.2099999897</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="9"/>
+        <f>C41-B41</f>
         <v>-184239.79000001028</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D41/B41,"")</f>
         <v>-4.0110550149132493E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E41,$E$2:$E$52,1)</f>
         <v>17</v>
       </c>
       <c r="G41">
@@ -3593,15 +4778,15 @@
         <v>4956043.6699999897</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="12"/>
+        <f>H41-G41</f>
         <v>-133456.33000001032</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I41/G41,"")</f>
         <v>-2.6221894095689226E-2</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J41,$J$2:$J$52,1)</f>
         <v>34</v>
       </c>
       <c r="L41">
@@ -3611,15 +4796,15 @@
         <v>4717822.6500000004</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="14"/>
+        <f>M41-L41</f>
         <v>-82077.349999999627</v>
       </c>
       <c r="O41" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N41/L41,"")</f>
         <v>-1.7099804162586642E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O41,$O$2:$O$52,1)</f>
         <v>30</v>
       </c>
     </row>
@@ -3634,15 +4819,15 @@
         <v>188551675.67999899</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="9"/>
+        <f>C42-B42</f>
         <v>-41624.320001006126</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D42/B42,"")</f>
         <v>-2.2070943135841053E-4</v>
       </c>
       <c r="F42">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E42,$E$2:$E$52,1)</f>
         <v>44</v>
       </c>
       <c r="G42">
@@ -3652,15 +4837,15 @@
         <v>196755033.31</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="12"/>
+        <f>H42-G42</f>
         <v>-2375266.6899999976</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I42/G42,"")</f>
         <v>-1.1928203241796942E-2</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J42,$J$2:$J$52,1)</f>
         <v>39</v>
       </c>
       <c r="L42">
@@ -3670,15 +4855,15 @@
         <v>199954563.74999899</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="14"/>
+        <f>M42-L42</f>
         <v>-36.250001013278961</v>
       </c>
       <c r="O42" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N42/L42,"")</f>
         <v>-1.8129115815929696E-7</v>
       </c>
       <c r="P42">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O42,$O$2:$O$52,1)</f>
         <v>47</v>
       </c>
     </row>
@@ -3693,15 +4878,15 @@
         <v>7968645.8300000001</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="9"/>
+        <f>C43-B43</f>
         <v>-166754.16999999993</v>
       </c>
       <c r="E43" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D43/B43,"")</f>
         <v>-2.0497353541313264E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E43,$E$2:$E$52,1)</f>
         <v>24</v>
       </c>
       <c r="G43">
@@ -3711,15 +4896,15 @@
         <v>8171472.0199999996</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="12"/>
+        <f>H43-G43</f>
         <v>-389327.98000000045</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I43/G43,"")</f>
         <v>-4.5477990374731388E-2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J43,$J$2:$J$52,1)</f>
         <v>23</v>
       </c>
       <c r="L43">
@@ -3729,15 +4914,15 @@
         <v>8150982.5699999901</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="14"/>
+        <f>M43-L43</f>
         <v>-346517.43000000995</v>
       </c>
       <c r="O43" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N43/L43,"")</f>
         <v>-4.0778750220654303E-2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O43,$O$2:$O$52,1)</f>
         <v>18</v>
       </c>
     </row>
@@ -3752,15 +4937,15 @@
         <v>29789104.379999999</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" si="9"/>
+        <f>C44-B44</f>
         <v>-294095.62000000104</v>
       </c>
       <c r="E44" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D44/B44,"")</f>
         <v>-9.7760750186150751E-3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E44,$E$2:$E$52,1)</f>
         <v>39</v>
       </c>
       <c r="G44">
@@ -3770,15 +4955,15 @@
         <v>30793711.48</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="12"/>
+        <f>H44-G44</f>
         <v>-246988.51999999955</v>
       </c>
       <c r="J44" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I44/G44,"")</f>
         <v>-7.9569249404813532E-3</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J44,$J$2:$J$52,1)</f>
         <v>41</v>
       </c>
       <c r="L44">
@@ -3788,15 +4973,15 @@
         <v>31282141.25</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" si="14"/>
+        <f>M44-L44</f>
         <v>-58.75</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N44/L44,"")</f>
         <v>-1.8780648419868168E-6</v>
       </c>
       <c r="P44">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O44,$O$2:$O$52,1)</f>
         <v>45</v>
       </c>
     </row>
@@ -3811,15 +4996,15 @@
         <v>54589584.0499999</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="9"/>
+        <f>C45-B45</f>
         <v>-712015.95000009984</v>
       </c>
       <c r="E45" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D45/B45,"")</f>
         <v>-1.287514194887851E-2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E45,$E$2:$E$52,1)</f>
         <v>34</v>
       </c>
       <c r="G45">
@@ -3829,15 +5014,15 @@
         <v>54594953.959999897</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="12"/>
+        <f>H45-G45</f>
         <v>-2197246.0400001034</v>
       </c>
       <c r="J45" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I45/G45,"")</f>
         <v>-3.8689222111488959E-2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J45,$J$2:$J$52,1)</f>
         <v>30</v>
       </c>
       <c r="L45">
@@ -3847,15 +5032,15 @@
         <v>55386549.6599999</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="14"/>
+        <f>M45-L45</f>
         <v>-640550.34000010043</v>
       </c>
       <c r="O45" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N45/L45,"")</f>
         <v>-1.1432866237947358E-2</v>
       </c>
       <c r="P45">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O45,$O$2:$O$52,1)</f>
         <v>32</v>
       </c>
     </row>
@@ -3870,15 +5055,15 @@
         <v>258322.43</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="9"/>
+        <f>C46-B46</f>
         <v>-777.57000000000698</v>
       </c>
       <c r="E46" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D46/B46,"")</f>
         <v>-3.0010420686993711E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E46,$E$2:$E$52,1)</f>
         <v>43</v>
       </c>
       <c r="G46">
@@ -3888,15 +5073,15 @@
         <v>257402.90999999901</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="12"/>
+        <f>H46-G46</f>
         <v>-8597.090000000986</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I46/G46,"")</f>
         <v>-3.2319887218048821E-2</v>
       </c>
       <c r="K46">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J46,$J$2:$J$52,1)</f>
         <v>33</v>
       </c>
       <c r="L46">
@@ -3906,15 +5091,15 @@
         <v>254753.15999999901</v>
       </c>
       <c r="N46" s="8">
-        <f t="shared" si="14"/>
+        <f>M46-L46</f>
         <v>-12346.840000000986</v>
       </c>
       <c r="O46" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N46/L46,"")</f>
         <v>-4.6225533508053113E-2</v>
       </c>
       <c r="P46">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O46,$O$2:$O$52,1)</f>
         <v>16</v>
       </c>
     </row>
@@ -3929,15 +5114,15 @@
         <v>70378426.719999999</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="9"/>
+        <f>C47-B47</f>
         <v>-12273.280000001192</v>
       </c>
       <c r="E47" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D47/B47,"")</f>
         <v>-1.7435939690898361E-4</v>
       </c>
       <c r="F47">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E47,$E$2:$E$52,1)</f>
         <v>45</v>
       </c>
       <c r="G47">
@@ -3947,15 +5132,15 @@
         <v>73442541.659999996</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="12"/>
+        <f>H47-G47</f>
         <v>-24458.340000003576</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I47/G47,"")</f>
         <v>-3.3291600310348285E-4</v>
       </c>
       <c r="K47">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J47,$J$2:$J$52,1)</f>
         <v>45</v>
       </c>
       <c r="L47">
@@ -3965,15 +5150,15 @@
         <v>75050829.179999903</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="14"/>
+        <f>M47-L47</f>
         <v>-21970.820000097156</v>
       </c>
       <c r="O47" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N47/L47,"")</f>
         <v>-2.9266019117572752E-4</v>
       </c>
       <c r="P47">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O47,$O$2:$O$52,1)</f>
         <v>38</v>
       </c>
     </row>
@@ -3988,15 +5173,15 @@
         <v>6527352.5699999901</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="9"/>
+        <f>C48-B48</f>
         <v>-209747.43000000995</v>
       </c>
       <c r="E48" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D48/B48,"")</f>
         <v>-3.1133192323107857E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E48,$E$2:$E$52,1)</f>
         <v>20</v>
       </c>
       <c r="G48">
@@ -4006,15 +5191,15 @@
         <v>6922072.5599999996</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="12"/>
+        <f>H48-G48</f>
         <v>-292627.44000000041</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I48/G48,"")</f>
         <v>-4.0559890224125802E-2</v>
       </c>
       <c r="K48">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J48,$J$2:$J$52,1)</f>
         <v>29</v>
       </c>
       <c r="L48">
@@ -4024,15 +5209,15 @@
         <v>6882350.23999999</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" si="14"/>
+        <f>M48-L48</f>
         <v>-407449.76000001002</v>
       </c>
       <c r="O48" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N48/L48,"")</f>
         <v>-5.5893132870587676E-2</v>
       </c>
       <c r="P48">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O48,$O$2:$O$52,1)</f>
         <v>15</v>
       </c>
     </row>
@@ -4047,15 +5232,15 @@
         <v>90499.43</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="9"/>
+        <f>C49-B49</f>
         <v>-1700.570000000007</v>
       </c>
       <c r="E49" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D49/B49,"")</f>
         <v>-1.8444360086767971E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E49,$E$2:$E$52,1)</f>
         <v>27</v>
       </c>
       <c r="G49">
@@ -4065,15 +5250,15 @@
         <v>95466.880000000005</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="12"/>
+        <f>H49-G49</f>
         <v>-7133.1199999999953</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I49/G49,"")</f>
         <v>-6.9523586744639335E-2</v>
       </c>
       <c r="K49">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J49,$J$2:$J$52,1)</f>
         <v>13</v>
       </c>
       <c r="L49">
@@ -4083,15 +5268,15 @@
         <v>0</v>
       </c>
       <c r="N49" s="8">
-        <f t="shared" si="14"/>
+        <f>M49-L49</f>
         <v>0</v>
       </c>
       <c r="O49" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N49/L49,"")</f>
         <v/>
       </c>
       <c r="P49" t="e">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O49,$O$2:$O$52,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4106,15 +5291,15 @@
         <v>832600</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="9"/>
+        <f>C50-B50</f>
         <v>0</v>
       </c>
       <c r="E50" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D50/B50,"")</f>
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E50,$E$2:$E$52,1)</f>
         <v>47</v>
       </c>
       <c r="G50">
@@ -4124,15 +5309,15 @@
         <v>859100</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="12"/>
+        <f>H50-G50</f>
         <v>0</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I50/G50,"")</f>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J50,$J$2:$J$52,1)</f>
         <v>48</v>
       </c>
       <c r="L50">
@@ -4142,15 +5327,15 @@
         <v>843200</v>
       </c>
       <c r="N50" s="8">
-        <f t="shared" si="14"/>
+        <f>M50-L50</f>
         <v>0</v>
       </c>
       <c r="O50" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N50/L50,"")</f>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O50,$O$2:$O$52,1)</f>
         <v>48</v>
       </c>
     </row>
@@ -4165,15 +5350,15 @@
         <v>8499425.3399999905</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="9"/>
+        <f>C51-B51</f>
         <v>-110074.66000000946</v>
       </c>
       <c r="E51" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D51/B51,"")</f>
         <v>-1.2785255822058129E-2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E51,$E$2:$E$52,1)</f>
         <v>35</v>
       </c>
       <c r="G51">
@@ -4183,15 +5368,15 @@
         <v>8599059.6199999992</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="12"/>
+        <f>H51-G51</f>
         <v>-326440.38000000082</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I51/G51,"")</f>
         <v>-3.6573903982970231E-2</v>
       </c>
       <c r="K51">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J51,$J$2:$J$52,1)</f>
         <v>31</v>
       </c>
       <c r="L51">
@@ -4201,15 +5386,15 @@
         <v>8735843.3100000005</v>
       </c>
       <c r="N51" s="8">
-        <f t="shared" si="14"/>
+        <f>M51-L51</f>
         <v>-98056.689999999478</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N51/L51,"")</f>
         <v>-1.1100045280114048E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O51,$O$2:$O$52,1)</f>
         <v>33</v>
       </c>
     </row>
@@ -4224,15 +5409,15 @@
         <v>2254684.7999999998</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="9"/>
+        <f>C52-B52</f>
         <v>-196315.20000000019</v>
       </c>
       <c r="E52" s="12">
-        <f t="shared" si="10"/>
+        <f>IFERROR(D52/B52,"")</f>
         <v>-8.009596083231342E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="11"/>
+        <f>_xlfn.RANK.EQ(E52,$E$2:$E$52,1)</f>
         <v>7</v>
       </c>
       <c r="G52">
@@ -4242,15 +5427,15 @@
         <v>2204672.88</v>
       </c>
       <c r="I52" s="8">
-        <f t="shared" si="12"/>
+        <f>H52-G52</f>
         <v>-236027.12000000011</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="13"/>
+        <f>IFERROR(I52/G52,"")</f>
         <v>-9.6704683082722218E-2</v>
       </c>
       <c r="K52">
-        <f t="shared" si="7"/>
+        <f>_xlfn.RANK.EQ(J52,$J$2:$J$52,1)</f>
         <v>9</v>
       </c>
       <c r="L52">
@@ -4260,15 +5445,15 @@
         <v>2056835.26</v>
       </c>
       <c r="N52" s="8">
-        <f t="shared" si="14"/>
+        <f>M52-L52</f>
         <v>-264764.74</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="15"/>
+        <f>IFERROR(N52/L52,"")</f>
         <v>-0.11404408166781529</v>
       </c>
       <c r="P52">
-        <f t="shared" si="8"/>
+        <f>_xlfn.RANK.EQ(O52,$O$2:$O$52,1)</f>
         <v>6</v>
       </c>
     </row>
@@ -4325,27 +5510,27 @@
         <v>25</v>
       </c>
       <c r="B57" s="8">
-        <f t="shared" ref="B57:B61" si="16">VLOOKUP(A57,$A$2:$P$52,4,0)</f>
+        <f t="shared" ref="B57:B61" si="0">VLOOKUP(A57,$A$2:$P$52,4,0)</f>
         <v>0</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" ref="C57:C61" si="17">VLOOKUP(A57,$A$2:$P$52,9,0)</f>
+        <f t="shared" ref="C57:C61" si="1">VLOOKUP(A57,$A$2:$P$52,9,0)</f>
         <v>0</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" ref="D57:D61" si="18">VLOOKUP(A57,$A$2:$P$52,14,0)</f>
+        <f t="shared" ref="D57:D61" si="2">VLOOKUP(A57,$A$2:$P$52,14,0)</f>
         <v>-311228.08999999997</v>
       </c>
       <c r="E57" s="12">
-        <f t="shared" ref="E57:E70" si="19">MATCH(B57,B66)</f>
+        <f t="shared" ref="E57:E61" si="3">MATCH(B57,B66)</f>
         <v>1</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" ref="F57:G57" si="20">MATCH(C57,C66)</f>
+        <f t="shared" ref="F57:G57" si="4">MATCH(C57,C66)</f>
         <v>1</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4354,27 +5539,27 @@
         <v>32</v>
       </c>
       <c r="B58" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D58" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>-374962.91000000015</v>
       </c>
       <c r="E58" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F58" s="12">
-        <f t="shared" ref="F58:G58" si="21">MATCH(C58,C67)</f>
+        <f t="shared" ref="F58:G58" si="5">MATCH(C58,C67)</f>
         <v>1</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4383,27 +5568,27 @@
         <v>38</v>
       </c>
       <c r="B59" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D59" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>-72.879999999888241</v>
       </c>
       <c r="E59" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" ref="F59:G59" si="22">MATCH(C59,C68)</f>
+        <f t="shared" ref="F59:G59" si="6">MATCH(C59,C68)</f>
         <v>1</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4412,27 +5597,27 @@
         <v>39</v>
       </c>
       <c r="B60" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D60" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>-1724.9000000000233</v>
       </c>
       <c r="E60" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" ref="F60:G60" si="23">MATCH(C60,C69)</f>
+        <f t="shared" ref="F60:G60" si="7">MATCH(C60,C69)</f>
         <v>1</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4441,27 +5626,27 @@
         <v>55</v>
       </c>
       <c r="B61" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>-82077.349999999627</v>
       </c>
       <c r="E61" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" ref="F61:G61" si="24">MATCH(C61,C70)</f>
+        <f t="shared" ref="F61:G61" si="8">MATCH(C61,C70)</f>
         <v>1</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4506,15 +5691,15 @@
         <v>25</v>
       </c>
       <c r="B66" s="8">
-        <f t="shared" ref="B66:B70" si="25">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52,0)</f>
+        <f t="shared" ref="B66:B70" si="9">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52,0)</f>
         <v>0</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" ref="C66:C70" si="26">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,0)</f>
+        <f t="shared" ref="C66:C70" si="10">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,0)</f>
         <v>0</v>
       </c>
       <c r="D66" s="8">
-        <f t="shared" ref="D66:D70" si="27">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,0)</f>
+        <f t="shared" ref="D66:D70" si="11">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,0)</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4523,15 +5708,15 @@
         <v>32</v>
       </c>
       <c r="B67" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4540,15 +5725,15 @@
         <v>38</v>
       </c>
       <c r="B68" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D68" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4557,15 +5742,15 @@
         <v>39</v>
       </c>
       <c r="B69" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4574,15 +5759,15 @@
         <v>55</v>
       </c>
       <c r="B70" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4626,11 +5811,11 @@
         <v>1</v>
       </c>
       <c r="F74" s="12">
-        <f t="shared" ref="F74:G74" si="28">MATCH(C74,C65)</f>
+        <f t="shared" ref="F74:G74" si="12">MATCH(C74,C65)</f>
         <v>1</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4639,27 +5824,27 @@
         <v>25</v>
       </c>
       <c r="B75" s="8">
-        <f t="shared" ref="B75:B79" si="29">INDEX($D$2:$D$52,MATCH(A75,$A$2:$A$52,0))</f>
+        <f t="shared" ref="B75:B79" si="13">INDEX($D$2:$D$52,MATCH(A75,$A$2:$A$52,0))</f>
         <v>0</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" ref="C75:C79" si="30">INDEX($I$2:$I$52,MATCH($A75,$A$2:$A$52,0))</f>
+        <f t="shared" ref="C75:C79" si="14">INDEX($I$2:$I$52,MATCH($A75,$A$2:$A$52,0))</f>
         <v>0</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" ref="D75:D79" si="31">INDEX($N$2:$N$52,MATCH($A75,$A$2:$A$52,0))</f>
+        <f t="shared" ref="D75:D79" si="15">INDEX($N$2:$N$52,MATCH($A75,$A$2:$A$52,0))</f>
         <v>-311228.08999999997</v>
       </c>
       <c r="E75" s="12">
-        <f t="shared" ref="E75:E79" si="32">MATCH(B75,B66)</f>
+        <f t="shared" ref="E75:E79" si="16">MATCH(B75,B66)</f>
         <v>1</v>
       </c>
       <c r="F75" s="12">
-        <f t="shared" ref="F75:F79" si="33">MATCH(C75,C66)</f>
+        <f t="shared" ref="F75:F79" si="17">MATCH(C75,C66)</f>
         <v>1</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" ref="G75:G79" si="34">MATCH(D75,D66)</f>
+        <f t="shared" ref="G75:G79" si="18">MATCH(D75,D66)</f>
         <v>1</v>
       </c>
     </row>
@@ -4668,27 +5853,27 @@
         <v>32</v>
       </c>
       <c r="B76" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="15"/>
         <v>-374962.91000000015</v>
       </c>
       <c r="E76" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F76" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G76" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -4697,27 +5882,27 @@
         <v>38</v>
       </c>
       <c r="B77" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="15"/>
         <v>-72.879999999888241</v>
       </c>
       <c r="E77" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F77" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G77" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -4726,27 +5911,27 @@
         <v>39</v>
       </c>
       <c r="B78" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="15"/>
         <v>-1724.9000000000233</v>
       </c>
       <c r="E78" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F78" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -4755,27 +5940,27 @@
         <v>55</v>
       </c>
       <c r="B79" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C79" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="15"/>
         <v>-82077.349999999627</v>
       </c>
       <c r="E79" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F79" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -4801,16 +5986,48 @@
       <c r="A84" t="s">
         <v>73</v>
       </c>
+      <c r="B84" s="8">
+        <f>INDEX(Table1[FY17_Budget], MATCH($B$87,Table1[Department],0))</f>
+        <v>3130600</v>
+      </c>
+      <c r="C84" s="8">
+        <f>INDEX(Table1[FY17_Actual], MATCH($B$87,Table1[Department],0))</f>
+        <v>3115157.5599999898</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
+      <c r="B85" s="8">
+        <f>INDEX(Table1[FY18_Budget], MATCH($B$87,Table1[Department],0))</f>
+        <v>3652300</v>
+      </c>
+      <c r="C85" s="8">
+        <f>INDEX(Table1[FY18_Actual], MATCH($B$87,Table1[Department],0))</f>
+        <v>3589693.2099999902</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>75</v>
       </c>
+      <c r="B86" s="8">
+        <f>INDEX(Table1[FY19_Budget], MATCH($B$87,Table1[Department],0))</f>
+        <v>3662400</v>
+      </c>
+      <c r="C86" s="8">
+        <f>INDEX(Table1[FY19_Actual], MATCH($B$87,Table1[Department],0))</f>
+        <v>3564983.04999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
@@ -4934,14 +6151,20 @@
       <c r="I100" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please select a department from the list" promptTitle="Department" prompt="Select a department" sqref="B87" xr:uid="{267DCF80-079D-4F8B-8249-BE36304A7B2D}">
+      <formula1>$A$2:$A$52</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mquar\Documents\DA11\Excel\lookups-exercise-MQuarles2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BBDDF-E07A-42CC-BB30-2DB90D31C89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCF3A77-F17B-4C16-80ED-2B8A20E3C730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>Department</t>
   </si>
@@ -310,15 +310,19 @@
   </si>
   <si>
     <t>Dropdown:</t>
+  </si>
+  <si>
+    <t>Why aren't these working?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -823,25 +827,22 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,6 +850,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,7 +911,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -970,25 +1007,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1999,15 +2017,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1203960</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2043,23 +2061,23 @@
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{5CAE1FF1-4A7B-4772-962A-09DE40F6FE59}" name="Department"/>
-    <tableColumn id="2" xr3:uid="{1FF789FA-641F-4F18-BE89-CD6C3E06A117}" name="FY17_Budget" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{DA6F5795-E96E-441D-8A23-620A9DDD9A98}" name="FY17_Actual" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{B0231D47-4AFC-4158-9D43-4CE0AF21FED8}" name="FY17_diff" dataDxfId="5" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{1FF789FA-641F-4F18-BE89-CD6C3E06A117}" name="FY17_Budget" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{DA6F5795-E96E-441D-8A23-620A9DDD9A98}" name="FY17_Actual" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{B0231D47-4AFC-4158-9D43-4CE0AF21FED8}" name="FY17_diff" dataDxfId="6" dataCellStyle="Currency">
       <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6D7A84FC-8037-44FA-A4BA-A3C2B9967513}" name="FY17_diff_pct" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{6D7A84FC-8037-44FA-A4BA-A3C2B9967513}" name="FY17_diff_pct" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(D2/B2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1CB654AB-C6C0-4573-AD67-2D608B99BF3C}" name="FY17_rank">
+    <tableColumn id="6" xr3:uid="{1CB654AB-C6C0-4573-AD67-2D608B99BF3C}" name="FY17_rank" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.RANK.EQ(E2,$E$2:$E$52,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{52320808-0D5C-4109-9C71-25F29CCCF8E5}" name="FY18_Budget"/>
     <tableColumn id="8" xr3:uid="{D1B2CA1B-9FE3-4599-8D41-43F96AE58590}" name="FY18_Actual"/>
-    <tableColumn id="9" xr3:uid="{78265157-01BC-4EFF-89F4-61EC011B8725}" name="FY18_diff" dataDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{78265157-01BC-4EFF-89F4-61EC011B8725}" name="FY18_diff" dataDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>H2-G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E00B306C-1446-40BD-A100-47EA06B8C61F}" name="FY18_diff_pct" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{E00B306C-1446-40BD-A100-47EA06B8C61F}" name="FY18_diff_pct" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(I2/G2,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{23980DCF-D19C-4E03-BB9D-B2CC80868D41}" name="FY18_rank">
@@ -2067,10 +2085,10 @@
     </tableColumn>
     <tableColumn id="12" xr3:uid="{3B284805-47B7-4AAB-BB28-E625BC6D8B1D}" name="FY19_Budget"/>
     <tableColumn id="13" xr3:uid="{09D620BA-796E-4D25-9599-FE7096D6694E}" name="FY19_Actual"/>
-    <tableColumn id="14" xr3:uid="{D14486E2-13D5-43CD-BF72-2833CAF80BCB}" name="FY19_diff" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="14" xr3:uid="{D14486E2-13D5-43CD-BF72-2833CAF80BCB}" name="FY19_diff" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>M2-L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4F9BDF74-DF6C-43DE-B081-38C45EE9F05F}" name="FY19_diff_pct" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="15" xr3:uid="{4F9BDF74-DF6C-43DE-B081-38C45EE9F05F}" name="FY19_diff_pct" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(N2/L2,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{B56376D6-AEC3-4C8A-B981-1014DD780F91}" name="FY19_rank">
@@ -2380,16 +2398,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="15.88671875" customWidth="1"/>
@@ -2402,19 +2420,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2452,22 +2470,22 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>356640100</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>341243679.13</v>
       </c>
-      <c r="D2" s="8">
-        <f>C2-B2</f>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D33" si="0">C2-B2</f>
         <v>-15396420.870000005</v>
       </c>
-      <c r="E2" s="12">
-        <f>IFERROR(D2/B2,"")</f>
+      <c r="E2" s="10">
+        <f t="shared" ref="E2:E33" si="1">IFERROR(D2/B2,"")</f>
         <v>-4.3170750765267295E-2</v>
       </c>
-      <c r="F2">
-        <f>_xlfn.RANK.EQ(E2,$E$2:$E$52,1)</f>
+      <c r="F2" s="14">
+        <f t="shared" ref="F2:F33" si="2">_xlfn.RANK.EQ(E2,$E$2:$E$52,1)</f>
         <v>14</v>
       </c>
       <c r="G2">
@@ -2476,16 +2494,16 @@
       <c r="H2">
         <v>346340810.81999999</v>
       </c>
-      <c r="I2" s="8">
-        <f>H2-G2</f>
+      <c r="I2" s="7">
+        <f t="shared" ref="I2:I33" si="3">H2-G2</f>
         <v>-36344389.180000007</v>
       </c>
-      <c r="J2" s="12">
-        <f>IFERROR(I2/G2,"")</f>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J33" si="4">IFERROR(I2/G2,"")</f>
         <v>-9.4972027086493035E-2</v>
       </c>
       <c r="K2">
-        <f>_xlfn.RANK.EQ(J2,$J$2:$J$52,1)</f>
+        <f t="shared" ref="K2:K33" si="5">_xlfn.RANK.EQ(J2,$J$2:$J$52,1)</f>
         <v>10</v>
       </c>
       <c r="L2">
@@ -2494,16 +2512,16 @@
       <c r="M2">
         <v>355279492.22999901</v>
       </c>
-      <c r="N2" s="8">
-        <f>M2-L2</f>
+      <c r="N2" s="7">
+        <f t="shared" ref="N2:N33" si="6">M2-L2</f>
         <v>-21269107.770000994</v>
       </c>
-      <c r="O2" s="12">
-        <f>IFERROR(N2/L2,"")</f>
+      <c r="O2" s="10">
+        <f t="shared" ref="O2:O33" si="7">IFERROR(N2/L2,"")</f>
         <v>-5.6484362894991494E-2</v>
       </c>
       <c r="P2">
-        <f>_xlfn.RANK.EQ(O2,$O$2:$O$52,1)</f>
+        <f t="shared" ref="P2:P33" si="8">_xlfn.RANK.EQ(O2,$O$2:$O$52,1)</f>
         <v>14</v>
       </c>
     </row>
@@ -2511,22 +2529,22 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>328800</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>321214.59000000003</v>
       </c>
-      <c r="D3" s="8">
-        <f>C3-B3</f>
+      <c r="D3" s="7">
+        <f t="shared" si="0"/>
         <v>-7585.4099999999744</v>
       </c>
-      <c r="E3" s="12">
-        <f>IFERROR(D3/B3,"")</f>
+      <c r="E3" s="10">
+        <f t="shared" si="1"/>
         <v>-2.3069981751824741E-2</v>
       </c>
-      <c r="F3">
-        <f>_xlfn.RANK.EQ(E3,$E$2:$E$52,1)</f>
+      <c r="F3" s="14">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G3">
@@ -2535,16 +2553,16 @@
       <c r="H3">
         <v>312433.70999999897</v>
       </c>
-      <c r="I3" s="8">
-        <f>H3-G3</f>
+      <c r="I3" s="7">
+        <f t="shared" si="3"/>
         <v>-22366.290000001027</v>
       </c>
-      <c r="J3" s="12">
-        <f>IFERROR(I3/G3,"")</f>
+      <c r="J3" s="10">
+        <f t="shared" si="4"/>
         <v>-6.6804928315415249E-2</v>
       </c>
       <c r="K3">
-        <f>_xlfn.RANK.EQ(J3,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="L3">
@@ -2553,16 +2571,16 @@
       <c r="M3">
         <v>322263.03999999998</v>
       </c>
-      <c r="N3" s="8">
-        <f>M3-L3</f>
+      <c r="N3" s="7">
+        <f t="shared" si="6"/>
         <v>-436.96000000002095</v>
       </c>
-      <c r="O3" s="12">
-        <f>IFERROR(N3/L3,"")</f>
+      <c r="O3" s="10">
+        <f t="shared" si="7"/>
         <v>-1.3540749922529313E-3</v>
       </c>
       <c r="P3">
-        <f>_xlfn.RANK.EQ(O3,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
     </row>
@@ -2570,22 +2588,22 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3130600</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>3115157.5599999898</v>
       </c>
-      <c r="D4" s="8">
-        <f>C4-B4</f>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
         <v>-15442.440000010189</v>
       </c>
-      <c r="E4" s="12">
-        <f>IFERROR(D4/B4,"")</f>
+      <c r="E4" s="10">
+        <f t="shared" si="1"/>
         <v>-4.9327413275443007E-3</v>
       </c>
-      <c r="F4">
-        <f>_xlfn.RANK.EQ(E4,$E$2:$E$52,1)</f>
+      <c r="F4" s="14">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="G4">
@@ -2594,16 +2612,16 @@
       <c r="H4">
         <v>3589693.2099999902</v>
       </c>
-      <c r="I4" s="8">
-        <f>H4-G4</f>
+      <c r="I4" s="7">
+        <f t="shared" si="3"/>
         <v>-62606.790000009816</v>
       </c>
-      <c r="J4" s="12">
-        <f>IFERROR(I4/G4,"")</f>
+      <c r="J4" s="10">
+        <f t="shared" si="4"/>
         <v>-1.7141743558856015E-2</v>
       </c>
       <c r="K4">
-        <f>_xlfn.RANK.EQ(J4,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="L4">
@@ -2612,16 +2630,16 @@
       <c r="M4">
         <v>3564983.04999999</v>
       </c>
-      <c r="N4" s="8">
-        <f>M4-L4</f>
+      <c r="N4" s="7">
+        <f t="shared" si="6"/>
         <v>-97416.950000009965</v>
       </c>
-      <c r="O4" s="12">
-        <f>IFERROR(N4/L4,"")</f>
+      <c r="O4" s="10">
+        <f t="shared" si="7"/>
         <v>-2.6599210899959033E-2</v>
       </c>
       <c r="P4">
-        <f>_xlfn.RANK.EQ(O4,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -2629,22 +2647,22 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>7670700</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>6947552.6699999999</v>
       </c>
-      <c r="D5" s="8">
-        <f>C5-B5</f>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
         <v>-723147.33000000007</v>
       </c>
-      <c r="E5" s="12">
-        <f>IFERROR(D5/B5,"")</f>
+      <c r="E5" s="10">
+        <f t="shared" si="1"/>
         <v>-9.4273968477453174E-2</v>
       </c>
-      <c r="F5">
-        <f>_xlfn.RANK.EQ(E5,$E$2:$E$52,1)</f>
+      <c r="F5" s="14">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G5">
@@ -2653,16 +2671,16 @@
       <c r="H5">
         <v>7020609.3200000003</v>
       </c>
-      <c r="I5" s="8">
-        <f>H5-G5</f>
+      <c r="I5" s="7">
+        <f t="shared" si="3"/>
         <v>-947690.6799999997</v>
       </c>
-      <c r="J5" s="12">
-        <f>IFERROR(I5/G5,"")</f>
+      <c r="J5" s="10">
+        <f t="shared" si="4"/>
         <v>-0.118932605449092</v>
       </c>
       <c r="K5">
-        <f>_xlfn.RANK.EQ(J5,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L5">
@@ -2671,16 +2689,16 @@
       <c r="M5">
         <v>7497322.9100000001</v>
       </c>
-      <c r="N5" s="8">
-        <f>M5-L5</f>
+      <c r="N5" s="7">
+        <f t="shared" si="6"/>
         <v>-262277.08999999985</v>
       </c>
-      <c r="O5" s="12">
-        <f>IFERROR(N5/L5,"")</f>
+      <c r="O5" s="10">
+        <f t="shared" si="7"/>
         <v>-3.3800336357544182E-2</v>
       </c>
       <c r="P5">
-        <f>_xlfn.RANK.EQ(O5,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
@@ -2688,22 +2706,22 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>409300</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>385908.52</v>
       </c>
-      <c r="D6" s="8">
-        <f>C6-B6</f>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
         <v>-23391.479999999981</v>
       </c>
-      <c r="E6" s="12">
-        <f>IFERROR(D6/B6,"")</f>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
         <v>-5.7149963352064452E-2</v>
       </c>
-      <c r="F6">
-        <f>_xlfn.RANK.EQ(E6,$E$2:$E$52,1)</f>
+      <c r="F6" s="14">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G6">
@@ -2712,16 +2730,16 @@
       <c r="H6">
         <v>427758.64</v>
       </c>
-      <c r="I6" s="8">
-        <f>H6-G6</f>
+      <c r="I6" s="7">
+        <f t="shared" si="3"/>
         <v>-741.35999999998603</v>
       </c>
-      <c r="J6" s="12">
-        <f>IFERROR(I6/G6,"")</f>
+      <c r="J6" s="10">
+        <f t="shared" si="4"/>
         <v>-1.7301283547257551E-3</v>
       </c>
       <c r="K6">
-        <f>_xlfn.RANK.EQ(J6,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="L6">
@@ -2730,16 +2748,16 @@
       <c r="M6">
         <v>445114.28999999899</v>
       </c>
-      <c r="N6" s="8">
-        <f>M6-L6</f>
+      <c r="N6" s="7">
+        <f t="shared" si="6"/>
         <v>-85.710000001010485</v>
       </c>
-      <c r="O6" s="12">
-        <f>IFERROR(N6/L6,"")</f>
+      <c r="O6" s="10">
+        <f t="shared" si="7"/>
         <v>-1.925202156356929E-4</v>
       </c>
       <c r="P6">
-        <f>_xlfn.RANK.EQ(O6,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
@@ -2747,22 +2765,22 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>3329000</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2946071.21</v>
       </c>
-      <c r="D7" s="8">
-        <f>C7-B7</f>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
         <v>-382928.79000000004</v>
       </c>
-      <c r="E7" s="12">
-        <f>IFERROR(D7/B7,"")</f>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
         <v>-0.11502817362571344</v>
       </c>
-      <c r="F7">
-        <f>_xlfn.RANK.EQ(E7,$E$2:$E$52,1)</f>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G7">
@@ -2771,16 +2789,16 @@
       <c r="H7">
         <v>3051483.41</v>
       </c>
-      <c r="I7" s="8">
-        <f>H7-G7</f>
+      <c r="I7" s="7">
+        <f t="shared" si="3"/>
         <v>-339416.58999999985</v>
       </c>
-      <c r="J7" s="12">
-        <f>IFERROR(I7/G7,"")</f>
+      <c r="J7" s="10">
+        <f t="shared" si="4"/>
         <v>-0.10009631366303927</v>
       </c>
       <c r="K7">
-        <f>_xlfn.RANK.EQ(J7,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="L7">
@@ -2789,16 +2807,16 @@
       <c r="M7">
         <v>2946440.08</v>
       </c>
-      <c r="N7" s="8">
-        <f>M7-L7</f>
+      <c r="N7" s="7">
+        <f t="shared" si="6"/>
         <v>-398759.91999999993</v>
       </c>
-      <c r="O7" s="12">
-        <f>IFERROR(N7/L7,"")</f>
+      <c r="O7" s="10">
+        <f t="shared" si="7"/>
         <v>-0.11920361114432618</v>
       </c>
       <c r="P7">
-        <f>_xlfn.RANK.EQ(O7,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -2806,22 +2824,22 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1552100</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1315623.30999999</v>
       </c>
-      <c r="D8" s="8">
-        <f>C8-B8</f>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
         <v>-236476.69000000996</v>
       </c>
-      <c r="E8" s="12">
-        <f>IFERROR(D8/B8,"")</f>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
         <v>-0.15235918433091292</v>
       </c>
-      <c r="F8">
-        <f>_xlfn.RANK.EQ(E8,$E$2:$E$52,1)</f>
+      <c r="F8" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G8">
@@ -2830,16 +2848,16 @@
       <c r="H8">
         <v>1383905.98999999</v>
       </c>
-      <c r="I8" s="8">
-        <f>H8-G8</f>
+      <c r="I8" s="7">
+        <f t="shared" si="3"/>
         <v>-206794.01000001002</v>
       </c>
-      <c r="J8" s="12">
-        <f>IFERROR(I8/G8,"")</f>
+      <c r="J8" s="10">
+        <f t="shared" si="4"/>
         <v>-0.13000189224870184</v>
       </c>
       <c r="K8">
-        <f>_xlfn.RANK.EQ(J8,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="L8">
@@ -2848,16 +2866,16 @@
       <c r="M8">
         <v>1337735.3199999901</v>
       </c>
-      <c r="N8" s="8">
-        <f>M8-L8</f>
+      <c r="N8" s="7">
+        <f t="shared" si="6"/>
         <v>-241564.68000000995</v>
       </c>
-      <c r="O8" s="12">
-        <f>IFERROR(N8/L8,"")</f>
+      <c r="O8" s="10">
+        <f t="shared" si="7"/>
         <v>-0.15295680364719175</v>
       </c>
       <c r="P8">
-        <f>_xlfn.RANK.EQ(O8,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -2865,22 +2883,22 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>9349400</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>8952825.2799999993</v>
       </c>
-      <c r="D9" s="8">
-        <f>C9-B9</f>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
         <v>-396574.72000000067</v>
       </c>
-      <c r="E9" s="12">
-        <f>IFERROR(D9/B9,"")</f>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
         <v>-4.2417130511048909E-2</v>
       </c>
-      <c r="F9">
-        <f>_xlfn.RANK.EQ(E9,$E$2:$E$52,1)</f>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G9">
@@ -2889,16 +2907,16 @@
       <c r="H9">
         <v>9929059.5199999996</v>
       </c>
-      <c r="I9" s="8">
-        <f>H9-G9</f>
+      <c r="I9" s="7">
+        <f t="shared" si="3"/>
         <v>-1144640.4800000004</v>
       </c>
-      <c r="J9" s="12">
-        <f>IFERROR(I9/G9,"")</f>
+      <c r="J9" s="10">
+        <f t="shared" si="4"/>
         <v>-0.10336567542917005</v>
       </c>
       <c r="K9">
-        <f>_xlfn.RANK.EQ(J9,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="L9">
@@ -2907,16 +2925,16 @@
       <c r="M9">
         <v>9993599.52999999</v>
       </c>
-      <c r="N9" s="8">
-        <f>M9-L9</f>
+      <c r="N9" s="7">
+        <f t="shared" si="6"/>
         <v>-796900.47000000998</v>
       </c>
-      <c r="O9" s="12">
-        <f>IFERROR(N9/L9,"")</f>
+      <c r="O9" s="10">
+        <f t="shared" si="7"/>
         <v>-7.3852043000788653E-2</v>
       </c>
       <c r="P9">
-        <f>_xlfn.RANK.EQ(O9,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -2924,22 +2942,22 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>443300</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>407090.37</v>
       </c>
-      <c r="D10" s="8">
-        <f>C10-B10</f>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
         <v>-36209.630000000005</v>
       </c>
-      <c r="E10" s="12">
-        <f>IFERROR(D10/B10,"")</f>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
         <v>-8.1681998646514792E-2</v>
       </c>
-      <c r="F10">
-        <f>_xlfn.RANK.EQ(E10,$E$2:$E$52,1)</f>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G10">
@@ -2948,16 +2966,16 @@
       <c r="H10">
         <v>467907.84000000003</v>
       </c>
-      <c r="I10" s="8">
-        <f>H10-G10</f>
+      <c r="I10" s="7">
+        <f t="shared" si="3"/>
         <v>-27292.159999999974</v>
       </c>
-      <c r="J10" s="12">
-        <f>IFERROR(I10/G10,"")</f>
+      <c r="J10" s="10">
+        <f t="shared" si="4"/>
         <v>-5.5113408723747932E-2</v>
       </c>
       <c r="K10">
-        <f>_xlfn.RANK.EQ(J10,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="L10">
@@ -2966,16 +2984,16 @@
       <c r="M10">
         <v>478318.92</v>
       </c>
-      <c r="N10" s="8">
-        <f>M10-L10</f>
+      <c r="N10" s="7">
+        <f t="shared" si="6"/>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="O10" s="12">
-        <f>IFERROR(N10/L10,"")</f>
+      <c r="O10" s="10">
+        <f t="shared" si="7"/>
         <v>-1.883298461538465E-2</v>
       </c>
       <c r="P10">
-        <f>_xlfn.RANK.EQ(O10,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -2983,22 +3001,22 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="8">
-        <f>C11-B11</f>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12" t="str">
-        <f>IFERROR(D11/B11,"")</f>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" t="e">
-        <f>_xlfn.RANK.EQ(E11,$E$2:$E$52,1)</f>
+      <c r="F11" s="14" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="G11">
@@ -3007,16 +3025,16 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="8">
-        <f>H11-G11</f>
+      <c r="I11" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="12" t="str">
-        <f>IFERROR(I11/G11,"")</f>
+      <c r="J11" s="10" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K11" t="e">
-        <f>_xlfn.RANK.EQ(J11,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="L11">
@@ -3025,16 +3043,16 @@
       <c r="M11">
         <v>63771.91</v>
       </c>
-      <c r="N11" s="8">
-        <f>M11-L11</f>
+      <c r="N11" s="7">
+        <f t="shared" si="6"/>
         <v>-311228.08999999997</v>
       </c>
-      <c r="O11" s="12">
-        <f>IFERROR(N11/L11,"")</f>
+      <c r="O11" s="10">
+        <f t="shared" si="7"/>
         <v>-0.82994157333333329</v>
       </c>
       <c r="P11">
-        <f>_xlfn.RANK.EQ(O11,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3042,22 +3060,22 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>4280900</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>4066595.33</v>
       </c>
-      <c r="D12" s="8">
-        <f>C12-B12</f>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
         <v>-214304.66999999993</v>
       </c>
-      <c r="E12" s="12">
-        <f>IFERROR(D12/B12,"")</f>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
         <v>-5.0060657805601608E-2</v>
       </c>
-      <c r="F12">
-        <f>_xlfn.RANK.EQ(E12,$E$2:$E$52,1)</f>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G12">
@@ -3066,16 +3084,16 @@
       <c r="H12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="I12" s="8">
-        <f>H12-G12</f>
+      <c r="I12" s="7">
+        <f t="shared" si="3"/>
         <v>-494844.40000000037</v>
       </c>
-      <c r="J12" s="12">
-        <f>IFERROR(I12/G12,"")</f>
+      <c r="J12" s="10">
+        <f t="shared" si="4"/>
         <v>-0.10527708280146378</v>
       </c>
       <c r="K12">
-        <f>_xlfn.RANK.EQ(J12,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="L12">
@@ -3084,16 +3102,16 @@
       <c r="M12">
         <v>4371713.1399999997</v>
       </c>
-      <c r="N12" s="8">
-        <f>M12-L12</f>
+      <c r="N12" s="7">
+        <f t="shared" si="6"/>
         <v>-306086.86000000034</v>
       </c>
-      <c r="O12" s="12">
-        <f>IFERROR(N12/L12,"")</f>
+      <c r="O12" s="10">
+        <f t="shared" si="7"/>
         <v>-6.5433934755654441E-2</v>
       </c>
       <c r="P12">
-        <f>_xlfn.RANK.EQ(O12,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -3101,22 +3119,22 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>5847800</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>5772288.3300000001</v>
       </c>
-      <c r="D13" s="8">
-        <f>C13-B13</f>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
         <v>-75511.669999999925</v>
       </c>
-      <c r="E13" s="12">
-        <f>IFERROR(D13/B13,"")</f>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
         <v>-1.2912833886247806E-2</v>
       </c>
-      <c r="F13">
-        <f>_xlfn.RANK.EQ(E13,$E$2:$E$52,1)</f>
+      <c r="F13" s="14">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="G13">
@@ -3125,16 +3143,16 @@
       <c r="H13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="I13" s="8">
-        <f>H13-G13</f>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
         <v>-314622.06000000983</v>
       </c>
-      <c r="J13" s="12">
-        <f>IFERROR(I13/G13,"")</f>
+      <c r="J13" s="10">
+        <f t="shared" si="4"/>
         <v>-5.0552253482656594E-2</v>
       </c>
       <c r="K13">
-        <f>_xlfn.RANK.EQ(J13,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="L13">
@@ -3143,16 +3161,16 @@
       <c r="M13">
         <v>6056976.6699999999</v>
       </c>
-      <c r="N13" s="8">
-        <f>M13-L13</f>
+      <c r="N13" s="7">
+        <f t="shared" si="6"/>
         <v>-150323.33000000007</v>
       </c>
-      <c r="O13" s="12">
-        <f>IFERROR(N13/L13,"")</f>
+      <c r="O13" s="10">
+        <f t="shared" si="7"/>
         <v>-2.4217184605222895E-2</v>
       </c>
       <c r="P13">
-        <f>_xlfn.RANK.EQ(O13,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
@@ -3160,22 +3178,22 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>512000</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>505017.37</v>
       </c>
-      <c r="D14" s="8">
-        <f>C14-B14</f>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
         <v>-6982.6300000000047</v>
       </c>
-      <c r="E14" s="12">
-        <f>IFERROR(D14/B14,"")</f>
+      <c r="E14" s="10">
+        <f t="shared" si="1"/>
         <v>-1.3637949218750009E-2</v>
       </c>
-      <c r="F14">
-        <f>_xlfn.RANK.EQ(E14,$E$2:$E$52,1)</f>
+      <c r="F14" s="14">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G14">
@@ -3184,16 +3202,16 @@
       <c r="H14">
         <v>524402.98</v>
       </c>
-      <c r="I14" s="8">
-        <f>H14-G14</f>
+      <c r="I14" s="7">
+        <f t="shared" si="3"/>
         <v>-6097.0200000000186</v>
       </c>
-      <c r="J14" s="12">
-        <f>IFERROR(I14/G14,"")</f>
+      <c r="J14" s="10">
+        <f t="shared" si="4"/>
         <v>-1.1492968897266765E-2</v>
       </c>
       <c r="K14">
-        <f>_xlfn.RANK.EQ(J14,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L14">
@@ -3202,16 +3220,16 @@
       <c r="M14">
         <v>504989.88</v>
       </c>
-      <c r="N14" s="8">
-        <f>M14-L14</f>
+      <c r="N14" s="7">
+        <f t="shared" si="6"/>
         <v>-21210.119999999995</v>
       </c>
-      <c r="O14" s="12">
-        <f>IFERROR(N14/L14,"")</f>
+      <c r="O14" s="10">
+        <f t="shared" si="7"/>
         <v>-4.0308095781071827E-2</v>
       </c>
       <c r="P14">
-        <f>_xlfn.RANK.EQ(O14,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
@@ -3219,22 +3237,22 @@
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>156049100</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>156545919.90000001</v>
       </c>
-      <c r="D15" s="8">
-        <f>C15-B15</f>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
-      <c r="E15" s="12">
-        <f>IFERROR(D15/B15,"")</f>
+      <c r="E15" s="10">
+        <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
       </c>
-      <c r="F15">
-        <f>_xlfn.RANK.EQ(E15,$E$2:$E$52,1)</f>
+      <c r="F15" s="14">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="G15">
@@ -3243,16 +3261,16 @@
       <c r="H15">
         <v>175966389.24999899</v>
       </c>
-      <c r="I15" s="8">
-        <f>H15-G15</f>
+      <c r="I15" s="7">
+        <f t="shared" si="3"/>
         <v>-8201410.7500010133</v>
       </c>
-      <c r="J15" s="12">
-        <f>IFERROR(I15/G15,"")</f>
+      <c r="J15" s="10">
+        <f t="shared" si="4"/>
         <v>-4.4532273014072019E-2</v>
       </c>
       <c r="K15">
-        <f>_xlfn.RANK.EQ(J15,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L15">
@@ -3261,16 +3279,16 @@
       <c r="M15">
         <v>184450910.84999901</v>
       </c>
-      <c r="N15" s="8">
-        <f>M15-L15</f>
+      <c r="N15" s="7">
+        <f t="shared" si="6"/>
         <v>-4502589.1500009894</v>
       </c>
-      <c r="O15" s="12">
-        <f>IFERROR(N15/L15,"")</f>
+      <c r="O15" s="10">
+        <f t="shared" si="7"/>
         <v>-2.3829085727446114E-2</v>
       </c>
       <c r="P15">
-        <f>_xlfn.RANK.EQ(O15,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -3278,22 +3296,22 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>6600700</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>6522480.4599999897</v>
       </c>
-      <c r="D16" s="8">
-        <f>C16-B16</f>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
         <v>-78219.540000010282</v>
       </c>
-      <c r="E16" s="12">
-        <f>IFERROR(D16/B16,"")</f>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
         <v>-1.1850188616360429E-2</v>
       </c>
-      <c r="F16">
-        <f>_xlfn.RANK.EQ(E16,$E$2:$E$52,1)</f>
+      <c r="F16" s="14">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="G16">
@@ -3302,16 +3320,16 @@
       <c r="H16">
         <v>7350464.0800000001</v>
       </c>
-      <c r="I16" s="8">
-        <f>H16-G16</f>
+      <c r="I16" s="7">
+        <f t="shared" si="3"/>
         <v>-2035.9199999999255</v>
       </c>
-      <c r="J16" s="12">
-        <f>IFERROR(I16/G16,"")</f>
+      <c r="J16" s="10">
+        <f t="shared" si="4"/>
         <v>-2.769017341040361E-4</v>
       </c>
       <c r="K16">
-        <f>_xlfn.RANK.EQ(J16,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="L16">
@@ -3320,16 +3338,16 @@
       <c r="M16">
         <v>7397093</v>
       </c>
-      <c r="N16" s="8">
-        <f>M16-L16</f>
+      <c r="N16" s="7">
+        <f t="shared" si="6"/>
         <v>-107</v>
       </c>
-      <c r="O16" s="12">
-        <f>IFERROR(N16/L16,"")</f>
+      <c r="O16" s="10">
+        <f t="shared" si="7"/>
         <v>-1.4464932677229222E-5</v>
       </c>
       <c r="P16">
-        <f>_xlfn.RANK.EQ(O16,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
     </row>
@@ -3337,22 +3355,22 @@
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>14860800</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>14439480.050000001</v>
       </c>
-      <c r="D17" s="8">
-        <f>C17-B17</f>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
         <v>-421319.94999999925</v>
       </c>
-      <c r="E17" s="12">
-        <f>IFERROR(D17/B17,"")</f>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
         <v>-2.8351094826658003E-2</v>
       </c>
-      <c r="F17">
-        <f>_xlfn.RANK.EQ(E17,$E$2:$E$52,1)</f>
+      <c r="F17" s="14">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="G17">
@@ -3361,16 +3379,16 @@
       <c r="H17">
         <v>14645233.51</v>
       </c>
-      <c r="I17" s="8">
-        <f>H17-G17</f>
+      <c r="I17" s="7">
+        <f t="shared" si="3"/>
         <v>-664466.49000000022</v>
       </c>
-      <c r="J17" s="12">
-        <f>IFERROR(I17/G17,"")</f>
+      <c r="J17" s="10">
+        <f t="shared" si="4"/>
         <v>-4.3401666263871937E-2</v>
       </c>
       <c r="K17">
-        <f>_xlfn.RANK.EQ(J17,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L17">
@@ -3379,16 +3397,16 @@
       <c r="M17">
         <v>14346057.039999999</v>
       </c>
-      <c r="N17" s="8">
-        <f>M17-L17</f>
+      <c r="N17" s="7">
+        <f t="shared" si="6"/>
         <v>-965742.96000000089</v>
       </c>
-      <c r="O17" s="12">
-        <f>IFERROR(N17/L17,"")</f>
+      <c r="O17" s="10">
+        <f t="shared" si="7"/>
         <v>-6.3071811282801551E-2</v>
       </c>
       <c r="P17">
-        <f>_xlfn.RANK.EQ(O17,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -3396,22 +3414,22 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>2764700</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>2615303.8999999901</v>
       </c>
-      <c r="D18" s="8">
-        <f>C18-B18</f>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="E18" s="12">
-        <f>IFERROR(D18/B18,"")</f>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
         <v>-5.4037002206391245E-2</v>
       </c>
-      <c r="F18">
-        <f>_xlfn.RANK.EQ(E18,$E$2:$E$52,1)</f>
+      <c r="F18" s="14">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G18">
@@ -3420,16 +3438,16 @@
       <c r="H18">
         <v>2671745.94</v>
       </c>
-      <c r="I18" s="8">
-        <f>H18-G18</f>
+      <c r="I18" s="7">
+        <f t="shared" si="3"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="J18" s="12">
-        <f>IFERROR(I18/G18,"")</f>
+      <c r="J18" s="10">
+        <f t="shared" si="4"/>
         <v>-6.6149619014330668E-2</v>
       </c>
       <c r="K18">
-        <f>_xlfn.RANK.EQ(J18,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="L18">
@@ -3438,16 +3456,16 @@
       <c r="M18">
         <v>2535637.09</v>
       </c>
-      <c r="N18" s="8">
-        <f>M18-L18</f>
+      <c r="N18" s="7">
+        <f t="shared" si="6"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="O18" s="12">
-        <f>IFERROR(N18/L18,"")</f>
+      <c r="O18" s="10">
+        <f t="shared" si="7"/>
         <v>-0.12882667147667154</v>
       </c>
       <c r="P18">
-        <f>_xlfn.RANK.EQ(O18,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -3455,22 +3473,22 @@
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>8837300</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>8460963.1999999899</v>
       </c>
-      <c r="D19" s="8">
-        <f>C19-B19</f>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
         <v>-376336.80000001006</v>
       </c>
-      <c r="E19" s="12">
-        <f>IFERROR(D19/B19,"")</f>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
         <v>-4.258504294298146E-2</v>
       </c>
-      <c r="F19">
-        <f>_xlfn.RANK.EQ(E19,$E$2:$E$52,1)</f>
+      <c r="F19" s="14">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G19">
@@ -3479,16 +3497,16 @@
       <c r="H19">
         <v>8991707.2399999909</v>
       </c>
-      <c r="I19" s="8">
-        <f>H19-G19</f>
+      <c r="I19" s="7">
+        <f t="shared" si="3"/>
         <v>-721592.76000000909</v>
       </c>
-      <c r="J19" s="12">
-        <f>IFERROR(I19/G19,"")</f>
+      <c r="J19" s="10">
+        <f t="shared" si="4"/>
         <v>-7.4289145810384635E-2</v>
       </c>
       <c r="K19">
-        <f>_xlfn.RANK.EQ(J19,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="L19">
@@ -3497,16 +3515,16 @@
       <c r="M19">
         <v>8766655.9100000001</v>
       </c>
-      <c r="N19" s="8">
-        <f>M19-L19</f>
+      <c r="N19" s="7">
+        <f t="shared" si="6"/>
         <v>-576344.08999999985</v>
       </c>
-      <c r="O19" s="12">
-        <f>IFERROR(N19/L19,"")</f>
+      <c r="O19" s="10">
+        <f t="shared" si="7"/>
         <v>-6.1687262121374278E-2</v>
       </c>
       <c r="P19">
-        <f>_xlfn.RANK.EQ(O19,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -3514,22 +3532,22 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>124385900</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>124384360.159999</v>
       </c>
-      <c r="D20" s="8">
-        <f>C20-B20</f>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
         <v>-1539.8400010019541</v>
       </c>
-      <c r="E20" s="12">
-        <f>IFERROR(D20/B20,"")</f>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
         <v>-1.2379538203300809E-5</v>
       </c>
-      <c r="F20">
-        <f>_xlfn.RANK.EQ(E20,$E$2:$E$52,1)</f>
+      <c r="F20" s="14">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="G20">
@@ -3538,16 +3556,16 @@
       <c r="H20">
         <v>131839624.37</v>
       </c>
-      <c r="I20" s="8">
-        <f>H20-G20</f>
+      <c r="I20" s="7">
+        <f t="shared" si="3"/>
         <v>-9775.6299999952316</v>
       </c>
-      <c r="J20" s="12">
-        <f>IFERROR(I20/G20,"")</f>
+      <c r="J20" s="10">
+        <f t="shared" si="4"/>
         <v>-7.4142392760188761E-5</v>
       </c>
       <c r="K20">
-        <f>_xlfn.RANK.EQ(J20,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="L20">
@@ -3556,16 +3574,16 @@
       <c r="M20">
         <v>130621283.53999899</v>
       </c>
-      <c r="N20" s="8">
-        <f>M20-L20</f>
+      <c r="N20" s="7">
+        <f t="shared" si="6"/>
         <v>-116.46000100672245</v>
       </c>
-      <c r="O20" s="12">
-        <f>IFERROR(N20/L20,"")</f>
+      <c r="O20" s="10">
+        <f t="shared" si="7"/>
         <v>-8.9158438821450736E-7</v>
       </c>
       <c r="P20">
-        <f>_xlfn.RANK.EQ(O20,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -3573,22 +3591,22 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>24332100</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>22408587.5499999</v>
       </c>
-      <c r="D21" s="8">
-        <f>C21-B21</f>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
         <v>-1923512.4500000998</v>
       </c>
-      <c r="E21" s="12">
-        <f>IFERROR(D21/B21,"")</f>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
         <v>-7.9052463618023094E-2</v>
       </c>
-      <c r="F21">
-        <f>_xlfn.RANK.EQ(E21,$E$2:$E$52,1)</f>
+      <c r="F21" s="14">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G21">
@@ -3597,16 +3615,16 @@
       <c r="H21">
         <v>22655993.629999999</v>
       </c>
-      <c r="I21" s="8">
-        <f>H21-G21</f>
+      <c r="I21" s="7">
+        <f t="shared" si="3"/>
         <v>-1841406.370000001</v>
       </c>
-      <c r="J21" s="12">
-        <f>IFERROR(I21/G21,"")</f>
+      <c r="J21" s="10">
+        <f t="shared" si="4"/>
         <v>-7.5167420624229556E-2</v>
       </c>
       <c r="K21">
-        <f>_xlfn.RANK.EQ(J21,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="L21">
@@ -3615,16 +3633,16 @@
       <c r="M21">
         <v>23434073.089999899</v>
       </c>
-      <c r="N21" s="8">
-        <f>M21-L21</f>
+      <c r="N21" s="7">
+        <f t="shared" si="6"/>
         <v>-888926.91000010073</v>
       </c>
-      <c r="O21" s="12">
-        <f>IFERROR(N21/L21,"")</f>
+      <c r="O21" s="10">
+        <f t="shared" si="7"/>
         <v>-3.6546762734864152E-2</v>
       </c>
       <c r="P21">
-        <f>_xlfn.RANK.EQ(O21,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -3632,22 +3650,22 @@
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>11566000</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>11412339.8799999</v>
       </c>
-      <c r="D22" s="8">
-        <f>C22-B22</f>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
         <v>-153660.12000009976</v>
       </c>
-      <c r="E22" s="12">
-        <f>IFERROR(D22/B22,"")</f>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
         <v>-1.3285502334437123E-2</v>
       </c>
-      <c r="F22">
-        <f>_xlfn.RANK.EQ(E22,$E$2:$E$52,1)</f>
+      <c r="F22" s="14">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="G22">
@@ -3656,16 +3674,16 @@
       <c r="H22">
         <v>11791977.9699999</v>
       </c>
-      <c r="I22" s="8">
-        <f>H22-G22</f>
+      <c r="I22" s="7">
+        <f t="shared" si="3"/>
         <v>-188722.03000009991</v>
       </c>
-      <c r="J22" s="12">
-        <f>IFERROR(I22/G22,"")</f>
+      <c r="J22" s="10">
+        <f t="shared" si="4"/>
         <v>-1.5752170574348738E-2</v>
       </c>
       <c r="K22">
-        <f>_xlfn.RANK.EQ(J22,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="L22">
@@ -3674,16 +3692,16 @@
       <c r="M22">
         <v>11934454.77</v>
       </c>
-      <c r="N22" s="8">
-        <f>M22-L22</f>
+      <c r="N22" s="7">
+        <f t="shared" si="6"/>
         <v>-745.23000000044703</v>
       </c>
-      <c r="O22" s="12">
-        <f>IFERROR(N22/L22,"")</f>
+      <c r="O22" s="10">
+        <f t="shared" si="7"/>
         <v>-6.2439674240938325E-5</v>
       </c>
       <c r="P22">
-        <f>_xlfn.RANK.EQ(O22,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
@@ -3691,22 +3709,22 @@
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>20862700</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>20036743.4099999</v>
       </c>
-      <c r="D23" s="8">
-        <f>C23-B23</f>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
         <v>-825956.59000010043</v>
       </c>
-      <c r="E23" s="12">
-        <f>IFERROR(D23/B23,"")</f>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
         <v>-3.9590110100806722E-2</v>
       </c>
-      <c r="F23">
-        <f>_xlfn.RANK.EQ(E23,$E$2:$E$52,1)</f>
+      <c r="F23" s="14">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G23">
@@ -3715,16 +3733,16 @@
       <c r="H23">
         <v>21722126.219999898</v>
       </c>
-      <c r="I23" s="8">
-        <f>H23-G23</f>
+      <c r="I23" s="7">
+        <f t="shared" si="3"/>
         <v>-961673.78000010177</v>
       </c>
-      <c r="J23" s="12">
-        <f>IFERROR(I23/G23,"")</f>
+      <c r="J23" s="10">
+        <f t="shared" si="4"/>
         <v>-4.2394738976719144E-2</v>
       </c>
       <c r="K23">
-        <f>_xlfn.RANK.EQ(J23,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="L23">
@@ -3733,16 +3751,16 @@
       <c r="M23">
         <v>22619057.440000001</v>
       </c>
-      <c r="N23" s="8">
-        <f>M23-L23</f>
+      <c r="N23" s="7">
+        <f t="shared" si="6"/>
         <v>-601242.55999999866</v>
       </c>
-      <c r="O23" s="12">
-        <f>IFERROR(N23/L23,"")</f>
+      <c r="O23" s="10">
+        <f t="shared" si="7"/>
         <v>-2.5892971236375011E-2</v>
       </c>
       <c r="P23">
-        <f>_xlfn.RANK.EQ(O23,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -3750,22 +3768,22 @@
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>917200</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>904969.19</v>
       </c>
-      <c r="D24" s="8">
-        <f>C24-B24</f>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="E24" s="12">
-        <f>IFERROR(D24/B24,"")</f>
+      <c r="E24" s="10">
+        <f t="shared" si="1"/>
         <v>-1.3334943305713101E-2</v>
       </c>
-      <c r="F24">
-        <f>_xlfn.RANK.EQ(E24,$E$2:$E$52,1)</f>
+      <c r="F24" s="14">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="G24">
@@ -3774,16 +3792,16 @@
       <c r="H24">
         <v>1067214.42</v>
       </c>
-      <c r="I24" s="8">
-        <f>H24-G24</f>
+      <c r="I24" s="7">
+        <f t="shared" si="3"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="J24" s="12">
-        <f>IFERROR(I24/G24,"")</f>
+      <c r="J24" s="10">
+        <f t="shared" si="4"/>
         <v>-4.087856565111897E-2</v>
       </c>
       <c r="K24">
-        <f>_xlfn.RANK.EQ(J24,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="L24">
@@ -3792,16 +3810,16 @@
       <c r="M24">
         <v>1112527.1200000001</v>
       </c>
-      <c r="N24" s="8">
-        <f>M24-L24</f>
+      <c r="N24" s="7">
+        <f t="shared" si="6"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="O24" s="12">
-        <f>IFERROR(N24/L24,"")</f>
+      <c r="O24" s="10">
+        <f t="shared" si="7"/>
         <v>-6.5504224339284781E-5</v>
       </c>
       <c r="P24">
-        <f>_xlfn.RANK.EQ(O24,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
     </row>
@@ -3809,22 +3827,22 @@
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>484100</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>479149.53</v>
       </c>
-      <c r="D25" s="8">
-        <f>C25-B25</f>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="E25" s="12">
-        <f>IFERROR(D25/B25,"")</f>
+      <c r="E25" s="10">
+        <f t="shared" si="1"/>
         <v>-1.0226130964676661E-2</v>
       </c>
-      <c r="F25">
-        <f>_xlfn.RANK.EQ(E25,$E$2:$E$52,1)</f>
+      <c r="F25" s="14">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="G25">
@@ -3833,16 +3851,16 @@
       <c r="H25">
         <v>497194.20999999897</v>
       </c>
-      <c r="I25" s="8">
-        <f>H25-G25</f>
+      <c r="I25" s="7">
+        <f t="shared" si="3"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="J25" s="12">
-        <f>IFERROR(I25/G25,"")</f>
+      <c r="J25" s="10">
+        <f t="shared" si="4"/>
         <v>-1.5846773555029746E-2</v>
       </c>
       <c r="K25">
-        <f>_xlfn.RANK.EQ(J25,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="L25">
@@ -3851,16 +3869,16 @@
       <c r="M25">
         <v>494775.1</v>
       </c>
-      <c r="N25" s="8">
-        <f>M25-L25</f>
+      <c r="N25" s="7">
+        <f t="shared" si="6"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="O25" s="12">
-        <f>IFERROR(N25/L25,"")</f>
+      <c r="O25" s="10">
+        <f t="shared" si="7"/>
         <v>-3.4741188318228064E-3</v>
       </c>
       <c r="P25">
-        <f>_xlfn.RANK.EQ(O25,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
@@ -3868,22 +3886,22 @@
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>5249800</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>4801960.08</v>
       </c>
-      <c r="D26" s="8">
-        <f>C26-B26</f>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
         <v>-447839.91999999993</v>
       </c>
-      <c r="E26" s="12">
-        <f>IFERROR(D26/B26,"")</f>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
         <v>-8.5306091660634673E-2</v>
       </c>
-      <c r="F26">
-        <f>_xlfn.RANK.EQ(E26,$E$2:$E$52,1)</f>
+      <c r="F26" s="14">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G26">
@@ -3892,16 +3910,16 @@
       <c r="H26">
         <v>5122329.02999999</v>
       </c>
-      <c r="I26" s="8">
-        <f>H26-G26</f>
+      <c r="I26" s="7">
+        <f t="shared" si="3"/>
         <v>-319870.97000000998</v>
       </c>
-      <c r="J26" s="12">
-        <f>IFERROR(I26/G26,"")</f>
+      <c r="J26" s="10">
+        <f t="shared" si="4"/>
         <v>-5.8776040939327839E-2</v>
       </c>
       <c r="K26">
-        <f>_xlfn.RANK.EQ(J26,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L26">
@@ -3910,16 +3928,16 @@
       <c r="M26">
         <v>5117235.21</v>
       </c>
-      <c r="N26" s="8">
-        <f>M26-L26</f>
+      <c r="N26" s="7">
+        <f t="shared" si="6"/>
         <v>-313464.79000000004</v>
       </c>
-      <c r="O26" s="12">
-        <f>IFERROR(N26/L26,"")</f>
+      <c r="O26" s="10">
+        <f t="shared" si="7"/>
         <v>-5.7720881286022069E-2</v>
       </c>
       <c r="P26">
-        <f>_xlfn.RANK.EQ(O26,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -3927,22 +3945,22 @@
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>0</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>0</v>
       </c>
-      <c r="D27" s="8">
-        <f>C27-B27</f>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="12" t="str">
-        <f>IFERROR(D27/B27,"")</f>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F27" t="e">
-        <f>_xlfn.RANK.EQ(E27,$E$2:$E$52,1)</f>
+      <c r="F27" s="14" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="G27">
@@ -3951,16 +3969,16 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" s="8">
-        <f>H27-G27</f>
+      <c r="I27" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="12" t="str">
-        <f>IFERROR(I27/G27,"")</f>
+      <c r="J27" s="10" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K27" t="e">
-        <f>_xlfn.RANK.EQ(J27,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="L27">
@@ -3969,16 +3987,16 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" s="8">
-        <f>M27-L27</f>
+      <c r="N27" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O27" s="12" t="str">
-        <f>IFERROR(N27/L27,"")</f>
+      <c r="O27" s="10" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P27" t="e">
-        <f>_xlfn.RANK.EQ(O27,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3986,22 +4004,22 @@
       <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>1382900</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>1250442.02</v>
       </c>
-      <c r="D28" s="8">
-        <f>C28-B28</f>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
         <v>-132457.97999999998</v>
       </c>
-      <c r="E28" s="12">
-        <f>IFERROR(D28/B28,"")</f>
+      <c r="E28" s="10">
+        <f t="shared" si="1"/>
         <v>-9.5782760864849215E-2</v>
       </c>
-      <c r="F28">
-        <f>_xlfn.RANK.EQ(E28,$E$2:$E$52,1)</f>
+      <c r="F28" s="14">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G28">
@@ -4010,16 +4028,16 @@
       <c r="H28">
         <v>1281335.23</v>
       </c>
-      <c r="I28" s="8">
-        <f>H28-G28</f>
+      <c r="I28" s="7">
+        <f t="shared" si="3"/>
         <v>-264364.77</v>
       </c>
-      <c r="J28" s="12">
-        <f>IFERROR(I28/G28,"")</f>
+      <c r="J28" s="10">
+        <f t="shared" si="4"/>
         <v>-0.17103239309050916</v>
       </c>
       <c r="K28">
-        <f>_xlfn.RANK.EQ(J28,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L28">
@@ -4028,16 +4046,16 @@
       <c r="M28">
         <v>1393285.06</v>
       </c>
-      <c r="N28" s="8">
-        <f>M28-L28</f>
+      <c r="N28" s="7">
+        <f t="shared" si="6"/>
         <v>-132614.93999999994</v>
       </c>
-      <c r="O28" s="12">
-        <f>IFERROR(N28/L28,"")</f>
+      <c r="O28" s="10">
+        <f t="shared" si="7"/>
         <v>-8.6909325643882263E-2</v>
       </c>
       <c r="P28">
-        <f>_xlfn.RANK.EQ(O28,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -4045,22 +4063,22 @@
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>2561800</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>2523884.71</v>
       </c>
-      <c r="D29" s="8">
-        <f>C29-B29</f>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
         <v>-37915.290000000037</v>
       </c>
-      <c r="E29" s="12">
-        <f>IFERROR(D29/B29,"")</f>
+      <c r="E29" s="10">
+        <f t="shared" si="1"/>
         <v>-1.4800253727847622E-2</v>
       </c>
-      <c r="F29">
-        <f>_xlfn.RANK.EQ(E29,$E$2:$E$52,1)</f>
+      <c r="F29" s="14">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="G29">
@@ -4069,16 +4087,16 @@
       <c r="H29">
         <v>2665264.4399999902</v>
       </c>
-      <c r="I29" s="8">
-        <f>H29-G29</f>
+      <c r="I29" s="7">
+        <f t="shared" si="3"/>
         <v>-114235.56000000983</v>
       </c>
-      <c r="J29" s="12">
-        <f>IFERROR(I29/G29,"")</f>
+      <c r="J29" s="10">
+        <f t="shared" si="4"/>
         <v>-4.1099320021590155E-2</v>
       </c>
       <c r="K29">
-        <f>_xlfn.RANK.EQ(J29,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="L29">
@@ -4087,16 +4105,16 @@
       <c r="M29">
         <v>2889864.67</v>
       </c>
-      <c r="N29" s="8">
-        <f>M29-L29</f>
+      <c r="N29" s="7">
+        <f t="shared" si="6"/>
         <v>-35.330000000074506</v>
       </c>
-      <c r="O29" s="12">
-        <f>IFERROR(N29/L29,"")</f>
+      <c r="O29" s="10">
+        <f t="shared" si="7"/>
         <v>-1.2225336516860273E-5</v>
       </c>
       <c r="P29">
-        <f>_xlfn.RANK.EQ(O29,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
     </row>
@@ -4104,22 +4122,22 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>12132200</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>12030494.1</v>
       </c>
-      <c r="D30" s="8">
-        <f>C30-B30</f>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
         <v>-101705.90000000037</v>
       </c>
-      <c r="E30" s="12">
-        <f>IFERROR(D30/B30,"")</f>
+      <c r="E30" s="10">
+        <f t="shared" si="1"/>
         <v>-8.3831374359143746E-3</v>
       </c>
-      <c r="F30">
-        <f>_xlfn.RANK.EQ(E30,$E$2:$E$52,1)</f>
+      <c r="F30" s="14">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G30">
@@ -4128,16 +4146,16 @@
       <c r="H30">
         <v>12685514.279999901</v>
       </c>
-      <c r="I30" s="8">
-        <f>H30-G30</f>
+      <c r="I30" s="7">
+        <f t="shared" si="3"/>
         <v>-50385.720000099391</v>
       </c>
-      <c r="J30" s="12">
-        <f>IFERROR(I30/G30,"")</f>
+      <c r="J30" s="10">
+        <f t="shared" si="4"/>
         <v>-3.9561962641116366E-3</v>
       </c>
       <c r="K30">
-        <f>_xlfn.RANK.EQ(J30,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="L30">
@@ -4146,16 +4164,16 @@
       <c r="M30">
         <v>12826009.609999999</v>
       </c>
-      <c r="N30" s="8">
-        <f>M30-L30</f>
+      <c r="N30" s="7">
+        <f t="shared" si="6"/>
         <v>-35290.390000000596</v>
       </c>
-      <c r="O30" s="12">
-        <f>IFERROR(N30/L30,"")</f>
+      <c r="O30" s="10">
+        <f t="shared" si="7"/>
         <v>-2.7439209100169185E-3</v>
       </c>
       <c r="P30">
-        <f>_xlfn.RANK.EQ(O30,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
@@ -4163,22 +4181,22 @@
       <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>1765600</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>1740827.69</v>
       </c>
-      <c r="D31" s="8">
-        <f>C31-B31</f>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
         <v>-24772.310000000056</v>
       </c>
-      <c r="E31" s="12">
-        <f>IFERROR(D31/B31,"")</f>
+      <c r="E31" s="10">
+        <f t="shared" si="1"/>
         <v>-1.4030533529678329E-2</v>
       </c>
-      <c r="F31">
-        <f>_xlfn.RANK.EQ(E31,$E$2:$E$52,1)</f>
+      <c r="F31" s="14">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="G31">
@@ -4187,16 +4205,16 @@
       <c r="H31">
         <v>1762676.85</v>
       </c>
-      <c r="I31" s="8">
-        <f>H31-G31</f>
+      <c r="I31" s="7">
+        <f t="shared" si="3"/>
         <v>-60623.149999999907</v>
       </c>
-      <c r="J31" s="12">
-        <f>IFERROR(I31/G31,"")</f>
+      <c r="J31" s="10">
+        <f t="shared" si="4"/>
         <v>-3.3249136181648611E-2</v>
       </c>
       <c r="K31">
-        <f>_xlfn.RANK.EQ(J31,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L31">
@@ -4205,16 +4223,16 @@
       <c r="M31">
         <v>1801391.34</v>
       </c>
-      <c r="N31" s="8">
-        <f>M31-L31</f>
+      <c r="N31" s="7">
+        <f t="shared" si="6"/>
         <v>-69308.659999999916</v>
       </c>
-      <c r="O31" s="12">
-        <f>IFERROR(N31/L31,"")</f>
+      <c r="O31" s="10">
+        <f t="shared" si="7"/>
         <v>-3.7049585716576634E-2</v>
       </c>
       <c r="P31">
-        <f>_xlfn.RANK.EQ(O31,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -4222,22 +4240,22 @@
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>5999400</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>5925637.7199999904</v>
       </c>
-      <c r="D32" s="8">
-        <f>C32-B32</f>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
         <v>-73762.280000009574</v>
       </c>
-      <c r="E32" s="12">
-        <f>IFERROR(D32/B32,"")</f>
+      <c r="E32" s="10">
+        <f t="shared" si="1"/>
         <v>-1.2294942827617691E-2</v>
       </c>
-      <c r="F32">
-        <f>_xlfn.RANK.EQ(E32,$E$2:$E$52,1)</f>
+      <c r="F32" s="14">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="G32">
@@ -4246,16 +4264,16 @@
       <c r="H32">
         <v>6084985.4699999997</v>
       </c>
-      <c r="I32" s="8">
-        <f>H32-G32</f>
+      <c r="I32" s="7">
+        <f t="shared" si="3"/>
         <v>-110514.53000000026</v>
       </c>
-      <c r="J32" s="12">
-        <f>IFERROR(I32/G32,"")</f>
+      <c r="J32" s="10">
+        <f t="shared" si="4"/>
         <v>-1.7837871035428981E-2</v>
       </c>
       <c r="K32">
-        <f>_xlfn.RANK.EQ(J32,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="L32">
@@ -4264,16 +4282,16 @@
       <c r="M32">
         <v>5987572.0199999996</v>
       </c>
-      <c r="N32" s="8">
-        <f>M32-L32</f>
+      <c r="N32" s="7">
+        <f t="shared" si="6"/>
         <v>-169827.98000000045</v>
       </c>
-      <c r="O32" s="12">
-        <f>IFERROR(N32/L32,"")</f>
+      <c r="O32" s="10">
+        <f t="shared" si="7"/>
         <v>-2.7581118653977402E-2</v>
       </c>
       <c r="P32">
-        <f>_xlfn.RANK.EQ(O32,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
@@ -4281,22 +4299,22 @@
       <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>4189300</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>4109958.22</v>
       </c>
-      <c r="D33" s="8">
-        <f>C33-B33</f>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
         <v>-79341.779999999795</v>
       </c>
-      <c r="E33" s="12">
-        <f>IFERROR(D33/B33,"")</f>
+      <c r="E33" s="10">
+        <f t="shared" si="1"/>
         <v>-1.8939149738619768E-2</v>
       </c>
-      <c r="F33">
-        <f>_xlfn.RANK.EQ(E33,$E$2:$E$52,1)</f>
+      <c r="F33" s="14">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="G33">
@@ -4305,16 +4323,16 @@
       <c r="H33">
         <v>4137588.7699999898</v>
       </c>
-      <c r="I33" s="8">
-        <f>H33-G33</f>
+      <c r="I33" s="7">
+        <f t="shared" si="3"/>
         <v>-213011.23000001023</v>
       </c>
-      <c r="J33" s="12">
-        <f>IFERROR(I33/G33,"")</f>
+      <c r="J33" s="10">
+        <f t="shared" si="4"/>
         <v>-4.8961345561534093E-2</v>
       </c>
       <c r="K33">
-        <f>_xlfn.RANK.EQ(J33,$J$2:$J$52,1)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="L33">
@@ -4323,16 +4341,16 @@
       <c r="M33">
         <v>4229801.51</v>
       </c>
-      <c r="N33" s="8">
-        <f>M33-L33</f>
+      <c r="N33" s="7">
+        <f t="shared" si="6"/>
         <v>-115798.49000000022</v>
       </c>
-      <c r="O33" s="12">
-        <f>IFERROR(N33/L33,"")</f>
+      <c r="O33" s="10">
+        <f t="shared" si="7"/>
         <v>-2.6647296115611244E-2</v>
       </c>
       <c r="P33">
-        <f>_xlfn.RANK.EQ(O33,$O$2:$O$52,1)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
@@ -4340,22 +4358,22 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>0</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>0</v>
       </c>
-      <c r="D34" s="8">
-        <f>C34-B34</f>
+      <c r="D34" s="7">
+        <f t="shared" ref="D34:D65" si="9">C34-B34</f>
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="str">
-        <f>IFERROR(D34/B34,"")</f>
+      <c r="E34" s="10" t="str">
+        <f t="shared" ref="E34:E65" si="10">IFERROR(D34/B34,"")</f>
         <v/>
       </c>
-      <c r="F34" t="e">
-        <f>_xlfn.RANK.EQ(E34,$E$2:$E$52,1)</f>
+      <c r="F34" s="14" t="e">
+        <f t="shared" ref="F34:F65" si="11">_xlfn.RANK.EQ(E34,$E$2:$E$52,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G34">
@@ -4364,16 +4382,16 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" s="8">
-        <f>H34-G34</f>
+      <c r="I34" s="7">
+        <f t="shared" ref="I34:I65" si="12">H34-G34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="12" t="str">
-        <f>IFERROR(I34/G34,"")</f>
+      <c r="J34" s="10" t="str">
+        <f t="shared" ref="J34:J65" si="13">IFERROR(I34/G34,"")</f>
         <v/>
       </c>
       <c r="K34" t="e">
-        <f>_xlfn.RANK.EQ(J34,$J$2:$J$52,1)</f>
+        <f t="shared" ref="K34:K65" si="14">_xlfn.RANK.EQ(J34,$J$2:$J$52,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L34">
@@ -4382,16 +4400,16 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" s="8">
-        <f>M34-L34</f>
+      <c r="N34" s="7">
+        <f t="shared" ref="N34:N65" si="15">M34-L34</f>
         <v>0</v>
       </c>
-      <c r="O34" s="12" t="str">
-        <f>IFERROR(N34/L34,"")</f>
+      <c r="O34" s="10" t="str">
+        <f t="shared" ref="O34:O65" si="16">IFERROR(N34/L34,"")</f>
         <v/>
       </c>
       <c r="P34" t="e">
-        <f>_xlfn.RANK.EQ(O34,$O$2:$O$52,1)</f>
+        <f t="shared" ref="P34:P65" si="17">_xlfn.RANK.EQ(O34,$O$2:$O$52,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4399,22 +4417,22 @@
       <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>798200</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>735423.27999999898</v>
       </c>
-      <c r="D35" s="8">
-        <f>C35-B35</f>
+      <c r="D35" s="7">
+        <f t="shared" si="9"/>
         <v>-62776.72000000102</v>
       </c>
-      <c r="E35" s="12">
-        <f>IFERROR(D35/B35,"")</f>
+      <c r="E35" s="10">
+        <f t="shared" si="10"/>
         <v>-7.8647857679780775E-2</v>
       </c>
-      <c r="F35">
-        <f>_xlfn.RANK.EQ(E35,$E$2:$E$52,1)</f>
+      <c r="F35" s="14">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="G35">
@@ -4423,16 +4441,16 @@
       <c r="H35">
         <v>740966.94999999902</v>
       </c>
-      <c r="I35" s="8">
-        <f>H35-G35</f>
+      <c r="I35" s="7">
+        <f t="shared" si="12"/>
         <v>-157733.05000000098</v>
       </c>
-      <c r="J35" s="12">
-        <f>IFERROR(I35/G35,"")</f>
+      <c r="J35" s="10">
+        <f t="shared" si="13"/>
         <v>-0.17551246244575608</v>
       </c>
       <c r="K35">
-        <f>_xlfn.RANK.EQ(J35,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L35">
@@ -4441,16 +4459,16 @@
       <c r="M35">
         <v>777215.28999999899</v>
       </c>
-      <c r="N35" s="8">
-        <f>M35-L35</f>
+      <c r="N35" s="7">
+        <f t="shared" si="15"/>
         <v>-101084.71000000101</v>
       </c>
-      <c r="O35" s="12">
-        <f>IFERROR(N35/L35,"")</f>
+      <c r="O35" s="10">
+        <f t="shared" si="16"/>
         <v>-0.11509132414892521</v>
       </c>
       <c r="P35">
-        <f>_xlfn.RANK.EQ(O35,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
@@ -4458,22 +4476,22 @@
       <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>2087800</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>2005447.73999999</v>
       </c>
-      <c r="D36" s="8">
-        <f>C36-B36</f>
+      <c r="D36" s="7">
+        <f t="shared" si="9"/>
         <v>-82352.260000010021</v>
       </c>
-      <c r="E36" s="12">
-        <f>IFERROR(D36/B36,"")</f>
+      <c r="E36" s="10">
+        <f t="shared" si="10"/>
         <v>-3.9444515758219188E-2</v>
       </c>
-      <c r="F36">
-        <f>_xlfn.RANK.EQ(E36,$E$2:$E$52,1)</f>
+      <c r="F36" s="14">
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="G36">
@@ -4482,16 +4500,16 @@
       <c r="H36">
         <v>2118943.21</v>
       </c>
-      <c r="I36" s="8">
-        <f>H36-G36</f>
+      <c r="I36" s="7">
+        <f t="shared" si="12"/>
         <v>-110256.79000000004</v>
       </c>
-      <c r="J36" s="12">
-        <f>IFERROR(I36/G36,"")</f>
+      <c r="J36" s="10">
+        <f t="shared" si="13"/>
         <v>-4.9460250314014013E-2</v>
       </c>
       <c r="K36">
-        <f>_xlfn.RANK.EQ(J36,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="L36">
@@ -4500,16 +4518,16 @@
       <c r="M36">
         <v>2108718.34</v>
       </c>
-      <c r="N36" s="8">
-        <f>M36-L36</f>
+      <c r="N36" s="7">
+        <f t="shared" si="15"/>
         <v>-188181.66000000015</v>
       </c>
-      <c r="O36" s="12">
-        <f>IFERROR(N36/L36,"")</f>
+      <c r="O36" s="10">
+        <f t="shared" si="16"/>
         <v>-8.1928538464887526E-2</v>
       </c>
       <c r="P36">
-        <f>_xlfn.RANK.EQ(O36,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
     </row>
@@ -4517,22 +4535,22 @@
       <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>927703099.99999905</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>920284264.73000002</v>
       </c>
-      <c r="D37" s="8">
-        <f>C37-B37</f>
+      <c r="D37" s="7">
+        <f t="shared" si="9"/>
         <v>-7418835.2699990273</v>
       </c>
-      <c r="E37" s="12">
-        <f>IFERROR(D37/B37,"")</f>
+      <c r="E37" s="10">
+        <f t="shared" si="10"/>
         <v>-7.9969930789269058E-3</v>
       </c>
-      <c r="F37">
-        <f>_xlfn.RANK.EQ(E37,$E$2:$E$52,1)</f>
+      <c r="F37" s="14">
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="G37">
@@ -4541,16 +4559,16 @@
       <c r="H37">
         <v>977068513.48000002</v>
       </c>
-      <c r="I37" s="8">
-        <f>H37-G37</f>
+      <c r="I37" s="7">
+        <f t="shared" si="12"/>
         <v>-2602486.5199999809</v>
       </c>
-      <c r="J37" s="12">
-        <f>IFERROR(I37/G37,"")</f>
+      <c r="J37" s="10">
+        <f t="shared" si="13"/>
         <v>-2.6564903115433454E-3</v>
       </c>
       <c r="K37">
-        <f>_xlfn.RANK.EQ(J37,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="L37">
@@ -4559,16 +4577,16 @@
       <c r="M37">
         <v>984116289.40999901</v>
       </c>
-      <c r="N37" s="8">
-        <f>M37-L37</f>
+      <c r="N37" s="7">
+        <f t="shared" si="15"/>
         <v>-5456610.5900000334</v>
       </c>
-      <c r="O37" s="12">
-        <f>IFERROR(N37/L37,"")</f>
+      <c r="O37" s="10">
+        <f t="shared" si="16"/>
         <v>-5.5141067323084929E-3</v>
       </c>
       <c r="P37">
-        <f>_xlfn.RANK.EQ(O37,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
     </row>
@@ -4576,22 +4594,22 @@
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>855300</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>838669.82</v>
       </c>
-      <c r="D38" s="8">
-        <f>C38-B38</f>
+      <c r="D38" s="7">
+        <f t="shared" si="9"/>
         <v>-16630.180000000051</v>
       </c>
-      <c r="E38" s="12">
-        <f>IFERROR(D38/B38,"")</f>
+      <c r="E38" s="10">
+        <f t="shared" si="10"/>
         <v>-1.9443680579913542E-2</v>
       </c>
-      <c r="F38">
-        <f>_xlfn.RANK.EQ(E38,$E$2:$E$52,1)</f>
+      <c r="F38" s="14">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="G38">
@@ -4600,16 +4618,16 @@
       <c r="H38">
         <v>753451.96</v>
       </c>
-      <c r="I38" s="8">
-        <f>H38-G38</f>
+      <c r="I38" s="7">
+        <f t="shared" si="12"/>
         <v>-39348.040000000037</v>
       </c>
-      <c r="J38" s="12">
-        <f>IFERROR(I38/G38,"")</f>
+      <c r="J38" s="10">
+        <f t="shared" si="13"/>
         <v>-4.9631735620585316E-2</v>
       </c>
       <c r="K38">
-        <f>_xlfn.RANK.EQ(J38,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="L38">
@@ -4618,16 +4636,16 @@
       <c r="M38">
         <v>777663.26</v>
       </c>
-      <c r="N38" s="8">
-        <f>M38-L38</f>
+      <c r="N38" s="7">
+        <f t="shared" si="15"/>
         <v>-136.73999999999069</v>
       </c>
-      <c r="O38" s="12">
-        <f>IFERROR(N38/L38,"")</f>
+      <c r="O38" s="10">
+        <f t="shared" si="16"/>
         <v>-1.7580354847003174E-4</v>
       </c>
       <c r="P38">
-        <f>_xlfn.RANK.EQ(O38,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
     </row>
@@ -4635,22 +4653,22 @@
       <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>883900</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>813108.87</v>
       </c>
-      <c r="D39" s="8">
-        <f>C39-B39</f>
+      <c r="D39" s="7">
+        <f t="shared" si="9"/>
         <v>-70791.13</v>
       </c>
-      <c r="E39" s="12">
-        <f>IFERROR(D39/B39,"")</f>
+      <c r="E39" s="10">
+        <f t="shared" si="10"/>
         <v>-8.008952370177623E-2</v>
       </c>
-      <c r="F39">
-        <f>_xlfn.RANK.EQ(E39,$E$2:$E$52,1)</f>
+      <c r="F39" s="14">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G39">
@@ -4659,16 +4677,16 @@
       <c r="H39">
         <v>1114242.27999999</v>
       </c>
-      <c r="I39" s="8">
-        <f>H39-G39</f>
+      <c r="I39" s="7">
+        <f t="shared" si="12"/>
         <v>-180157.72000000998</v>
       </c>
-      <c r="J39" s="12">
-        <f>IFERROR(I39/G39,"")</f>
+      <c r="J39" s="10">
+        <f t="shared" si="13"/>
         <v>-0.13918241656366656</v>
       </c>
       <c r="K39">
-        <f>_xlfn.RANK.EQ(J39,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L39">
@@ -4677,16 +4695,16 @@
       <c r="M39">
         <v>1680463.8699999901</v>
       </c>
-      <c r="N39" s="8">
-        <f>M39-L39</f>
+      <c r="N39" s="7">
+        <f t="shared" si="15"/>
         <v>-79036.1300000099</v>
       </c>
-      <c r="O39" s="12">
-        <f>IFERROR(N39/L39,"")</f>
+      <c r="O39" s="10">
+        <f t="shared" si="16"/>
         <v>-4.4919653310605226E-2</v>
       </c>
       <c r="P39">
-        <f>_xlfn.RANK.EQ(O39,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
     </row>
@@ -4694,22 +4712,22 @@
       <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>38381900</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>37565141.859999903</v>
       </c>
-      <c r="D40" s="8">
-        <f>C40-B40</f>
+      <c r="D40" s="7">
+        <f t="shared" si="9"/>
         <v>-816758.14000009745</v>
       </c>
-      <c r="E40" s="12">
-        <f>IFERROR(D40/B40,"")</f>
+      <c r="E40" s="10">
+        <f t="shared" si="10"/>
         <v>-2.1279773539092578E-2</v>
       </c>
-      <c r="F40">
-        <f>_xlfn.RANK.EQ(E40,$E$2:$E$52,1)</f>
+      <c r="F40" s="14">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="G40">
@@ -4718,16 +4736,16 @@
       <c r="H40">
         <v>38095240.189999901</v>
       </c>
-      <c r="I40" s="8">
-        <f>H40-G40</f>
+      <c r="I40" s="7">
+        <f t="shared" si="12"/>
         <v>-1869659.8100000992</v>
       </c>
-      <c r="J40" s="12">
-        <f>IFERROR(I40/G40,"")</f>
+      <c r="J40" s="10">
+        <f t="shared" si="13"/>
         <v>-4.6782546934937892E-2</v>
       </c>
       <c r="K40">
-        <f>_xlfn.RANK.EQ(J40,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="L40">
@@ -4736,16 +4754,16 @@
       <c r="M40">
         <v>39606263.709999897</v>
       </c>
-      <c r="N40" s="8">
-        <f>M40-L40</f>
+      <c r="N40" s="7">
+        <f t="shared" si="15"/>
         <v>-610436.29000010341</v>
       </c>
-      <c r="O40" s="12">
-        <f>IFERROR(N40/L40,"")</f>
+      <c r="O40" s="10">
+        <f t="shared" si="16"/>
         <v>-1.5178676768608648E-2</v>
       </c>
       <c r="P40">
-        <f>_xlfn.RANK.EQ(O40,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
     </row>
@@ -4753,22 +4771,22 @@
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>4593300</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>4409060.2099999897</v>
       </c>
-      <c r="D41" s="8">
-        <f>C41-B41</f>
+      <c r="D41" s="7">
+        <f t="shared" si="9"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="E41" s="12">
-        <f>IFERROR(D41/B41,"")</f>
+      <c r="E41" s="10">
+        <f t="shared" si="10"/>
         <v>-4.0110550149132493E-2</v>
       </c>
-      <c r="F41">
-        <f>_xlfn.RANK.EQ(E41,$E$2:$E$52,1)</f>
+      <c r="F41" s="14">
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="G41">
@@ -4777,16 +4795,16 @@
       <c r="H41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="I41" s="8">
-        <f>H41-G41</f>
+      <c r="I41" s="7">
+        <f t="shared" si="12"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="J41" s="12">
-        <f>IFERROR(I41/G41,"")</f>
+      <c r="J41" s="10">
+        <f t="shared" si="13"/>
         <v>-2.6221894095689226E-2</v>
       </c>
       <c r="K41">
-        <f>_xlfn.RANK.EQ(J41,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="L41">
@@ -4795,16 +4813,16 @@
       <c r="M41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="N41" s="8">
-        <f>M41-L41</f>
+      <c r="N41" s="7">
+        <f t="shared" si="15"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="O41" s="12">
-        <f>IFERROR(N41/L41,"")</f>
+      <c r="O41" s="10">
+        <f t="shared" si="16"/>
         <v>-1.7099804162586642E-2</v>
       </c>
       <c r="P41">
-        <f>_xlfn.RANK.EQ(O41,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
     </row>
@@ -4812,22 +4830,22 @@
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>188593300</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>188551675.67999899</v>
       </c>
-      <c r="D42" s="8">
-        <f>C42-B42</f>
+      <c r="D42" s="7">
+        <f t="shared" si="9"/>
         <v>-41624.320001006126</v>
       </c>
-      <c r="E42" s="12">
-        <f>IFERROR(D42/B42,"")</f>
+      <c r="E42" s="10">
+        <f t="shared" si="10"/>
         <v>-2.2070943135841053E-4</v>
       </c>
-      <c r="F42">
-        <f>_xlfn.RANK.EQ(E42,$E$2:$E$52,1)</f>
+      <c r="F42" s="14">
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="G42">
@@ -4836,16 +4854,16 @@
       <c r="H42">
         <v>196755033.31</v>
       </c>
-      <c r="I42" s="8">
-        <f>H42-G42</f>
+      <c r="I42" s="7">
+        <f t="shared" si="12"/>
         <v>-2375266.6899999976</v>
       </c>
-      <c r="J42" s="12">
-        <f>IFERROR(I42/G42,"")</f>
+      <c r="J42" s="10">
+        <f t="shared" si="13"/>
         <v>-1.1928203241796942E-2</v>
       </c>
       <c r="K42">
-        <f>_xlfn.RANK.EQ(J42,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="L42">
@@ -4854,16 +4872,16 @@
       <c r="M42">
         <v>199954563.74999899</v>
       </c>
-      <c r="N42" s="8">
-        <f>M42-L42</f>
+      <c r="N42" s="7">
+        <f t="shared" si="15"/>
         <v>-36.250001013278961</v>
       </c>
-      <c r="O42" s="12">
-        <f>IFERROR(N42/L42,"")</f>
+      <c r="O42" s="10">
+        <f t="shared" si="16"/>
         <v>-1.8129115815929696E-7</v>
       </c>
       <c r="P42">
-        <f>_xlfn.RANK.EQ(O42,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
     </row>
@@ -4871,22 +4889,22 @@
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>8135400</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>7968645.8300000001</v>
       </c>
-      <c r="D43" s="8">
-        <f>C43-B43</f>
+      <c r="D43" s="7">
+        <f t="shared" si="9"/>
         <v>-166754.16999999993</v>
       </c>
-      <c r="E43" s="12">
-        <f>IFERROR(D43/B43,"")</f>
+      <c r="E43" s="10">
+        <f t="shared" si="10"/>
         <v>-2.0497353541313264E-2</v>
       </c>
-      <c r="F43">
-        <f>_xlfn.RANK.EQ(E43,$E$2:$E$52,1)</f>
+      <c r="F43" s="14">
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="G43">
@@ -4895,16 +4913,16 @@
       <c r="H43">
         <v>8171472.0199999996</v>
       </c>
-      <c r="I43" s="8">
-        <f>H43-G43</f>
+      <c r="I43" s="7">
+        <f t="shared" si="12"/>
         <v>-389327.98000000045</v>
       </c>
-      <c r="J43" s="12">
-        <f>IFERROR(I43/G43,"")</f>
+      <c r="J43" s="10">
+        <f t="shared" si="13"/>
         <v>-4.5477990374731388E-2</v>
       </c>
       <c r="K43">
-        <f>_xlfn.RANK.EQ(J43,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="L43">
@@ -4913,16 +4931,16 @@
       <c r="M43">
         <v>8150982.5699999901</v>
       </c>
-      <c r="N43" s="8">
-        <f>M43-L43</f>
+      <c r="N43" s="7">
+        <f t="shared" si="15"/>
         <v>-346517.43000000995</v>
       </c>
-      <c r="O43" s="12">
-        <f>IFERROR(N43/L43,"")</f>
+      <c r="O43" s="10">
+        <f t="shared" si="16"/>
         <v>-4.0778750220654303E-2</v>
       </c>
       <c r="P43">
-        <f>_xlfn.RANK.EQ(O43,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
     </row>
@@ -4930,22 +4948,22 @@
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>30083200</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>29789104.379999999</v>
       </c>
-      <c r="D44" s="8">
-        <f>C44-B44</f>
+      <c r="D44" s="7">
+        <f t="shared" si="9"/>
         <v>-294095.62000000104</v>
       </c>
-      <c r="E44" s="12">
-        <f>IFERROR(D44/B44,"")</f>
+      <c r="E44" s="10">
+        <f t="shared" si="10"/>
         <v>-9.7760750186150751E-3</v>
       </c>
-      <c r="F44">
-        <f>_xlfn.RANK.EQ(E44,$E$2:$E$52,1)</f>
+      <c r="F44" s="14">
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="G44">
@@ -4954,16 +4972,16 @@
       <c r="H44">
         <v>30793711.48</v>
       </c>
-      <c r="I44" s="8">
-        <f>H44-G44</f>
+      <c r="I44" s="7">
+        <f t="shared" si="12"/>
         <v>-246988.51999999955</v>
       </c>
-      <c r="J44" s="12">
-        <f>IFERROR(I44/G44,"")</f>
+      <c r="J44" s="10">
+        <f t="shared" si="13"/>
         <v>-7.9569249404813532E-3</v>
       </c>
       <c r="K44">
-        <f>_xlfn.RANK.EQ(J44,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="L44">
@@ -4972,16 +4990,16 @@
       <c r="M44">
         <v>31282141.25</v>
       </c>
-      <c r="N44" s="8">
-        <f>M44-L44</f>
+      <c r="N44" s="7">
+        <f t="shared" si="15"/>
         <v>-58.75</v>
       </c>
-      <c r="O44" s="12">
-        <f>IFERROR(N44/L44,"")</f>
+      <c r="O44" s="10">
+        <f t="shared" si="16"/>
         <v>-1.8780648419868168E-6</v>
       </c>
       <c r="P44">
-        <f>_xlfn.RANK.EQ(O44,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
     </row>
@@ -4989,22 +5007,22 @@
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>55301600</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>54589584.0499999</v>
       </c>
-      <c r="D45" s="8">
-        <f>C45-B45</f>
+      <c r="D45" s="7">
+        <f t="shared" si="9"/>
         <v>-712015.95000009984</v>
       </c>
-      <c r="E45" s="12">
-        <f>IFERROR(D45/B45,"")</f>
+      <c r="E45" s="10">
+        <f t="shared" si="10"/>
         <v>-1.287514194887851E-2</v>
       </c>
-      <c r="F45">
-        <f>_xlfn.RANK.EQ(E45,$E$2:$E$52,1)</f>
+      <c r="F45" s="14">
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="G45">
@@ -5013,16 +5031,16 @@
       <c r="H45">
         <v>54594953.959999897</v>
       </c>
-      <c r="I45" s="8">
-        <f>H45-G45</f>
+      <c r="I45" s="7">
+        <f t="shared" si="12"/>
         <v>-2197246.0400001034</v>
       </c>
-      <c r="J45" s="12">
-        <f>IFERROR(I45/G45,"")</f>
+      <c r="J45" s="10">
+        <f t="shared" si="13"/>
         <v>-3.8689222111488959E-2</v>
       </c>
       <c r="K45">
-        <f>_xlfn.RANK.EQ(J45,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="L45">
@@ -5031,16 +5049,16 @@
       <c r="M45">
         <v>55386549.6599999</v>
       </c>
-      <c r="N45" s="8">
-        <f>M45-L45</f>
+      <c r="N45" s="7">
+        <f t="shared" si="15"/>
         <v>-640550.34000010043</v>
       </c>
-      <c r="O45" s="12">
-        <f>IFERROR(N45/L45,"")</f>
+      <c r="O45" s="10">
+        <f t="shared" si="16"/>
         <v>-1.1432866237947358E-2</v>
       </c>
       <c r="P45">
-        <f>_xlfn.RANK.EQ(O45,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
     </row>
@@ -5048,22 +5066,22 @@
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>259100</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>258322.43</v>
       </c>
-      <c r="D46" s="8">
-        <f>C46-B46</f>
+      <c r="D46" s="7">
+        <f t="shared" si="9"/>
         <v>-777.57000000000698</v>
       </c>
-      <c r="E46" s="12">
-        <f>IFERROR(D46/B46,"")</f>
+      <c r="E46" s="10">
+        <f t="shared" si="10"/>
         <v>-3.0010420686993711E-3</v>
       </c>
-      <c r="F46">
-        <f>_xlfn.RANK.EQ(E46,$E$2:$E$52,1)</f>
+      <c r="F46" s="14">
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="G46">
@@ -5072,16 +5090,16 @@
       <c r="H46">
         <v>257402.90999999901</v>
       </c>
-      <c r="I46" s="8">
-        <f>H46-G46</f>
+      <c r="I46" s="7">
+        <f t="shared" si="12"/>
         <v>-8597.090000000986</v>
       </c>
-      <c r="J46" s="12">
-        <f>IFERROR(I46/G46,"")</f>
+      <c r="J46" s="10">
+        <f t="shared" si="13"/>
         <v>-3.2319887218048821E-2</v>
       </c>
       <c r="K46">
-        <f>_xlfn.RANK.EQ(J46,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="L46">
@@ -5090,16 +5108,16 @@
       <c r="M46">
         <v>254753.15999999901</v>
       </c>
-      <c r="N46" s="8">
-        <f>M46-L46</f>
+      <c r="N46" s="7">
+        <f t="shared" si="15"/>
         <v>-12346.840000000986</v>
       </c>
-      <c r="O46" s="12">
-        <f>IFERROR(N46/L46,"")</f>
+      <c r="O46" s="10">
+        <f t="shared" si="16"/>
         <v>-4.6225533508053113E-2</v>
       </c>
       <c r="P46">
-        <f>_xlfn.RANK.EQ(O46,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
     </row>
@@ -5107,22 +5125,22 @@
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>70390700</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>70378426.719999999</v>
       </c>
-      <c r="D47" s="8">
-        <f>C47-B47</f>
+      <c r="D47" s="7">
+        <f t="shared" si="9"/>
         <v>-12273.280000001192</v>
       </c>
-      <c r="E47" s="12">
-        <f>IFERROR(D47/B47,"")</f>
+      <c r="E47" s="10">
+        <f t="shared" si="10"/>
         <v>-1.7435939690898361E-4</v>
       </c>
-      <c r="F47">
-        <f>_xlfn.RANK.EQ(E47,$E$2:$E$52,1)</f>
+      <c r="F47" s="14">
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="G47">
@@ -5131,16 +5149,16 @@
       <c r="H47">
         <v>73442541.659999996</v>
       </c>
-      <c r="I47" s="8">
-        <f>H47-G47</f>
+      <c r="I47" s="7">
+        <f t="shared" si="12"/>
         <v>-24458.340000003576</v>
       </c>
-      <c r="J47" s="12">
-        <f>IFERROR(I47/G47,"")</f>
+      <c r="J47" s="10">
+        <f t="shared" si="13"/>
         <v>-3.3291600310348285E-4</v>
       </c>
       <c r="K47">
-        <f>_xlfn.RANK.EQ(J47,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="L47">
@@ -5149,16 +5167,16 @@
       <c r="M47">
         <v>75050829.179999903</v>
       </c>
-      <c r="N47" s="8">
-        <f>M47-L47</f>
+      <c r="N47" s="7">
+        <f t="shared" si="15"/>
         <v>-21970.820000097156</v>
       </c>
-      <c r="O47" s="12">
-        <f>IFERROR(N47/L47,"")</f>
+      <c r="O47" s="10">
+        <f t="shared" si="16"/>
         <v>-2.9266019117572752E-4</v>
       </c>
       <c r="P47">
-        <f>_xlfn.RANK.EQ(O47,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
     </row>
@@ -5166,22 +5184,22 @@
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>6737100</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>6527352.5699999901</v>
       </c>
-      <c r="D48" s="8">
-        <f>C48-B48</f>
+      <c r="D48" s="7">
+        <f t="shared" si="9"/>
         <v>-209747.43000000995</v>
       </c>
-      <c r="E48" s="12">
-        <f>IFERROR(D48/B48,"")</f>
+      <c r="E48" s="10">
+        <f t="shared" si="10"/>
         <v>-3.1133192323107857E-2</v>
       </c>
-      <c r="F48">
-        <f>_xlfn.RANK.EQ(E48,$E$2:$E$52,1)</f>
+      <c r="F48" s="14">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G48">
@@ -5190,16 +5208,16 @@
       <c r="H48">
         <v>6922072.5599999996</v>
       </c>
-      <c r="I48" s="8">
-        <f>H48-G48</f>
+      <c r="I48" s="7">
+        <f t="shared" si="12"/>
         <v>-292627.44000000041</v>
       </c>
-      <c r="J48" s="12">
-        <f>IFERROR(I48/G48,"")</f>
+      <c r="J48" s="10">
+        <f t="shared" si="13"/>
         <v>-4.0559890224125802E-2</v>
       </c>
       <c r="K48">
-        <f>_xlfn.RANK.EQ(J48,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="L48">
@@ -5208,16 +5226,16 @@
       <c r="M48">
         <v>6882350.23999999</v>
       </c>
-      <c r="N48" s="8">
-        <f>M48-L48</f>
+      <c r="N48" s="7">
+        <f t="shared" si="15"/>
         <v>-407449.76000001002</v>
       </c>
-      <c r="O48" s="12">
-        <f>IFERROR(N48/L48,"")</f>
+      <c r="O48" s="10">
+        <f t="shared" si="16"/>
         <v>-5.5893132870587676E-2</v>
       </c>
       <c r="P48">
-        <f>_xlfn.RANK.EQ(O48,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
     </row>
@@ -5225,22 +5243,22 @@
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>92200</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>90499.43</v>
       </c>
-      <c r="D49" s="8">
-        <f>C49-B49</f>
+      <c r="D49" s="7">
+        <f t="shared" si="9"/>
         <v>-1700.570000000007</v>
       </c>
-      <c r="E49" s="12">
-        <f>IFERROR(D49/B49,"")</f>
+      <c r="E49" s="10">
+        <f t="shared" si="10"/>
         <v>-1.8444360086767971E-2</v>
       </c>
-      <c r="F49">
-        <f>_xlfn.RANK.EQ(E49,$E$2:$E$52,1)</f>
+      <c r="F49" s="14">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="G49">
@@ -5249,16 +5267,16 @@
       <c r="H49">
         <v>95466.880000000005</v>
       </c>
-      <c r="I49" s="8">
-        <f>H49-G49</f>
+      <c r="I49" s="7">
+        <f t="shared" si="12"/>
         <v>-7133.1199999999953</v>
       </c>
-      <c r="J49" s="12">
-        <f>IFERROR(I49/G49,"")</f>
+      <c r="J49" s="10">
+        <f t="shared" si="13"/>
         <v>-6.9523586744639335E-2</v>
       </c>
       <c r="K49">
-        <f>_xlfn.RANK.EQ(J49,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="L49">
@@ -5267,16 +5285,16 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="8">
-        <f>M49-L49</f>
+      <c r="N49" s="7">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O49" s="12" t="str">
-        <f>IFERROR(N49/L49,"")</f>
+      <c r="O49" s="10" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P49" t="e">
-        <f>_xlfn.RANK.EQ(O49,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5284,22 +5302,22 @@
       <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>832600</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>832600</v>
       </c>
-      <c r="D50" s="8">
-        <f>C50-B50</f>
+      <c r="D50" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E50" s="12">
-        <f>IFERROR(D50/B50,"")</f>
+      <c r="E50" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F50">
-        <f>_xlfn.RANK.EQ(E50,$E$2:$E$52,1)</f>
+      <c r="F50" s="14">
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="G50">
@@ -5308,16 +5326,16 @@
       <c r="H50">
         <v>859100</v>
       </c>
-      <c r="I50" s="8">
-        <f>H50-G50</f>
+      <c r="I50" s="7">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J50" s="12">
-        <f>IFERROR(I50/G50,"")</f>
+      <c r="J50" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>_xlfn.RANK.EQ(J50,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="L50">
@@ -5326,16 +5344,16 @@
       <c r="M50">
         <v>843200</v>
       </c>
-      <c r="N50" s="8">
-        <f>M50-L50</f>
+      <c r="N50" s="7">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O50" s="12">
-        <f>IFERROR(N50/L50,"")</f>
+      <c r="O50" s="10">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f>_xlfn.RANK.EQ(O50,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
     </row>
@@ -5343,22 +5361,22 @@
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>8609500</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>8499425.3399999905</v>
       </c>
-      <c r="D51" s="8">
-        <f>C51-B51</f>
+      <c r="D51" s="7">
+        <f t="shared" si="9"/>
         <v>-110074.66000000946</v>
       </c>
-      <c r="E51" s="12">
-        <f>IFERROR(D51/B51,"")</f>
+      <c r="E51" s="10">
+        <f t="shared" si="10"/>
         <v>-1.2785255822058129E-2</v>
       </c>
-      <c r="F51">
-        <f>_xlfn.RANK.EQ(E51,$E$2:$E$52,1)</f>
+      <c r="F51" s="14">
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="G51">
@@ -5367,16 +5385,16 @@
       <c r="H51">
         <v>8599059.6199999992</v>
       </c>
-      <c r="I51" s="8">
-        <f>H51-G51</f>
+      <c r="I51" s="7">
+        <f t="shared" si="12"/>
         <v>-326440.38000000082</v>
       </c>
-      <c r="J51" s="12">
-        <f>IFERROR(I51/G51,"")</f>
+      <c r="J51" s="10">
+        <f t="shared" si="13"/>
         <v>-3.6573903982970231E-2</v>
       </c>
       <c r="K51">
-        <f>_xlfn.RANK.EQ(J51,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="L51">
@@ -5385,16 +5403,16 @@
       <c r="M51">
         <v>8735843.3100000005</v>
       </c>
-      <c r="N51" s="8">
-        <f>M51-L51</f>
+      <c r="N51" s="7">
+        <f t="shared" si="15"/>
         <v>-98056.689999999478</v>
       </c>
-      <c r="O51" s="12">
-        <f>IFERROR(N51/L51,"")</f>
+      <c r="O51" s="10">
+        <f t="shared" si="16"/>
         <v>-1.1100045280114048E-2</v>
       </c>
       <c r="P51">
-        <f>_xlfn.RANK.EQ(O51,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
     </row>
@@ -5402,22 +5420,22 @@
       <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>2451000</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>2254684.7999999998</v>
       </c>
-      <c r="D52" s="8">
-        <f>C52-B52</f>
+      <c r="D52" s="7">
+        <f t="shared" si="9"/>
         <v>-196315.20000000019</v>
       </c>
-      <c r="E52" s="12">
-        <f>IFERROR(D52/B52,"")</f>
+      <c r="E52" s="10">
+        <f t="shared" si="10"/>
         <v>-8.009596083231342E-2</v>
       </c>
-      <c r="F52">
-        <f>_xlfn.RANK.EQ(E52,$E$2:$E$52,1)</f>
+      <c r="F52" s="14">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G52">
@@ -5426,16 +5444,16 @@
       <c r="H52">
         <v>2204672.88</v>
       </c>
-      <c r="I52" s="8">
-        <f>H52-G52</f>
+      <c r="I52" s="7">
+        <f t="shared" si="12"/>
         <v>-236027.12000000011</v>
       </c>
-      <c r="J52" s="12">
-        <f>IFERROR(I52/G52,"")</f>
+      <c r="J52" s="10">
+        <f t="shared" si="13"/>
         <v>-9.6704683082722218E-2</v>
       </c>
       <c r="K52">
-        <f>_xlfn.RANK.EQ(J52,$J$2:$J$52,1)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="L52">
@@ -5444,16 +5462,16 @@
       <c r="M52">
         <v>2056835.26</v>
       </c>
-      <c r="N52" s="8">
-        <f>M52-L52</f>
+      <c r="N52" s="7">
+        <f t="shared" si="15"/>
         <v>-264764.74</v>
       </c>
-      <c r="O52" s="12">
-        <f>IFERROR(N52/L52,"")</f>
+      <c r="O52" s="10">
+        <f t="shared" si="16"/>
         <v>-0.11404408166781529</v>
       </c>
       <c r="P52">
-        <f>_xlfn.RANK.EQ(O52,$O$2:$O$52,1)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
     </row>
@@ -5466,13 +5484,13 @@
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5480,27 +5498,27 @@
       <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="8">
-        <f>VLOOKUP($A56,$A$2:$P$52,4,0)</f>
+      <c r="B56" s="7">
+        <f>VLOOKUP($A56,$A$2:$P$52,MATCH(B55,1:1,0),0)</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C56" s="8">
-        <f>VLOOKUP(A56,$A$2:$P$52,9,0)</f>
+      <c r="C56" s="7">
+        <f t="shared" ref="C56:D56" si="18">VLOOKUP($A56,$A$2:$P$52,MATCH(C55,1:1,0),0)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D56" s="8">
-        <f>VLOOKUP(A56,$A$2:$P$52,14,0)</f>
+      <c r="D56" s="7">
+        <f t="shared" si="18"/>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="10">
         <f>MATCH(B56,B65)</f>
         <v>1</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="20">
         <f>MATCH(C56,C65)</f>
         <v>1</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="10">
         <f>MATCH(D56,D65)</f>
         <v>1</v>
       </c>
@@ -5509,28 +5527,28 @@
       <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="8">
-        <f t="shared" ref="B57:B61" si="0">VLOOKUP(A57,$A$2:$P$52,4,0)</f>
+      <c r="B57" s="7">
+        <f t="shared" ref="B57:B61" si="19">VLOOKUP(A57,$A$2:$P$52,4,0)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="8">
-        <f t="shared" ref="C57:C61" si="1">VLOOKUP(A57,$A$2:$P$52,9,0)</f>
+      <c r="C57" s="7">
+        <f t="shared" ref="C57:C61" si="20">VLOOKUP(A57,$A$2:$P$52,9,0)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="8">
-        <f t="shared" ref="D57:D61" si="2">VLOOKUP(A57,$A$2:$P$52,14,0)</f>
+      <c r="D57" s="7">
+        <f t="shared" ref="D57:D61" si="21">VLOOKUP(A57,$A$2:$P$52,14,0)</f>
         <v>-311228.08999999997</v>
       </c>
-      <c r="E57" s="12">
-        <f t="shared" ref="E57:E61" si="3">MATCH(B57,B66)</f>
+      <c r="E57" s="10">
+        <f t="shared" ref="E57:E61" si="22">MATCH(B57,B66)</f>
         <v>1</v>
       </c>
-      <c r="F57" s="12">
-        <f t="shared" ref="F57:G57" si="4">MATCH(C57,C66)</f>
+      <c r="F57" s="20">
+        <f t="shared" ref="F57:G57" si="23">MATCH(C57,C66)</f>
         <v>1</v>
       </c>
-      <c r="G57" s="12">
-        <f t="shared" si="4"/>
+      <c r="G57" s="10">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -5538,28 +5556,28 @@
       <c r="A58" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="8">
-        <f t="shared" si="0"/>
+      <c r="B58" s="7">
+        <f t="shared" si="19"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C58" s="8">
-        <f t="shared" si="1"/>
+      <c r="C58" s="7">
+        <f t="shared" si="20"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D58" s="8">
-        <f t="shared" si="2"/>
+      <c r="D58" s="7">
+        <f t="shared" si="21"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="E58" s="12">
-        <f t="shared" si="3"/>
+      <c r="E58" s="10">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="F58" s="12">
-        <f t="shared" ref="F58:G58" si="5">MATCH(C58,C67)</f>
+      <c r="F58" s="20">
+        <f t="shared" ref="F58:G58" si="24">MATCH(C58,C67)</f>
         <v>1</v>
       </c>
-      <c r="G58" s="12">
-        <f t="shared" si="5"/>
+      <c r="G58" s="10">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -5567,28 +5585,28 @@
       <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="8">
-        <f t="shared" si="0"/>
+      <c r="B59" s="7">
+        <f t="shared" si="19"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C59" s="8">
-        <f t="shared" si="1"/>
+      <c r="C59" s="7">
+        <f t="shared" si="20"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D59" s="8">
-        <f t="shared" si="2"/>
+      <c r="D59" s="7">
+        <f t="shared" si="21"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="E59" s="12">
-        <f t="shared" si="3"/>
+      <c r="E59" s="10">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="F59" s="12">
-        <f t="shared" ref="F59:G59" si="6">MATCH(C59,C68)</f>
+      <c r="F59" s="20">
+        <f t="shared" ref="F59:G59" si="25">MATCH(C59,C68)</f>
         <v>1</v>
       </c>
-      <c r="G59" s="12">
-        <f t="shared" si="6"/>
+      <c r="G59" s="10">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -5596,28 +5614,28 @@
       <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="8">
-        <f t="shared" si="0"/>
+      <c r="B60" s="7">
+        <f t="shared" si="19"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C60" s="8">
-        <f t="shared" si="1"/>
+      <c r="C60" s="7">
+        <f t="shared" si="20"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D60" s="8">
-        <f t="shared" si="2"/>
+      <c r="D60" s="7">
+        <f t="shared" si="21"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="E60" s="12">
-        <f t="shared" si="3"/>
+      <c r="E60" s="10">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="F60" s="12">
-        <f t="shared" ref="F60:G60" si="7">MATCH(C60,C69)</f>
+      <c r="F60" s="20">
+        <f t="shared" ref="F60:G60" si="26">MATCH(C60,C69)</f>
         <v>1</v>
       </c>
-      <c r="G60" s="12">
-        <f t="shared" si="7"/>
+      <c r="G60" s="10">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -5625,33 +5643,33 @@
       <c r="A61" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="8">
-        <f t="shared" si="0"/>
+      <c r="B61" s="7">
+        <f t="shared" si="19"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C61" s="8">
-        <f t="shared" si="1"/>
+      <c r="C61" s="7">
+        <f t="shared" si="20"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D61" s="8">
-        <f t="shared" si="2"/>
+      <c r="D61" s="7">
+        <f t="shared" si="21"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="E61" s="12">
-        <f t="shared" si="3"/>
+      <c r="E61" s="10">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="F61" s="12">
-        <f t="shared" ref="F61:G61" si="8">MATCH(C61,C70)</f>
+      <c r="F61" s="20">
+        <f t="shared" ref="F61:G61" si="27">MATCH(C61,C70)</f>
         <v>1</v>
       </c>
-      <c r="G61" s="12">
-        <f t="shared" si="8"/>
+      <c r="G61" s="10">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5659,13 +5677,13 @@
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5673,15 +5691,15 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$D$2:$D$52,0)</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$I$2:$I$52,0)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$N$2:$N$52,0)</f>
         <v>-9181.0800000000163</v>
       </c>
@@ -5690,16 +5708,16 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="8">
-        <f t="shared" ref="B66:B70" si="9">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52,0)</f>
+      <c r="B66" s="7">
+        <f t="shared" ref="B66:B70" si="28">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52,0)</f>
         <v>0</v>
       </c>
-      <c r="C66" s="8">
-        <f t="shared" ref="C66:C70" si="10">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,0)</f>
+      <c r="C66" s="7">
+        <f t="shared" ref="C66:C70" si="29">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,0)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="8">
-        <f t="shared" ref="D66:D70" si="11">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,0)</f>
+      <c r="D66" s="7">
+        <f t="shared" ref="D66:D70" si="30">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,0)</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -5707,16 +5725,16 @@
       <c r="A67" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="8">
-        <f t="shared" si="9"/>
+      <c r="B67" s="7">
+        <f t="shared" si="28"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C67" s="8">
-        <f t="shared" si="10"/>
+      <c r="C67" s="7">
+        <f t="shared" si="29"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D67" s="8">
-        <f t="shared" si="11"/>
+      <c r="D67" s="7">
+        <f t="shared" si="30"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -5724,16 +5742,16 @@
       <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="8">
-        <f t="shared" si="9"/>
+      <c r="B68" s="7">
+        <f t="shared" si="28"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C68" s="8">
-        <f t="shared" si="10"/>
+      <c r="C68" s="7">
+        <f t="shared" si="29"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D68" s="8">
-        <f t="shared" si="11"/>
+      <c r="D68" s="7">
+        <f t="shared" si="30"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -5741,16 +5759,16 @@
       <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="8">
-        <f t="shared" si="9"/>
+      <c r="B69" s="7">
+        <f t="shared" si="28"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C69" s="8">
-        <f t="shared" si="10"/>
+      <c r="C69" s="7">
+        <f t="shared" si="29"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D69" s="8">
-        <f t="shared" si="11"/>
+      <c r="D69" s="7">
+        <f t="shared" si="30"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -5758,21 +5776,21 @@
       <c r="A70" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="8">
-        <f t="shared" si="9"/>
+      <c r="B70" s="7">
+        <f t="shared" si="28"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C70" s="8">
-        <f t="shared" si="10"/>
+      <c r="C70" s="7">
+        <f t="shared" si="29"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D70" s="8">
-        <f t="shared" si="11"/>
+      <c r="D70" s="7">
+        <f t="shared" si="30"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5780,13 +5798,13 @@
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5794,28 +5812,28 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <f>INDEX($D$2:$D$52,MATCH($A74,$A$2:$A$52,0))</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <f>INDEX($I$2:$I$52,MATCH($A74,$A$2:$A$52,0))</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <f>INDEX($N$2:$N$52,MATCH($A74,$A$2:$A$52,0))</f>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="10">
         <f>MATCH(B74,B65)</f>
         <v>1</v>
       </c>
-      <c r="F74" s="12">
-        <f t="shared" ref="F74:G74" si="12">MATCH(C74,C65)</f>
+      <c r="F74" s="20">
+        <f t="shared" ref="F74:G74" si="31">MATCH(C74,C65)</f>
         <v>1</v>
       </c>
-      <c r="G74" s="12">
-        <f t="shared" si="12"/>
+      <c r="G74" s="10">
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -5823,28 +5841,28 @@
       <c r="A75" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="8">
-        <f t="shared" ref="B75:B79" si="13">INDEX($D$2:$D$52,MATCH(A75,$A$2:$A$52,0))</f>
+      <c r="B75" s="7">
+        <f t="shared" ref="B75:B79" si="32">INDEX($D$2:$D$52,MATCH(A75,$A$2:$A$52,0))</f>
         <v>0</v>
       </c>
-      <c r="C75" s="8">
-        <f t="shared" ref="C75:C79" si="14">INDEX($I$2:$I$52,MATCH($A75,$A$2:$A$52,0))</f>
+      <c r="C75" s="7">
+        <f t="shared" ref="C75:C79" si="33">INDEX($I$2:$I$52,MATCH($A75,$A$2:$A$52,0))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="8">
-        <f t="shared" ref="D75:D79" si="15">INDEX($N$2:$N$52,MATCH($A75,$A$2:$A$52,0))</f>
+      <c r="D75" s="7">
+        <f t="shared" ref="D75:D79" si="34">INDEX($N$2:$N$52,MATCH($A75,$A$2:$A$52,0))</f>
         <v>-311228.08999999997</v>
       </c>
-      <c r="E75" s="12">
-        <f t="shared" ref="E75:E79" si="16">MATCH(B75,B66)</f>
+      <c r="E75" s="10">
+        <f t="shared" ref="E75:E79" si="35">MATCH(B75,B66)</f>
         <v>1</v>
       </c>
-      <c r="F75" s="12">
-        <f t="shared" ref="F75:F79" si="17">MATCH(C75,C66)</f>
+      <c r="F75" s="20">
+        <f t="shared" ref="F75:F79" si="36">MATCH(C75,C66)</f>
         <v>1</v>
       </c>
-      <c r="G75" s="12">
-        <f t="shared" ref="G75:G79" si="18">MATCH(D75,D66)</f>
+      <c r="G75" s="10">
+        <f t="shared" ref="G75:G79" si="37">MATCH(D75,D66)</f>
         <v>1</v>
       </c>
     </row>
@@ -5852,28 +5870,28 @@
       <c r="A76" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="8">
-        <f t="shared" si="13"/>
+      <c r="B76" s="7">
+        <f t="shared" si="32"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C76" s="8">
-        <f t="shared" si="14"/>
+      <c r="C76" s="7">
+        <f t="shared" si="33"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D76" s="8">
-        <f t="shared" si="15"/>
+      <c r="D76" s="7">
+        <f t="shared" si="34"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="E76" s="12">
-        <f t="shared" si="16"/>
+      <c r="E76" s="10">
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="F76" s="12">
-        <f t="shared" si="17"/>
+      <c r="F76" s="20">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="G76" s="12">
-        <f t="shared" si="18"/>
+      <c r="G76" s="10">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -5881,28 +5899,28 @@
       <c r="A77" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="8">
-        <f t="shared" si="13"/>
+      <c r="B77" s="7">
+        <f t="shared" si="32"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C77" s="8">
-        <f t="shared" si="14"/>
+      <c r="C77" s="7">
+        <f t="shared" si="33"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D77" s="8">
-        <f t="shared" si="15"/>
+      <c r="D77" s="7">
+        <f t="shared" si="34"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="E77" s="12">
-        <f t="shared" si="16"/>
+      <c r="E77" s="10">
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="F77" s="12">
-        <f t="shared" si="17"/>
+      <c r="F77" s="20">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="G77" s="12">
-        <f t="shared" si="18"/>
+      <c r="G77" s="10">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -5910,28 +5928,28 @@
       <c r="A78" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="8">
-        <f t="shared" si="13"/>
+      <c r="B78" s="7">
+        <f t="shared" si="32"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C78" s="8">
-        <f t="shared" si="14"/>
+      <c r="C78" s="7">
+        <f t="shared" si="33"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D78" s="8">
-        <f t="shared" si="15"/>
+      <c r="D78" s="7">
+        <f t="shared" si="34"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="E78" s="12">
-        <f t="shared" si="16"/>
+      <c r="E78" s="10">
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="F78" s="12">
-        <f t="shared" si="17"/>
+      <c r="F78" s="20">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="G78" s="12">
-        <f t="shared" si="18"/>
+      <c r="G78" s="10">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -5939,33 +5957,33 @@
       <c r="A79" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="8">
-        <f t="shared" si="13"/>
+      <c r="B79" s="7">
+        <f t="shared" si="32"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C79" s="8">
-        <f t="shared" si="14"/>
+      <c r="C79" s="7">
+        <f t="shared" si="33"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D79" s="8">
-        <f t="shared" si="15"/>
+      <c r="D79" s="7">
+        <f t="shared" si="34"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="E79" s="12">
-        <f t="shared" si="16"/>
+      <c r="E79" s="10">
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="F79" s="12">
-        <f t="shared" si="17"/>
+      <c r="F79" s="20">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="G79" s="12">
-        <f t="shared" si="18"/>
+      <c r="G79" s="10">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5975,10 +5993,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5986,11 +6004,11 @@
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <f>INDEX(Table1[FY17_Budget], MATCH($B$87,Table1[Department],0))</f>
         <v>3130600</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <f>INDEX(Table1[FY17_Actual], MATCH($B$87,Table1[Department],0))</f>
         <v>3115157.5599999898</v>
       </c>
@@ -5999,11 +6017,11 @@
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <f>INDEX(Table1[FY18_Budget], MATCH($B$87,Table1[Department],0))</f>
         <v>3652300</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <f>INDEX(Table1[FY18_Actual], MATCH($B$87,Table1[Department],0))</f>
         <v>3589693.2099999902</v>
       </c>
@@ -6012,61 +6030,61 @@
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <f>INDEX(Table1[FY19_Budget], MATCH($B$87,Table1[Department],0))</f>
         <v>3662400</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <f>INDEX(Table1[FY19_Actual], MATCH($B$87,Table1[Department],0))</f>
         <v>3564983.04999999</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="15">
         <v>1</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10">
+      <c r="C89" s="15"/>
+      <c r="D89" s="15">
         <v>2</v>
       </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="6">
+      <c r="E89" s="16"/>
+      <c r="F89" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6074,58 +6092,127 @@
       <c r="A91" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="5"/>
+      <c r="B91" s="7" t="str">
+        <f>_xlfn.XLOOKUP(1,Table1[FY17_rank],Table1[Department],"",1)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C91" s="18">
+        <f>_xlfn.XLOOKUP(1,Table1[FY17_rank],Table1[FY17_diff_pct],"",1)</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D91" s="7" t="str">
+        <f>_xlfn.XLOOKUP(2,Table1[FY17_rank],Table1[Department],"",1)</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E91" s="18">
+        <f>_xlfn.XLOOKUP(2,Table1[FY17_rank],Table1[FY17_diff_pct],"",1)</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F91" s="14" t="str">
+        <f>_xlfn.XLOOKUP(3,Table1[FY17_rank],Table1[Department],"",1)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G91" s="18">
+        <f>_xlfn.XLOOKUP(3,Table1[FY17_rank],Table1[FY17_diff_pct],"",1)</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>74</v>
       </c>
-      <c r="G92" s="5"/>
+      <c r="B92" s="7" t="str">
+        <f>_xlfn.XLOOKUP(1,Table1[FY18_rank],Table1[Department],"",1)</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C92" s="18">
+        <f>_xlfn.XLOOKUP(1,Table1[FY18_rank],Table1[FY18_diff_pct],"",1)</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D92" s="7" t="str">
+        <f>_xlfn.XLOOKUP(2,Table1[FY18_rank],Table1[Department],"",1)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E92" s="18">
+        <f>_xlfn.XLOOKUP(2,Table1[FY18_rank],Table1[FY18_diff_pct],"",1)</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F92" s="14" t="str">
+        <f>_xlfn.XLOOKUP(3,Table1[FY18_rank],Table1[Department],"",1)</f>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G92" s="18">
+        <f>_xlfn.XLOOKUP(3,Table1[FY18_rank],Table1[FY18_diff_pct],"",1)</f>
+        <v>-0.13918241656366656</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>75</v>
       </c>
-      <c r="G93" s="5"/>
+      <c r="B93" s="7" t="str">
+        <f>_xlfn.XLOOKUP(1,Table1[FY19_rank],Table1[Department],"",1)</f>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C93" s="18">
+        <f>_xlfn.XLOOKUP(1,Table1[FY19_rank],Table1[FY19_diff_pct],"",1)</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D93" s="7" t="str">
+        <f>_xlfn.XLOOKUP(2,Table1[FY19_rank],Table1[Department],"",1)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E93" s="18">
+        <f>_xlfn.XLOOKUP(2,Table1[FY19_rank],Table1[FY19_diff_pct],"",1)</f>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="F93" s="14" t="str">
+        <f>_xlfn.XLOOKUP(3,Table1[FY19_rank],Table1[Department],"",1)</f>
+        <v>Election Commission</v>
+      </c>
+      <c r="G93" s="18">
+        <f>_xlfn.XLOOKUP(3,Table1[FY19_rank],Table1[FY19_diff_pct],"",1)</f>
+        <v>-0.12882667147667154</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="15">
         <v>1</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10">
+      <c r="C96" s="15"/>
+      <c r="D96" s="15">
         <v>2</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="6">
+      <c r="E96" s="16"/>
+      <c r="F96" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G97" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6133,21 +6220,93 @@
       <c r="A98" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="4"/>
+      <c r="B98" s="22" t="e">
+        <f>INDEX(Table1[Department],MATCH($B$96,Table1[FY17_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C98" s="22" t="e">
+        <f>INDEX(Table1[Department],MATCH(B96,Table1[FY17_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" s="7" t="str">
+        <f>INDEX(Table1[Department],MATCH(D96,Table1[FY17_rank],1))</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E98" s="18">
+        <f>INDEX(Table1[FY17_diff_pct],MATCH(D96,Table1[FY17_rank],1))</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F98" s="7" t="str">
+        <f>INDEX(Table1[Department],MATCH(F96,Table1[FY17_rank],1))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G98" s="18">
+        <f>INDEX(Table1[FY17_diff_pct],MATCH(F96,Table1[FY17_rank],1))</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
-      <c r="G99" s="4"/>
+      <c r="B99" s="22" t="e">
+        <f>INDEX(Table1[Department],MATCH($B$96,Table1[FY18_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C99" s="22" t="e">
+        <f>INDEX(Table1[Department],MATCH(B96,Table1[FY18_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" s="7" t="str">
+        <f>INDEX(Table1[Department],MATCH(D96,Table1[FY18_rank],1))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E99" s="18">
+        <f>INDEX(Table1[FY18_diff_pct],MATCH(D96,Table1[FY18_rank],1))</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F99" s="7" t="str">
+        <f>INDEX(Table1[Department],MATCH(F96,Table1[FY18_rank],1))</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="G99" s="18">
+        <f>INDEX(Table1[FY18_diff_pct],MATCH(F96,Table1[FY18_rank],1))</f>
+        <v>-0.17551246244575608</v>
+      </c>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>75</v>
       </c>
-      <c r="G100" s="4"/>
+      <c r="B100" s="22" t="e">
+        <f>INDEX(Table1[Department],MATCH($B$96,Table1[FY19_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C100" s="22" t="e">
+        <f>INDEX(Table1[Department],MATCH(B96,Table1[FY19_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" s="22" t="e">
+        <f>INDEX(Table1[Department],MATCH(D96,Table1[FY19_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E100" s="23" t="e">
+        <f>INDEX(Table1[FY19_diff_pct],MATCH(D96,Table1[FY19_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" s="22" t="e">
+        <f>INDEX(Table1[Department],MATCH(F96,Table1[FY19_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" s="23" t="e">
+        <f>INDEX(Table1[FY19_diff_pct],MATCH(F96,Table1[FY19_rank],1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H100" t="s">
+        <v>91</v>
+      </c>
       <c r="I100" s="4"/>
     </row>
   </sheetData>
